--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CovarUnc_2010_to_2012" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Covar_2010_to_2012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CovarUnc_2009_to_2012" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Covar_2009_to_2012" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
   <si>
     <t>Ticker</t>
   </si>
@@ -33,9 +33,6 @@
   </si>
   <si>
     <t>ACA:FP</t>
-  </si>
-  <si>
-    <t>AKTAV:FH</t>
   </si>
   <si>
     <t>ALBAV:FH</t>
@@ -501,7 +498,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F41"/>
+  <dimension ref="A1:F40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -534,16 +531,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3708620090349303</v>
+        <v>0.4363242402965723</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4512762658161861</v>
+        <v>-0.4543138078950274</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.08841807654168768</v>
+        <v>-0.0443412417267765</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1345703170691175</v>
+        <v>-0.1788809684757983</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -554,16 +551,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01113590383795852</v>
+        <v>1.08985698550446</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3013112219926598</v>
+        <v>-0.3573827342596037</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.05602111660778449</v>
+        <v>-0.008466696019729811</v>
       </c>
       <c r="F3" t="n">
-        <v>0.002731527025968682</v>
+        <v>-0.380268581630268</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -574,16 +571,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3871078485908356</v>
+        <v>0.1272422721555989</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3649775492514324</v>
+        <v>-0.5829427572356067</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.02034795872723176</v>
+        <v>-0.1754460561644704</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1334088193485639</v>
+        <v>-0.05185080614020227</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -594,16 +591,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.07686636694211128</v>
+        <v>0.635328799586618</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.5843699118908517</v>
+        <v>-0.485897343557235</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1921361585674902</v>
+        <v>-0.1174921692963001</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.03014958361003507</v>
+        <v>-0.2340584171246986</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -614,16 +611,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2833125747878968</v>
+        <v>0.635328799586618</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4915721494616771</v>
+        <v>-0.485897343557235</v>
       </c>
       <c r="E6" t="n">
         <v>-0.1174921692963001</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.1059815623572583</v>
+        <v>-0.2340584171246986</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -634,16 +631,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2833125747878968</v>
+        <v>0.5106881792266649</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4915721494616771</v>
+        <v>-0.4050676546600559</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.1174921692963001</v>
+        <v>-0.004750955551678292</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.1059815623572583</v>
+        <v>-0.204437006181686</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -654,16 +651,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.01638432619491434</v>
+        <v>0.3684043479241357</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3987635866238464</v>
+        <v>-0.2757727286142955</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.004750955551678292</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.006455631472402842</v>
+        <v>-0.0629662753383893</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -674,16 +671,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1468383955632917</v>
+        <v>1.4822782163368</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1949230120121093</v>
+        <v>-0.0759317802434238</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.1254222328686776</v>
+        <v>-0.02084795666577791</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.01020538289982019</v>
+        <v>-0.08164955176168391</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -694,16 +691,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>0.7678994515098888</v>
+        <v>0.2305811515244172</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.06443878061529935</v>
+        <v>-0.6109575679068696</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.01566587056501444</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.03745269087615492</v>
+        <v>-0.1164485112864775</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -714,16 +711,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.003537735677359724</v>
+        <v>0.3825127790294681</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.6219157009768816</v>
+        <v>-0.4284582877077564</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.1063374679794493</v>
+        <v>0.0002838638469014556</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.001823979509345101</v>
+        <v>-0.1639993518782456</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -734,16 +731,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0.008343213792518298</v>
+        <v>0.495932222279701</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.416909364487417</v>
+        <v>-0.4655522318944267</v>
       </c>
       <c r="E12" t="n">
-        <v>8.947135144102454e-05</v>
+        <v>-0.09801791373491545</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.003479110438634834</v>
+        <v>-0.1822721111689011</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -754,16 +751,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3723816032784584</v>
+        <v>-0.7354766006789858</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4384783761114784</v>
+        <v>-0.22065236267816</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.1124983285694324</v>
+        <v>-0.0251844409554047</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.1213889727404952</v>
+        <v>0.1437620826104382</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -774,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.006079447417282188</v>
+        <v>0.8232565464732639</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2207294308742063</v>
+        <v>-0.1116545007476056</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.04455248451540762</v>
+        <v>0.04319374675263407</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.001071058481525661</v>
+        <v>-0.1274798334644845</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -794,16 +791,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.0179552093391457</v>
+        <v>-0.8002998509233834</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0577706304645612</v>
+        <v>-0.1389762618198738</v>
       </c>
       <c r="E15" t="n">
-        <v>0.04319374675263407</v>
+        <v>-0.01531486132336479</v>
       </c>
       <c r="F15" t="n">
-        <v>0.001812836528731214</v>
+        <v>0.09896620038233296</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -814,16 +811,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.9365081703483881</v>
+        <v>0.4040621425748926</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1350453191448074</v>
+        <v>-0.4481627623460562</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.01531486132336479</v>
+        <v>-0.02794253692894709</v>
       </c>
       <c r="F16" t="n">
-        <v>0.1121285519893341</v>
+        <v>-0.1697950846353415</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -834,16 +831,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3008435741543477</v>
+        <v>0.6823311091491923</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.4551944531096038</v>
+        <v>-0.3340919820066893</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.08928702711350385</v>
+        <v>-0.01860258869582366</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.1100808978462842</v>
+        <v>-0.2152682276626087</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -854,16 +851,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5727601628893507</v>
+        <v>-0.7273994487412014</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2770823919267855</v>
+        <v>-0.1792839764222448</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.01860258869582366</v>
+        <v>0.04045565059115366</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.148046934202173</v>
+        <v>0.1598384835561432</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -874,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.02642837837446306</v>
+        <v>0.4194811316921883</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1498647662439057</v>
+        <v>-0.32285242210048</v>
       </c>
       <c r="E19" t="n">
-        <v>0.04045565059115366</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="F19" t="n">
-        <v>0.005029859988502476</v>
+        <v>-0.1434398905818815</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -894,16 +891,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>0.009226726009505096</v>
+        <v>-0.3023850231285099</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3266020899389709</v>
+        <v>-0.238586697562182</v>
       </c>
       <c r="E20" t="n">
-        <v>0.005519352100755659</v>
+        <v>-0.05822648216919555</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.003064393547582284</v>
+        <v>0.05453822790307125</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -914,16 +911,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>0.4083374998378629</v>
+        <v>0.2136215223635414</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2398959558528148</v>
+        <v>-0.6127911472030648</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1239341277833044</v>
+        <v>-0.008921880856679401</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04735156295053201</v>
+        <v>-0.1289994719854697</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -934,16 +931,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>0.005995306128834827</v>
+        <v>0.3884676558537</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.6153562115350552</v>
+        <v>-0.3000187535884983</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.02512279088327121</v>
+        <v>-0.005102929000857889</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.003538630044276785</v>
+        <v>-0.1145652590517216</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -954,16 +951,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.01743482791400006</v>
+        <v>0.3231933146300037</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.208585982006466</v>
+        <v>-0.5357271330177658</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.005102929000857889</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="F23" t="n">
-        <v>0.003547692012568129</v>
+        <v>-0.1744868849822958</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -974,16 +971,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3123890963779088</v>
+        <v>0.2482236553052668</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3756431052257444</v>
+        <v>-0.4678008911728881</v>
       </c>
       <c r="E24" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.09523269533670928</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1186453561135049</v>
+        <v>-0.0924802394209448</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -994,16 +991,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07397136847932134</v>
+        <v>0.3000435938813104</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3810384539866547</v>
+        <v>-0.6479528970318489</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.1380324601916616</v>
+        <v>-0.11698260356056</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01797548590969311</v>
+        <v>-0.1593142350973396</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1014,16 +1011,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1265570418376699</v>
+        <v>0.3446379825246655</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.6454820078536803</v>
+        <v>-0.3747463436154447</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.11698260356056</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.06688532122030803</v>
+        <v>-0.09085361074921793</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1034,16 +1031,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2725198093129179</v>
+        <v>0.2177686809545828</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3484971918653264</v>
+        <v>-0.3459517465640926</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.1596141982655462</v>
+        <v>-0.04510310016987344</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0514743573982652</v>
+        <v>-0.0655154128922408</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1054,16 +1051,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07830033448984174</v>
+        <v>0.3221254479074342</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3319239086883811</v>
+        <v>-0.5996377235921017</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.04510310016987344</v>
+        <v>-0.05958483679626425</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.022458165245646</v>
+        <v>-0.173964778052812</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1074,16 +1071,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3987732826290241</v>
+        <v>-3.097620008234909</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4020920964947688</v>
+        <v>-0.0303028532027845</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.05958483679626425</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1365827442742443</v>
+        <v>0.07888591591332722</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1094,16 +1091,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>0.07901807421158462</v>
+        <v>0.2670814398701979</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.3816965548717784</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.007428953593721197</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00182988684527498</v>
+        <v>-0.09112365538806234</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1114,16 +1111,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.004916572723170884</v>
+        <v>0.1496872926464093</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.4019929622468619</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.03732438306026036</v>
+        <v>-0.09956686093057684</v>
       </c>
       <c r="F31" t="n">
-        <v>0.001697239019936735</v>
+        <v>-0.0452693443316434</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1134,16 +1131,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001877814168733694</v>
+        <v>0.4001816133026287</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.4012057327250869</v>
+        <v>-0.2779610678948544</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.1059429716276739</v>
+        <v>-0.08433521048528185</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.0005544485962881538</v>
+        <v>-0.07748550799526747</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1154,16 +1151,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>0.005657641324546878</v>
+        <v>0.1821172642511232</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.5429490184217962</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.08433521048528185</v>
+        <v>0.01048013556691602</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.001097843223877421</v>
+        <v>-0.1007890034812379</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1174,16 +1171,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1084117114090685</v>
+        <v>0.4359762800101243</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3268340859848235</v>
+        <v>-0.2591667793719182</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.04804877851644621</v>
+        <v>-0.02745085931519266</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.03022359229835015</v>
+        <v>-0.1010226448454546</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1194,16 +1191,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2509252827568692</v>
+        <v>1.032006292570926</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2568533206090257</v>
+        <v>-0.2180196751518288</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.02745085931519266</v>
+        <v>-0.01921309265456504</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05756287746527679</v>
+        <v>-0.2051696441416971</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1214,16 +1211,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>1.136467696346279</v>
+        <v>0.2767927518632231</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.192276277957757</v>
+        <v>-0.432098083343443</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.01921309265456504</v>
+        <v>-0.01851685349865339</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1966807195238678</v>
+        <v>-0.1144762867277155</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1234,16 +1231,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>0.07863220049537641</v>
+        <v>0.05515040853197504</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.5510198028913673</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.09751341061779327</v>
+        <v>0.02920943065224142</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02666929368095326</v>
+        <v>-0.03199987927212478</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1254,16 +1251,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01346699889171214</v>
+        <v>0.338606871943583</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.5407603238246278</v>
+        <v>-0.2085249037963419</v>
       </c>
       <c r="E38" t="n">
-        <v>0.02920943065224142</v>
+        <v>-0.02371676138643737</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.007675782051849436</v>
+        <v>-0.062577307011122</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1274,16 +1271,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.2126803821370254</v>
+        <v>0.3042034655849351</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.3115827468439004</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.004612568178118602</v>
+        <v>-0.06727098504895779</v>
       </c>
       <c r="F39" t="n">
-        <v>0.04401784044087094</v>
+        <v>-0.07432048462118268</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1294,36 +1291,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>0.08603368623925171</v>
+        <v>0.5516493854621466</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2557171183606105</v>
+        <v>-0.3692969821954745</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.06727098504895779</v>
+        <v>-0.1084705650380272</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.01621271550633492</v>
-      </c>
-    </row>
-    <row r="41" spans="1:6">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5065419966105223</v>
-      </c>
-      <c r="D41" t="n">
-        <v>-0.3630298357372025</v>
-      </c>
-      <c r="E41" t="n">
-        <v>-0.1084705650380272</v>
-      </c>
-      <c r="F41" t="n">
-        <v>-0.1289449612356787</v>
+        <v>-0.1438847327371993</v>
       </c>
     </row>
   </sheetData>
@@ -1337,7 +1314,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C41"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1350,7 +1327,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="2" spans="1:3">
@@ -1361,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>-0.1260804421793575</v>
+        <v>0.142396561936479</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1372,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1982005228500005</v>
+        <v>0.2164016431122757</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1383,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.02755013453556693</v>
+        <v>-0.0317192781240006</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1394,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1204403426182181</v>
+        <v>0.08669093818023202</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1405,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1623681532047419</v>
+        <v>0.08669093818023202</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1416,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1623681532047419</v>
+        <v>0.2922829106326964</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1427,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1569893143454875</v>
+        <v>0.1713013181400095</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1438,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07692016801269977</v>
+        <v>0.249198652662991</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1449,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1922015130611923</v>
+        <v>0.2034765474952746</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1460,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1178132308746326</v>
+        <v>0.002281257481192671</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1471,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02458287719542413</v>
+        <v>0.003140563991311711</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1482,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1063600913856567</v>
+        <v>0.124285444210072</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1493,7 +1470,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1226647986958058</v>
+        <v>0.05974139830360457</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1504,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1094864347120417</v>
+        <v>0.2405369433106067</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1515,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1721124270119459</v>
+        <v>0.09384299111904727</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1526,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0.113477142719314</v>
+        <v>0.3182073325591809</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1537,7 +1514,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.07169256321364545</v>
+        <v>0.3286372235515513</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1548,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2271279111583246</v>
+        <v>0.290219344869541</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1559,7 +1536,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1028475037505523</v>
+        <v>0.1962081436594084</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1570,7 +1547,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2395532439895931</v>
+        <v>-0.03426525618627362</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1581,7 +1558,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02609237163588923</v>
+        <v>0.04767090263837469</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1592,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>0.1185422279910425</v>
+        <v>-0.1925327278968446</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1603,7 +1580,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>0.0909517242760747</v>
+        <v>-0.1654686000593793</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1614,7 +1591,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4829318518958797</v>
+        <v>-0.221260665744304</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1625,7 +1602,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.003579155533272427</v>
+        <v>0.2360752640615458</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1636,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.04364658398209705</v>
+        <v>0.3931895304439018</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1647,7 +1624,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2979830599600101</v>
+        <v>0.008263696731061181</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1658,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>0.02567378030305866</v>
+        <v>0.2274250051785176</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1669,7 +1646,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1324614978237702</v>
+        <v>0.09820309638206387</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1680,7 +1657,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1741273406993087</v>
+        <v>0.1618416522693725</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1691,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>0.132281995582517</v>
+        <v>0.1287970857808469</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1702,7 +1679,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1266456904511689</v>
+        <v>0.1408249277934573</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1713,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2328142763707885</v>
+        <v>0.2628904346717144</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1724,7 +1701,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>0.04545227449343144</v>
+        <v>-0.03124405948964251</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1735,7 +1712,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.01186778311679604</v>
+        <v>0.04800639968425396</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1746,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>0.008867704107946128</v>
+        <v>0.3215021325675482</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1757,7 +1734,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2090793609178238</v>
+        <v>0.2666175701591568</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1768,7 +1745,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1708432975201198</v>
+        <v>0.2437248452645132</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1779,18 +1756,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>0.03210178938038592</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="n">
-        <v>-0.03078158291364628</v>
+        <v>-0.2162468863011787</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CovarUnc_2009_to_2012" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Covar_2009_to_2012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CovarUnc_2009_to_2011" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Covar_2009_to_2011" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -47,7 +47,7 @@
     <t>BCP:PL</t>
   </si>
   <si>
-    <t>BDM:IM</t>
+    <t>BDB:IM</t>
   </si>
   <si>
     <t>BKT:SM</t>
@@ -531,16 +531,16 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4363242402965723</v>
+        <v>0.4363241601072309</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.4543138078950274</v>
+        <v>-0.4576570057588757</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.0443412417267765</v>
+        <v>-0.04555414074666971</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.1788809684757983</v>
+        <v>-0.1798104364542343</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -551,16 +551,16 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>1.08985698550446</v>
+        <v>1.08985714150524</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3573827342596037</v>
+        <v>-0.3620777838639835</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.008466696019729811</v>
+        <v>0.004527576062531471</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.380268581630268</v>
+        <v>-0.3995474696300114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -571,16 +571,16 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1272422721555989</v>
+        <v>0.283709169368171</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.5829427572356067</v>
+        <v>-0.5861330664460952</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.1754460561644704</v>
+        <v>-0.1964237563617732</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.05185080614020227</v>
+        <v>-0.110564104659066</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -591,16 +591,16 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.635328799586618</v>
+        <v>0.6353287960843303</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.485897343557235</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.1174921692963001</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2340584171246986</v>
+        <v>-0.2809471840310464</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -611,16 +611,16 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.635328799586618</v>
+        <v>0.6353287960843303</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.485897343557235</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.1174921692963001</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2340584171246986</v>
+        <v>-0.2809471840310464</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -631,16 +631,16 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5106881792266649</v>
+        <v>0.5106881886541067</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4050676546600559</v>
+        <v>-0.262631449293981</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.004750955551678292</v>
+        <v>-0.002407767627232283</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.204437006181686</v>
+        <v>-0.1328931606352948</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -651,16 +651,16 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3684043479241357</v>
+        <v>0.368404344821531</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2757727286142955</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="E8" t="n">
         <v>-0.1048565174099811</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0629662753383893</v>
+        <v>-0.06415457014335828</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -671,16 +671,16 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>1.4822782163368</v>
+        <v>1.482278357028076</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.0759317802434238</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.02084795666577791</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.08164955176168391</v>
+        <v>-0.06933448932922912</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -691,16 +691,16 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2305811515244172</v>
+        <v>0.2305811861308734</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.6109575679068696</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="E10" t="n">
         <v>-0.1059357544732321</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1164485112864775</v>
+        <v>-0.117846957248409</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -711,16 +711,16 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3825127790294681</v>
+        <v>0.6816434272975801</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4284582877077564</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="E11" t="n">
-        <v>0.0002838638469014556</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1639993518782456</v>
+        <v>-0.2475413390040164</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -731,16 +731,16 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0.495932222279701</v>
+        <v>0.4959321589434947</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.4655522318944267</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.09801791373491545</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1822721111689011</v>
+        <v>-0.1936921227459136</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -751,16 +751,16 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.7354766006789858</v>
+        <v>0.9945775325894669</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.22065236267816</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0251844409554047</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="F13" t="n">
-        <v>0.1437620826104382</v>
+        <v>-0.1965125339385523</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -771,16 +771,16 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8232565464732639</v>
+        <v>0.8232544262510897</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1116545007476056</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="E14" t="n">
-        <v>0.04319374675263407</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.1274798334644845</v>
+        <v>-0.1134974882647972</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -791,16 +791,16 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8002998509233834</v>
+        <v>-0.8002997798564983</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1389762618198738</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.01531486132336479</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="F15" t="n">
-        <v>0.09896620038233296</v>
+        <v>0.09674194138631444</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -811,16 +811,16 @@
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4040621425748926</v>
+        <v>0.4040621431410926</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4481627623460562</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.02794253692894709</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.1697950846353415</v>
+        <v>-0.1787338820866344</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -831,16 +831,16 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6823311091491923</v>
+        <v>0.6823311323443265</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3340919820066893</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.01860258869582366</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.2152682276626087</v>
+        <v>-0.1986571316082736</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -851,16 +851,16 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7273994487412014</v>
+        <v>-0.7273994871788335</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1792839764222448</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="E18" t="n">
-        <v>0.04045565059115366</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="F18" t="n">
-        <v>0.1598384835561432</v>
+        <v>0.1623767559504462</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -871,16 +871,16 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4194811316921883</v>
+        <v>0.4194830228511619</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.32285242210048</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="E19" t="n">
         <v>0.01909356722982552</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.1434398905818815</v>
+        <v>-0.08680328252895578</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -891,16 +891,16 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3023850231285099</v>
+        <v>-0.3023849903084074</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.238586697562182</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.05822648216919555</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="F20" t="n">
-        <v>0.05453822790307125</v>
+        <v>0.0499765897299405</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -911,16 +911,16 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2136215223635414</v>
+        <v>0.419595471703682</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.6127911472030648</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.008921880856679401</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.1289994719854697</v>
+        <v>-0.1978060838230851</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -931,16 +931,16 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3884676558537</v>
+        <v>0.4297194328589496</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3000187535884983</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.005102929000857889</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.1145652590517216</v>
+        <v>-0.1237562026297322</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -951,16 +951,16 @@
         <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3231933146300037</v>
+        <v>0.3231932775915683</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.5357271330177658</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="E23" t="n">
         <v>0.004156822137837838</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.1744868849822958</v>
+        <v>-0.1767013832255611</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -971,16 +971,16 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2482236553052668</v>
+        <v>0.3348399254415322</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.4678008911728881</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.09523269533670928</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0924802394209448</v>
+        <v>-0.1117340433429809</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -991,16 +991,16 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3000435938813104</v>
+        <v>0.4830247721369207</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.6479528970318489</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.11698260356056</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1593142350973396</v>
+        <v>-0.2440500917810962</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1011,16 +1011,16 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3446379825246655</v>
+        <v>0.4445757040283733</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3747463436154447</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="E26" t="n">
         <v>-0.111125920574245</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.09085361074921793</v>
+        <v>-0.1130918541924558</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1031,16 +1031,16 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2177686809545828</v>
+        <v>0.521615812931703</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3459517465640926</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.04510310016987344</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.0655154128922408</v>
+        <v>-0.143017386340532</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1051,16 +1051,16 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3221254479074342</v>
+        <v>0.3221254685962464</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.5996377235921017</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.05958483679626425</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.173964778052812</v>
+        <v>-0.1699357958423363</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1071,16 +1071,16 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.097620008234909</v>
+        <v>-3.097619560224732</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.0303028532027845</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="E29" t="n">
         <v>-0.00483623182778953</v>
       </c>
       <c r="F29" t="n">
-        <v>0.07888591591332722</v>
+        <v>0.07976540169395419</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1091,16 +1091,16 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2670814398701979</v>
+        <v>0.26708142794146</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3816965548717784</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="E30" t="n">
         <v>-0.04051352308810744</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.09112365538806234</v>
+        <v>-0.09134681941075161</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1111,16 +1111,16 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1496872926464093</v>
+        <v>0.1496872985581948</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4019929622468619</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.09956686093057684</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.0452693443316434</v>
+        <v>-0.04270773389002334</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1131,16 +1131,16 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4001816133026287</v>
+        <v>0.4001816214467527</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2779610678948544</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.08433521048528185</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.07748550799526747</v>
+        <v>-0.1030501299812374</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1151,16 +1151,16 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1821172642511232</v>
+        <v>0.1821172626168225</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.5429490184217962</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="E33" t="n">
-        <v>0.01048013556691602</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.1007890034812379</v>
+        <v>-0.09659845146709042</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1171,16 +1171,16 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4359762800101243</v>
+        <v>1.111200368274594</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2591667793719182</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.02745085931519266</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.1010226448454546</v>
+        <v>-0.2277745134332831</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1191,16 +1191,16 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>1.032006292570926</v>
+        <v>1.032006321620078</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2180196751518288</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.01921309265456504</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.2051696441416971</v>
+        <v>-0.1720079599340852</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1211,16 +1211,16 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2767927518632231</v>
+        <v>-0.3509225860774516</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.432098083343443</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.01851685349865339</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1144762867277155</v>
+        <v>0.1164687212377135</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1231,16 +1231,16 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>0.05515040853197504</v>
+        <v>0.401965800012757</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.5510198028913673</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="E37" t="n">
-        <v>0.02920943065224142</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.03199987927212478</v>
+        <v>-0.1942040386195751</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1251,16 +1251,16 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>0.338606871943583</v>
+        <v>0.3386069228665523</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2085249037963419</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.02371676138643737</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.062577307011122</v>
+        <v>-0.05913636039251446</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1271,16 +1271,16 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3042034655849351</v>
+        <v>0.747684921451253</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3115827468439004</v>
+        <v>-0.3141388711706843</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.06727098504895779</v>
+        <v>-0.0821521830214704</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.07432048462118268</v>
+        <v>-0.1734529487065813</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1291,16 +1291,16 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5516493854621466</v>
+        <v>0.759704102283257</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3692969821954745</v>
+        <v>-0.3712572385230804</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.1084705650380272</v>
+        <v>-0.1456427669620106</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1438847327371993</v>
+        <v>-0.171400239579414</v>
       </c>
     </row>
   </sheetData>
@@ -1338,7 +1338,7 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
-        <v>0.142396561936479</v>
+        <v>-0.2746833820796017</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -1349,7 +1349,7 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2164016431122757</v>
+        <v>-0.2670711336714227</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -1360,7 +1360,7 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0317192781240006</v>
+        <v>-0.2129740122661761</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -1371,7 +1371,7 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
-        <v>0.08669093818023202</v>
+        <v>-0.2656531945473813</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -1382,7 +1382,7 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
-        <v>0.08669093818023202</v>
+        <v>-0.2656531945473813</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -1393,7 +1393,7 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>0.2922829106326964</v>
+        <v>-0.3011000539213597</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -1404,7 +1404,7 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1713013181400095</v>
+        <v>-0.346993590900856</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -1415,7 +1415,7 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
-        <v>0.249198652662991</v>
+        <v>-0.2595219162935896</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -1426,7 +1426,7 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2034765474952746</v>
+        <v>-0.3132412020913974</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -1437,7 +1437,7 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002281257481192671</v>
+        <v>-0.3411299093435399</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -1448,7 +1448,7 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
-        <v>0.003140563991311711</v>
+        <v>-0.2477634490196334</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -1459,7 +1459,7 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
-        <v>0.124285444210072</v>
+        <v>-0.3632218402650448</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -1470,7 +1470,7 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05974139830360457</v>
+        <v>-0.2474804778941823</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -1481,7 +1481,7 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
-        <v>0.2405369433106067</v>
+        <v>-0.2021551546526934</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -1492,7 +1492,7 @@
         <v>19</v>
       </c>
       <c r="C16" t="n">
-        <v>0.09384299111904727</v>
+        <v>-0.2628765424648973</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -1503,7 +1503,7 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3182073325591809</v>
+        <v>-0.2724659927366025</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -1514,7 +1514,7 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3286372235515513</v>
+        <v>-0.1911982357594821</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -1525,7 +1525,7 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
-        <v>0.290219344869541</v>
+        <v>-0.3026691911443888</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -1536,7 +1536,7 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
-        <v>0.1962081436594084</v>
+        <v>-0.2531907131666987</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -1547,7 +1547,7 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.03426525618627362</v>
+        <v>-0.3550769208547558</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -1558,7 +1558,7 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04767090263837469</v>
+        <v>-0.258673619641919</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -1569,7 +1569,7 @@
         <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1925327278968446</v>
+        <v>-0.3315468494243731</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -1580,7 +1580,7 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
-        <v>-0.1654686000593793</v>
+        <v>-0.2824054656039393</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -1591,7 +1591,7 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
-        <v>-0.221260665744304</v>
+        <v>-0.240139070140522</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -1602,7 +1602,7 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2360752640615458</v>
+        <v>-0.3384341944607119</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -1613,7 +1613,7 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3931895304439018</v>
+        <v>-0.2697743092522675</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -1624,7 +1624,7 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
-        <v>0.008263696731061181</v>
+        <v>-0.2811793262287609</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -1635,7 +1635,7 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2274250051785176</v>
+        <v>-0.4478540804371309</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -1646,7 +1646,7 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
-        <v>0.09820309638206387</v>
+        <v>-0.2830455053328189</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -1657,7 +1657,7 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1618416522693725</v>
+        <v>-0.4904359061218004</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -1668,7 +1668,7 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1287970857808469</v>
+        <v>-0.3247013065391837</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -1679,7 +1679,7 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1408249277934573</v>
+        <v>-0.2468428129018339</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -1690,7 +1690,7 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2628904346717144</v>
+        <v>-0.3321727268536971</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -1701,7 +1701,7 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.03124405948964251</v>
+        <v>-0.1465550288987344</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -1712,7 +1712,7 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
-        <v>0.04800639968425396</v>
+        <v>-0.2657733499408937</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -1723,7 +1723,7 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3215021325675482</v>
+        <v>-0.2885105055146718</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -1734,7 +1734,7 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2666175701591568</v>
+        <v>-0.3336281292284953</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -1745,7 +1745,7 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2437248452645132</v>
+        <v>-0.2921499459122759</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -1756,7 +1756,7 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.2162468863011787</v>
+        <v>-0.1403169509794568</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
   <si>
     <t>Ticker</t>
   </si>
@@ -149,7 +149,10 @@
     <t>UCG:IM</t>
   </si>
   <si>
-    <t>Covar</t>
+    <t>COVAR</t>
+  </si>
+  <si>
+    <t>DELTA_COVAR</t>
   </si>
 </sst>
 </file>
@@ -1314,7 +1317,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1322,15 +1325,27 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
+      <c r="E1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
@@ -1338,10 +1353,22 @@
         <v>5</v>
       </c>
       <c r="C2" t="n">
+        <v>0.07278087118398249</v>
+      </c>
+      <c r="D2" t="n">
         <v>-0.2746833820796017</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
+      <c r="E2" t="n">
+        <v>-0.4576570057588757</v>
+      </c>
+      <c r="F2" t="n">
+        <v>-0.04555414074666971</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-0.02999320553300349</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
@@ -1349,10 +1376,22 @@
         <v>6</v>
       </c>
       <c r="C3" t="n">
+        <v>-0.04349867722843614</v>
+      </c>
+      <c r="D3" t="n">
         <v>-0.2670711336714227</v>
       </c>
-    </row>
-    <row r="4" spans="1:3">
+      <c r="E3" t="n">
+        <v>-0.3620777838639835</v>
+      </c>
+      <c r="F3" t="n">
+        <v>0.004527576062531471</v>
+      </c>
+      <c r="G3" t="n">
+        <v>0.01594684822165814</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
@@ -1360,10 +1399,22 @@
         <v>7</v>
       </c>
       <c r="C4" t="n">
+        <v>0.3126729641772183</v>
+      </c>
+      <c r="D4" t="n">
         <v>-0.2129740122661761</v>
       </c>
-    </row>
-    <row r="5" spans="1:3">
+      <c r="E4" t="n">
+        <v>-0.5861330664460952</v>
+      </c>
+      <c r="F4" t="n">
+        <v>-0.1964237563617732</v>
+      </c>
+      <c r="G4" t="n">
+        <v>-0.1218515651515237</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
@@ -1371,10 +1422,22 @@
         <v>8</v>
       </c>
       <c r="C5" t="n">
+        <v>-0.1968090831565901</v>
+      </c>
+      <c r="D5" t="n">
         <v>-0.2656531945473813</v>
       </c>
-    </row>
-    <row r="6" spans="1:3">
+      <c r="E5" t="n">
+        <v>-0.4953582044065317</v>
+      </c>
+      <c r="F5" t="n">
+        <v>-0.05315066436964837</v>
+      </c>
+      <c r="G5" t="n">
+        <v>0.08703046051959011</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
@@ -1382,10 +1445,22 @@
         <v>9</v>
       </c>
       <c r="C6" t="n">
+        <v>-0.1968090831565901</v>
+      </c>
+      <c r="D6" t="n">
         <v>-0.2656531945473813</v>
       </c>
-    </row>
-    <row r="7" spans="1:3">
+      <c r="E6" t="n">
+        <v>-0.4953582044065317</v>
+      </c>
+      <c r="F6" t="n">
+        <v>-0.05315066436964837</v>
+      </c>
+      <c r="G6" t="n">
+        <v>0.08703046051959011</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
@@ -1393,10 +1468,22 @@
         <v>10</v>
       </c>
       <c r="C7" t="n">
+        <v>0.1086553736971797</v>
+      </c>
+      <c r="D7" t="n">
         <v>-0.3011000539213597</v>
       </c>
-    </row>
-    <row r="8" spans="1:3">
+      <c r="E7" t="n">
+        <v>-0.262631449293981</v>
+      </c>
+      <c r="F7" t="n">
+        <v>-0.002407767627232283</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-0.02827470137635651</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
@@ -1404,10 +1491,22 @@
         <v>11</v>
       </c>
       <c r="C8" t="n">
+        <v>0.3429830909016213</v>
+      </c>
+      <c r="D8" t="n">
         <v>-0.346993590900856</v>
       </c>
-    </row>
-    <row r="9" spans="1:3">
+      <c r="E8" t="n">
+        <v>-0.2789982479436891</v>
+      </c>
+      <c r="F8" t="n">
+        <v>-0.1048565174099811</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-0.0597276689934084</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
@@ -1415,10 +1514,22 @@
         <v>12</v>
       </c>
       <c r="C9" t="n">
+        <v>-0.2155775254667976</v>
+      </c>
+      <c r="D9" t="n">
         <v>-0.2595219162935896</v>
       </c>
-    </row>
-    <row r="10" spans="1:3">
+      <c r="E9" t="n">
+        <v>-0.07643545344396332</v>
+      </c>
+      <c r="F9" t="n">
+        <v>-0.02965983333152862</v>
+      </c>
+      <c r="G9" t="n">
+        <v>0.01008377243601364</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
@@ -1426,10 +1537,22 @@
         <v>13</v>
       </c>
       <c r="C10" t="n">
+        <v>0.05506444198697693</v>
+      </c>
+      <c r="D10" t="n">
         <v>-0.3132412020913974</v>
       </c>
-    </row>
-    <row r="11" spans="1:3">
+      <c r="E10" t="n">
+        <v>-0.6170223666373371</v>
+      </c>
+      <c r="F10" t="n">
+        <v>-0.1059357544732321</v>
+      </c>
+      <c r="G10" t="n">
+        <v>-0.02814269910583094</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
@@ -1437,10 +1560,22 @@
         <v>14</v>
       </c>
       <c r="C11" t="n">
+        <v>0.3926898766687119</v>
+      </c>
+      <c r="D11" t="n">
         <v>-0.3411299093435399</v>
       </c>
-    </row>
-    <row r="12" spans="1:3">
+      <c r="E11" t="n">
+        <v>-0.3615879556093179</v>
+      </c>
+      <c r="F11" t="n">
+        <v>0.001565753633372538</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-0.1426067852942974</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
@@ -1448,10 +1583,22 @@
         <v>15</v>
       </c>
       <c r="C12" t="n">
+        <v>0.6241843204701205</v>
+      </c>
+      <c r="D12" t="n">
         <v>-0.2477634490196334</v>
       </c>
-    </row>
-    <row r="13" spans="1:3">
+      <c r="E12" t="n">
+        <v>-0.4665234793132788</v>
+      </c>
+      <c r="F12" t="n">
+        <v>-0.07596174772776487</v>
+      </c>
+      <c r="G12" t="n">
+        <v>-0.2437825090313376</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
@@ -1459,10 +1606,22 @@
         <v>16</v>
       </c>
       <c r="C13" t="n">
+        <v>0.5716340002902437</v>
+      </c>
+      <c r="D13" t="n">
         <v>-0.3632218402650448</v>
       </c>
-    </row>
-    <row r="14" spans="1:3">
+      <c r="E13" t="n">
+        <v>-0.2057813985096446</v>
+      </c>
+      <c r="F13" t="n">
+        <v>-0.008197472169668612</v>
+      </c>
+      <c r="G13" t="n">
+        <v>-0.1129456902067733</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
@@ -1470,10 +1629,22 @@
         <v>17</v>
       </c>
       <c r="C14" t="n">
+        <v>0.9631695736914455</v>
+      </c>
+      <c r="D14" t="n">
         <v>-0.2474804778941823</v>
       </c>
-    </row>
-    <row r="15" spans="1:3">
+      <c r="E14" t="n">
+        <v>-0.1125772802437477</v>
+      </c>
+      <c r="F14" t="n">
+        <v>0.02528713280488728</v>
+      </c>
+      <c r="G14" t="n">
+        <v>-0.1327868079432751</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
@@ -1481,10 +1652,22 @@
         <v>18</v>
       </c>
       <c r="C15" t="n">
+        <v>-0.7657767875916701</v>
+      </c>
+      <c r="D15" t="n">
         <v>-0.2021551546526934</v>
       </c>
-    </row>
-    <row r="16" spans="1:3">
+      <c r="E15" t="n">
+        <v>-0.1301797247799175</v>
+      </c>
+      <c r="F15" t="n">
+        <v>-0.009297595581204967</v>
+      </c>
+      <c r="G15" t="n">
+        <v>0.09256872857503133</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
@@ -1492,10 +1675,22 @@
         <v>19</v>
       </c>
       <c r="C16" t="n">
+        <v>0.2215481234513006</v>
+      </c>
+      <c r="D16" t="n">
         <v>-0.2628765424648973</v>
       </c>
-    </row>
-    <row r="17" spans="1:3">
+      <c r="E16" t="n">
+        <v>-0.4546486151150617</v>
+      </c>
+      <c r="F16" t="n">
+        <v>-0.01230605687093749</v>
+      </c>
+      <c r="G16" t="n">
+        <v>-0.09800016370163335</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
@@ -1503,10 +1698,22 @@
         <v>20</v>
       </c>
       <c r="C17" t="n">
+        <v>-0.197436759158294</v>
+      </c>
+      <c r="D17" t="n">
         <v>-0.2724659927366025</v>
       </c>
-    </row>
-    <row r="18" spans="1:3">
+      <c r="E17" t="n">
+        <v>-0.3364825360131138</v>
+      </c>
+      <c r="F17" t="n">
+        <v>-0.04533777917674435</v>
+      </c>
+      <c r="G17" t="n">
+        <v>0.05748267723570236</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
@@ -1514,10 +1721,22 @@
         <v>21</v>
       </c>
       <c r="C18" t="n">
+        <v>-0.4565890353085781</v>
+      </c>
+      <c r="D18" t="n">
         <v>-0.1911982357594821</v>
       </c>
-    </row>
-    <row r="19" spans="1:3">
+      <c r="E18" t="n">
+        <v>-0.1743198450688082</v>
+      </c>
+      <c r="F18" t="n">
+        <v>0.04890928667035862</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.1019239739135577</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
@@ -1525,10 +1744,22 @@
         <v>22</v>
       </c>
       <c r="C19" t="n">
+        <v>0.0779076429422346</v>
+      </c>
+      <c r="D19" t="n">
         <v>-0.3026691911443888</v>
       </c>
-    </row>
-    <row r="20" spans="1:3">
+      <c r="E19" t="n">
+        <v>-0.1878356237037364</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.01909356722982552</v>
+      </c>
+      <c r="G19" t="n">
+        <v>-0.01612136552157743</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
@@ -1536,10 +1767,22 @@
         <v>23</v>
       </c>
       <c r="C20" t="n">
+        <v>-0.3160191983581459</v>
+      </c>
+      <c r="D20" t="n">
         <v>-0.2531907131666987</v>
       </c>
-    </row>
-    <row r="21" spans="1:3">
+      <c r="E20" t="n">
+        <v>-0.2097093588016761</v>
+      </c>
+      <c r="F20" t="n">
+        <v>-0.04443465492510944</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.05222997942795253</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
@@ -1547,10 +1790,22 @@
         <v>24</v>
       </c>
       <c r="C21" t="n">
+        <v>0.3465913133623217</v>
+      </c>
+      <c r="D21" t="n">
         <v>-0.3550769208547558</v>
       </c>
-    </row>
-    <row r="22" spans="1:3">
+      <c r="E21" t="n">
+        <v>-0.4784023549028504</v>
+      </c>
+      <c r="F21" t="n">
+        <v>-0.006981433652357011</v>
+      </c>
+      <c r="G21" t="n">
+        <v>-0.1633903962426841</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
@@ -1558,10 +1813,22 @@
         <v>25</v>
       </c>
       <c r="C22" t="n">
+        <v>0.5966486670607791</v>
+      </c>
+      <c r="D22" t="n">
         <v>-0.258673619641919</v>
       </c>
-    </row>
-    <row r="23" spans="1:3">
+      <c r="E22" t="n">
+        <v>-0.3003788543237512</v>
+      </c>
+      <c r="F22" t="n">
+        <v>-0.01238582173880454</v>
+      </c>
+      <c r="G22" t="n">
+        <v>-0.1718306590145999</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
@@ -1569,10 +1836,22 @@
         <v>26</v>
       </c>
       <c r="C23" t="n">
+        <v>0.3838275179382956</v>
+      </c>
+      <c r="D23" t="n">
         <v>-0.3315468494243731</v>
       </c>
-    </row>
-    <row r="24" spans="1:3">
+      <c r="E23" t="n">
+        <v>-0.5425791265252571</v>
+      </c>
+      <c r="F23" t="n">
+        <v>0.004156822137837838</v>
+      </c>
+      <c r="G23" t="n">
+        <v>-0.2098523021429951</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
@@ -1580,10 +1859,22 @@
         <v>27</v>
       </c>
       <c r="C24" t="n">
+        <v>0.4102398672784485</v>
+      </c>
+      <c r="D24" t="n">
         <v>-0.2824054656039393</v>
       </c>
-    </row>
-    <row r="25" spans="1:3">
+      <c r="E24" t="n">
+        <v>-0.4717263683946465</v>
+      </c>
+      <c r="F24" t="n">
+        <v>-0.1380324601916616</v>
+      </c>
+      <c r="G24" t="n">
+        <v>-0.1368945446128193</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
@@ -1591,10 +1882,22 @@
         <v>28</v>
       </c>
       <c r="C25" t="n">
+        <v>0.5421712943309728</v>
+      </c>
+      <c r="D25" t="n">
         <v>-0.240139070140522</v>
       </c>
-    </row>
-    <row r="26" spans="1:3">
+      <c r="E25" t="n">
+        <v>-0.6541617442573467</v>
+      </c>
+      <c r="F25" t="n">
+        <v>-0.1489079646190707</v>
+      </c>
+      <c r="G25" t="n">
+        <v>-0.2739340956721002</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
@@ -1602,10 +1905,22 @@
         <v>29</v>
       </c>
       <c r="C26" t="n">
+        <v>0.400010057347545</v>
+      </c>
+      <c r="D26" t="n">
         <v>-0.3384341944607119</v>
       </c>
-    </row>
-    <row r="27" spans="1:3">
+      <c r="E26" t="n">
+        <v>-0.3655074649719977</v>
+      </c>
+      <c r="F26" t="n">
+        <v>-0.111125920574245</v>
+      </c>
+      <c r="G26" t="n">
+        <v>-0.1017551761627021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
@@ -1613,10 +1928,22 @@
         <v>30</v>
       </c>
       <c r="C27" t="n">
+        <v>0.02680320823281568</v>
+      </c>
+      <c r="D27" t="n">
         <v>-0.2697743092522675</v>
       </c>
-    </row>
-    <row r="28" spans="1:3">
+      <c r="E27" t="n">
+        <v>-0.3468909966907724</v>
+      </c>
+      <c r="F27" t="n">
+        <v>-0.07270953440589001</v>
+      </c>
+      <c r="G27" t="n">
+        <v>-0.007348942827199601</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
@@ -1624,10 +1951,22 @@
         <v>31</v>
       </c>
       <c r="C28" t="n">
+        <v>0.1960032156616571</v>
+      </c>
+      <c r="D28" t="n">
         <v>-0.2811793262287609</v>
       </c>
-    </row>
-    <row r="29" spans="1:3">
+      <c r="E28" t="n">
+        <v>-0.6006553252866136</v>
+      </c>
+      <c r="F28" t="n">
+        <v>-0.07310996669426154</v>
+      </c>
+      <c r="G28" t="n">
+        <v>-0.103400586691483</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
@@ -1635,10 +1974,22 @@
         <v>32</v>
       </c>
       <c r="C29" t="n">
+        <v>6.710342015648556</v>
+      </c>
+      <c r="D29" t="n">
         <v>-0.4478540804371309</v>
       </c>
-    </row>
-    <row r="30" spans="1:3">
+      <c r="E29" t="n">
+        <v>-0.03058677999651533</v>
+      </c>
+      <c r="F29" t="n">
+        <v>-0.00483623182778953</v>
+      </c>
+      <c r="G29" t="n">
+        <v>-0.1727949853025827</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
@@ -1646,10 +1997,22 @@
         <v>33</v>
       </c>
       <c r="C30" t="n">
+        <v>0.0656790081001008</v>
+      </c>
+      <c r="D30" t="n">
         <v>-0.2830455053328189</v>
       </c>
-    </row>
-    <row r="31" spans="1:3">
+      <c r="E30" t="n">
+        <v>-0.3825321355944528</v>
+      </c>
+      <c r="F30" t="n">
+        <v>-0.04051352308810744</v>
+      </c>
+      <c r="G30" t="n">
+        <v>-0.02246344322118949</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
@@ -1657,10 +2020,22 @@
         <v>34</v>
       </c>
       <c r="C31" t="n">
+        <v>0.3520356161704029</v>
+      </c>
+      <c r="D31" t="n">
         <v>-0.4904359061218004</v>
       </c>
-    </row>
-    <row r="32" spans="1:3">
+      <c r="E31" t="n">
+        <v>-0.4071455430831104</v>
+      </c>
+      <c r="F31" t="n">
+        <v>-0.121832531883168</v>
+      </c>
+      <c r="G31" t="n">
+        <v>-0.1004403416992048</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
@@ -1668,10 +2043,22 @@
         <v>35</v>
       </c>
       <c r="C32" t="n">
+        <v>0.4459095523088845</v>
+      </c>
+      <c r="D32" t="n">
         <v>-0.3247013065391837</v>
       </c>
-    </row>
-    <row r="33" spans="1:3">
+      <c r="E32" t="n">
+        <v>-0.2783813086559444</v>
+      </c>
+      <c r="F32" t="n">
+        <v>-0.02087290632430706</v>
+      </c>
+      <c r="G32" t="n">
+        <v>-0.1148254563994765</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
@@ -1679,10 +2066,22 @@
         <v>36</v>
       </c>
       <c r="C33" t="n">
+        <v>-0.06683414051600942</v>
+      </c>
+      <c r="D33" t="n">
         <v>-0.2468428129018339</v>
       </c>
-    </row>
-    <row r="34" spans="1:3">
+      <c r="E33" t="n">
+        <v>-0.5522783488794601</v>
+      </c>
+      <c r="F33" t="n">
+        <v>-0.02185937552636825</v>
+      </c>
+      <c r="G33" t="n">
+        <v>0.035450096197438</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
@@ -1690,10 +2089,22 @@
         <v>37</v>
       </c>
       <c r="C34" t="n">
+        <v>0.5062288014744917</v>
+      </c>
+      <c r="D34" t="n">
         <v>-0.3321727268536971</v>
       </c>
-    </row>
-    <row r="35" spans="1:3">
+      <c r="E34" t="n">
+        <v>-0.2627194170384837</v>
+      </c>
+      <c r="F34" t="n">
+        <v>-0.05773882133641615</v>
+      </c>
+      <c r="G34" t="n">
+        <v>-0.103767081287785</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
@@ -1701,10 +2112,22 @@
         <v>38</v>
       </c>
       <c r="C35" t="n">
+        <v>0.7019742458181404</v>
+      </c>
+      <c r="D35" t="n">
         <v>-0.1465550288987344</v>
       </c>
-    </row>
-    <row r="36" spans="1:3">
+      <c r="E35" t="n">
+        <v>-0.2190050510614926</v>
+      </c>
+      <c r="F35" t="n">
+        <v>-0.05233169225487078</v>
+      </c>
+      <c r="G35" t="n">
+        <v>-0.1170004053462547</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
@@ -1712,10 +2135,22 @@
         <v>39</v>
       </c>
       <c r="C36" t="n">
+        <v>-0.174568534216331</v>
+      </c>
+      <c r="D36" t="n">
         <v>-0.2657733499408937</v>
       </c>
-    </row>
-    <row r="37" spans="1:3">
+      <c r="E36" t="n">
+        <v>-0.4366784538562998</v>
+      </c>
+      <c r="F36" t="n">
+        <v>-0.1047855354221245</v>
+      </c>
+      <c r="G36" t="n">
+        <v>0.0579380602878343</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
@@ -1723,10 +2158,22 @@
         <v>40</v>
       </c>
       <c r="C37" t="n">
+        <v>0.3158818819445489</v>
+      </c>
+      <c r="D37" t="n">
         <v>-0.2885105055146718</v>
       </c>
-    </row>
-    <row r="38" spans="1:3">
+      <c r="E37" t="n">
+        <v>-0.552255249424409</v>
+      </c>
+      <c r="F37" t="n">
+        <v>-0.06911952341634622</v>
+      </c>
+      <c r="G37" t="n">
+        <v>-0.1526138223660728</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
@@ -1734,10 +2181,22 @@
         <v>41</v>
       </c>
       <c r="C38" t="n">
+        <v>0.2356306494803936</v>
+      </c>
+      <c r="D38" t="n">
         <v>-0.3336281292284953</v>
       </c>
-    </row>
-    <row r="39" spans="1:3">
+      <c r="E38" t="n">
+        <v>-0.2115796612337968</v>
+      </c>
+      <c r="F38" t="n">
+        <v>-0.03693361474460386</v>
+      </c>
+      <c r="G38" t="n">
+        <v>-0.04115196136343154</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
@@ -1745,10 +2204,22 @@
         <v>42</v>
       </c>
       <c r="C39" t="n">
+        <v>0.8426380303669712</v>
+      </c>
+      <c r="D39" t="n">
         <v>-0.2921499459122759</v>
       </c>
-    </row>
-    <row r="40" spans="1:3">
+      <c r="E39" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F39" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G39" t="n">
+        <v>-0.1954808059734104</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
@@ -1756,7 +2227,19 @@
         <v>43</v>
       </c>
       <c r="C40" t="n">
+        <v>1.024269328464122</v>
+      </c>
+      <c r="D40" t="n">
         <v>-0.1403169509794568</v>
+      </c>
+      <c r="E40" t="n">
+        <v>-0.3712572385230804</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.1456427669620106</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.2310899832776447</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -23,6 +23,9 @@
     <t>Beta</t>
   </si>
   <si>
+    <t>COVAR</t>
+  </si>
+  <si>
     <t>VAR_0.01</t>
   </si>
   <si>
@@ -147,9 +150,6 @@
   </si>
   <si>
     <t>UCG:IM</t>
-  </si>
-  <si>
-    <t>COVAR</t>
   </si>
   <si>
     <t>DELTA_COVAR</t>
@@ -501,7 +501,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F40"/>
+  <dimension ref="A1:G40"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -509,7 +509,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:7">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,784 +525,904 @@
       <c r="F1" s="1" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="2" spans="1:6">
+      <c r="G1" s="1" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0.4363241601072309</v>
       </c>
       <c r="D2" t="n">
+        <v>-0.3081140805306247</v>
+      </c>
+      <c r="E2" t="n">
         <v>-0.4576570057588757</v>
       </c>
-      <c r="E2" t="n">
+      <c r="F2" t="n">
         <v>-0.04555414074666971</v>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="n">
         <v>-0.1798104364542343</v>
       </c>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:7">
       <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>1.08985714150524</v>
       </c>
       <c r="D3" t="n">
+        <v>-0.5781722429646022</v>
+      </c>
+      <c r="E3" t="n">
         <v>-0.3620777838639835</v>
       </c>
-      <c r="E3" t="n">
+      <c r="F3" t="n">
         <v>0.004527576062531471</v>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="n">
         <v>-0.3995474696300114</v>
       </c>
     </row>
-    <row r="4" spans="1:6">
+    <row r="4" spans="1:7">
       <c r="A4" s="1" t="n">
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.283709169368171</v>
       </c>
       <c r="D4" t="n">
+        <v>-0.295796486709357</v>
+      </c>
+      <c r="E4" t="n">
         <v>-0.5861330664460952</v>
       </c>
-      <c r="E4" t="n">
+      <c r="F4" t="n">
         <v>-0.1964237563617732</v>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="n">
         <v>-0.110564104659066</v>
       </c>
     </row>
-    <row r="5" spans="1:6">
+    <row r="5" spans="1:7">
       <c r="A5" s="1" t="n">
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>0.6353287960843303</v>
       </c>
       <c r="D5" t="n">
+        <v>-0.4093969355275733</v>
+      </c>
+      <c r="E5" t="n">
         <v>-0.4953582044065317</v>
       </c>
-      <c r="E5" t="n">
+      <c r="F5" t="n">
         <v>-0.05315066436964837</v>
       </c>
-      <c r="F5" t="n">
+      <c r="G5" t="n">
         <v>-0.2809471840310464</v>
       </c>
     </row>
-    <row r="6" spans="1:6">
+    <row r="6" spans="1:7">
       <c r="A6" s="1" t="n">
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>0.6353287960843303</v>
       </c>
       <c r="D6" t="n">
+        <v>-0.4093969355275733</v>
+      </c>
+      <c r="E6" t="n">
         <v>-0.4953582044065317</v>
       </c>
-      <c r="E6" t="n">
+      <c r="F6" t="n">
         <v>-0.05315066436964837</v>
       </c>
-      <c r="F6" t="n">
+      <c r="G6" t="n">
         <v>-0.2809471840310464</v>
       </c>
     </row>
-    <row r="7" spans="1:6">
+    <row r="7" spans="1:7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>0.5106881886541067</v>
       </c>
       <c r="D7" t="n">
+        <v>-0.2674305484240287</v>
+      </c>
+      <c r="E7" t="n">
         <v>-0.262631449293981</v>
       </c>
-      <c r="E7" t="n">
+      <c r="F7" t="n">
         <v>-0.002407767627232283</v>
       </c>
-      <c r="F7" t="n">
+      <c r="G7" t="n">
         <v>-0.1328931606352948</v>
       </c>
     </row>
-    <row r="8" spans="1:6">
+    <row r="8" spans="1:7">
       <c r="A8" s="1" t="n">
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>0.368404344821531</v>
       </c>
       <c r="D8" t="n">
+        <v>-0.2716232611692157</v>
+      </c>
+      <c r="E8" t="n">
         <v>-0.2789982479436891</v>
       </c>
-      <c r="E8" t="n">
+      <c r="F8" t="n">
         <v>-0.1048565174099811</v>
       </c>
-      <c r="F8" t="n">
+      <c r="G8" t="n">
         <v>-0.06415457014335828</v>
       </c>
     </row>
-    <row r="9" spans="1:6">
+    <row r="9" spans="1:7">
       <c r="A9" s="1" t="n">
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>1.482278357028076</v>
       </c>
       <c r="D9" t="n">
+        <v>-0.3129919938921713</v>
+      </c>
+      <c r="E9" t="n">
         <v>-0.07643545344396332</v>
       </c>
-      <c r="E9" t="n">
+      <c r="F9" t="n">
         <v>-0.02965983333152862</v>
       </c>
-      <c r="F9" t="n">
+      <c r="G9" t="n">
         <v>-0.06933448932922912</v>
       </c>
     </row>
-    <row r="10" spans="1:6">
+    <row r="10" spans="1:7">
       <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>0.2305811861308734</v>
       </c>
       <c r="D10" t="n">
+        <v>-0.3885307163126707</v>
+      </c>
+      <c r="E10" t="n">
         <v>-0.6170223666373371</v>
       </c>
-      <c r="E10" t="n">
+      <c r="F10" t="n">
         <v>-0.1059357544732321</v>
       </c>
-      <c r="F10" t="n">
+      <c r="G10" t="n">
         <v>-0.117846957248409</v>
       </c>
     </row>
-    <row r="11" spans="1:6">
+    <row r="11" spans="1:7">
       <c r="A11" s="1" t="n">
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>0.6816434272975801</v>
       </c>
       <c r="D11" t="n">
+        <v>-0.3763490996138042</v>
+      </c>
+      <c r="E11" t="n">
         <v>-0.3615879556093179</v>
       </c>
-      <c r="E11" t="n">
+      <c r="F11" t="n">
         <v>0.001565753633372538</v>
       </c>
-      <c r="F11" t="n">
+      <c r="G11" t="n">
         <v>-0.2475413390040164</v>
       </c>
     </row>
-    <row r="12" spans="1:6">
+    <row r="12" spans="1:7">
       <c r="A12" s="1" t="n">
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
         <v>0.4959321589434947</v>
       </c>
       <c r="D12" t="n">
+        <v>-0.274333027178568</v>
+      </c>
+      <c r="E12" t="n">
         <v>-0.4665234793132788</v>
       </c>
-      <c r="E12" t="n">
+      <c r="F12" t="n">
         <v>-0.07596174772776487</v>
       </c>
-      <c r="F12" t="n">
+      <c r="G12" t="n">
         <v>-0.1936921227459136</v>
       </c>
     </row>
-    <row r="13" spans="1:6">
+    <row r="13" spans="1:7">
       <c r="A13" s="1" t="n">
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
         <v>0.9945775325894669</v>
       </c>
       <c r="D13" t="n">
+        <v>-0.4514425331726257</v>
+      </c>
+      <c r="E13" t="n">
         <v>-0.2057813985096446</v>
       </c>
-      <c r="E13" t="n">
+      <c r="F13" t="n">
         <v>-0.008197472169668612</v>
       </c>
-      <c r="F13" t="n">
+      <c r="G13" t="n">
         <v>-0.1965125339385523</v>
       </c>
     </row>
-    <row r="14" spans="1:6">
+    <row r="14" spans="1:7">
       <c r="A14" s="1" t="n">
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
         <v>0.8232544262510897</v>
       </c>
       <c r="D14" t="n">
+        <v>-0.2735684942886152</v>
+      </c>
+      <c r="E14" t="n">
         <v>-0.1125772802437477</v>
       </c>
-      <c r="E14" t="n">
+      <c r="F14" t="n">
         <v>0.02528713280488728</v>
       </c>
-      <c r="F14" t="n">
+      <c r="G14" t="n">
         <v>-0.1134974882647972</v>
       </c>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:7">
       <c r="A15" s="1" t="n">
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>-0.8002997798564983</v>
       </c>
       <c r="D15" t="n">
+        <v>-0.06790689399582069</v>
+      </c>
+      <c r="E15" t="n">
         <v>-0.1301797247799175</v>
       </c>
-      <c r="E15" t="n">
+      <c r="F15" t="n">
         <v>-0.009297595581204967</v>
       </c>
-      <c r="F15" t="n">
+      <c r="G15" t="n">
         <v>0.09674194138631444</v>
       </c>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:7">
       <c r="A16" s="1" t="n">
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
         <v>0.4040621431410926</v>
       </c>
       <c r="D16" t="n">
+        <v>-0.34065965665819</v>
+      </c>
+      <c r="E16" t="n">
         <v>-0.4546486151150617</v>
       </c>
-      <c r="E16" t="n">
+      <c r="F16" t="n">
         <v>-0.01230605687093749</v>
       </c>
-      <c r="F16" t="n">
+      <c r="G16" t="n">
         <v>-0.1787338820866344</v>
       </c>
     </row>
-    <row r="17" spans="1:6">
+    <row r="17" spans="1:7">
       <c r="A17" s="1" t="n">
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
         <v>0.6823311323443265</v>
       </c>
       <c r="D17" t="n">
+        <v>-0.3964056600852889</v>
+      </c>
+      <c r="E17" t="n">
         <v>-0.3364825360131138</v>
       </c>
-      <c r="E17" t="n">
+      <c r="F17" t="n">
         <v>-0.04533777917674435</v>
       </c>
-      <c r="F17" t="n">
+      <c r="G17" t="n">
         <v>-0.1986571316082736</v>
       </c>
     </row>
-    <row r="18" spans="1:6">
+    <row r="18" spans="1:7">
       <c r="A18" s="1" t="n">
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <v>-0.7273994871788335</v>
       </c>
       <c r="D18" t="n">
+        <v>-0.06878243352881491</v>
+      </c>
+      <c r="E18" t="n">
         <v>-0.1743198450688082</v>
       </c>
-      <c r="E18" t="n">
+      <c r="F18" t="n">
         <v>0.04890928667035862</v>
       </c>
-      <c r="F18" t="n">
+      <c r="G18" t="n">
         <v>0.1623767559504462</v>
       </c>
     </row>
-    <row r="19" spans="1:6">
+    <row r="19" spans="1:7">
       <c r="A19" s="1" t="n">
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
         <v>0.4194830228511619</v>
       </c>
       <c r="D19" t="n">
+        <v>-0.3530033310618481</v>
+      </c>
+      <c r="E19" t="n">
         <v>-0.1878356237037364</v>
       </c>
-      <c r="E19" t="n">
+      <c r="F19" t="n">
         <v>0.01909356722982552</v>
       </c>
-      <c r="F19" t="n">
+      <c r="G19" t="n">
         <v>-0.08680328252895578</v>
       </c>
     </row>
-    <row r="20" spans="1:6">
+    <row r="20" spans="1:7">
       <c r="A20" s="1" t="n">
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
         <v>-0.3023849903084074</v>
       </c>
       <c r="D20" t="n">
+        <v>-0.1199686884605011</v>
+      </c>
+      <c r="E20" t="n">
         <v>-0.2097093588016761</v>
       </c>
-      <c r="E20" t="n">
+      <c r="F20" t="n">
         <v>-0.04443465492510944</v>
       </c>
-      <c r="F20" t="n">
+      <c r="G20" t="n">
         <v>0.0499765897299405</v>
       </c>
     </row>
-    <row r="21" spans="1:6">
+    <row r="21" spans="1:7">
       <c r="A21" s="1" t="n">
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
         <v>0.419595471703682</v>
       </c>
       <c r="D21" t="n">
+        <v>-0.3411833863449786</v>
+      </c>
+      <c r="E21" t="n">
         <v>-0.4784023549028504</v>
       </c>
-      <c r="E21" t="n">
+      <c r="F21" t="n">
         <v>-0.006981433652357011</v>
       </c>
-      <c r="F21" t="n">
+      <c r="G21" t="n">
         <v>-0.1978060838230851</v>
       </c>
     </row>
-    <row r="22" spans="1:6">
+    <row r="22" spans="1:7">
       <c r="A22" s="1" t="n">
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
         <v>0.4297194328589496</v>
       </c>
       <c r="D22" t="n">
+        <v>-0.2752320820846895</v>
+      </c>
+      <c r="E22" t="n">
         <v>-0.3003788543237512</v>
       </c>
-      <c r="E22" t="n">
+      <c r="F22" t="n">
         <v>-0.01238582173880454</v>
       </c>
-      <c r="F22" t="n">
+      <c r="G22" t="n">
         <v>-0.1237562026297322</v>
       </c>
     </row>
-    <row r="23" spans="1:6">
+    <row r="23" spans="1:7">
       <c r="A23" s="1" t="n">
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
         <v>0.3231932775915683</v>
       </c>
       <c r="D23" t="n">
+        <v>-0.2695676878696008</v>
+      </c>
+      <c r="E23" t="n">
         <v>-0.5425791265252571</v>
       </c>
-      <c r="E23" t="n">
+      <c r="F23" t="n">
         <v>0.004156822137837838</v>
       </c>
-      <c r="F23" t="n">
+      <c r="G23" t="n">
         <v>-0.1767013832255611</v>
       </c>
     </row>
-    <row r="24" spans="1:6">
+    <row r="24" spans="1:7">
       <c r="A24" s="1" t="n">
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>0.3348399254415322</v>
       </c>
       <c r="D24" t="n">
+        <v>-0.2720429754621176</v>
+      </c>
+      <c r="E24" t="n">
         <v>-0.4717263683946465</v>
       </c>
-      <c r="E24" t="n">
+      <c r="F24" t="n">
         <v>-0.1380324601916616</v>
       </c>
-      <c r="F24" t="n">
+      <c r="G24" t="n">
         <v>-0.1117340433429809</v>
       </c>
     </row>
-    <row r="25" spans="1:6">
+    <row r="25" spans="1:7">
       <c r="A25" s="1" t="n">
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n">
         <v>0.4830247721369207</v>
       </c>
       <c r="D25" t="n">
+        <v>-0.3423859454617846</v>
+      </c>
+      <c r="E25" t="n">
         <v>-0.6541617442573467</v>
       </c>
-      <c r="E25" t="n">
+      <c r="F25" t="n">
         <v>-0.1489079646190707</v>
       </c>
-      <c r="F25" t="n">
+      <c r="G25" t="n">
         <v>-0.2440500917810962</v>
       </c>
     </row>
-    <row r="26" spans="1:6">
+    <row r="26" spans="1:7">
       <c r="A26" s="1" t="n">
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
         <v>0.4445757040283733</v>
       </c>
       <c r="D26" t="n">
+        <v>-0.2695745654630834</v>
+      </c>
+      <c r="E26" t="n">
         <v>-0.3655074649719977</v>
       </c>
-      <c r="E26" t="n">
+      <c r="F26" t="n">
         <v>-0.111125920574245</v>
       </c>
-      <c r="F26" t="n">
+      <c r="G26" t="n">
         <v>-0.1130918541924558</v>
       </c>
     </row>
-    <row r="27" spans="1:6">
+    <row r="27" spans="1:7">
       <c r="A27" s="1" t="n">
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
         <v>0.521615812931703</v>
       </c>
       <c r="D27" t="n">
+        <v>-0.2865585189556205</v>
+      </c>
+      <c r="E27" t="n">
         <v>-0.3468909966907724</v>
       </c>
-      <c r="E27" t="n">
+      <c r="F27" t="n">
         <v>-0.07270953440589001</v>
       </c>
-      <c r="F27" t="n">
+      <c r="G27" t="n">
         <v>-0.143017386340532</v>
       </c>
     </row>
-    <row r="28" spans="1:6">
+    <row r="28" spans="1:7">
       <c r="A28" s="1" t="n">
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
         <v>0.3221254685962464</v>
       </c>
       <c r="D28" t="n">
+        <v>-0.2869219574571164</v>
+      </c>
+      <c r="E28" t="n">
         <v>-0.6006553252866136</v>
       </c>
-      <c r="E28" t="n">
+      <c r="F28" t="n">
         <v>-0.07310996669426154</v>
       </c>
-      <c r="F28" t="n">
+      <c r="G28" t="n">
         <v>-0.1699357958423363</v>
       </c>
     </row>
-    <row r="29" spans="1:6">
+    <row r="29" spans="1:7">
       <c r="A29" s="1" t="n">
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
         <v>-3.097619560224732</v>
       </c>
       <c r="D29" t="n">
+        <v>-0.08439552054752833</v>
+      </c>
+      <c r="E29" t="n">
         <v>-0.03058677999651533</v>
       </c>
-      <c r="E29" t="n">
+      <c r="F29" t="n">
         <v>-0.00483623182778953</v>
       </c>
-      <c r="F29" t="n">
+      <c r="G29" t="n">
         <v>0.07976540169395419</v>
       </c>
     </row>
-    <row r="30" spans="1:6">
+    <row r="30" spans="1:7">
       <c r="A30" s="1" t="n">
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="n">
         <v>0.26708142794146</v>
       </c>
       <c r="D30" t="n">
+        <v>-0.2968667398458991</v>
+      </c>
+      <c r="E30" t="n">
         <v>-0.3825321355944528</v>
       </c>
-      <c r="E30" t="n">
+      <c r="F30" t="n">
         <v>-0.04051352308810744</v>
       </c>
-      <c r="F30" t="n">
+      <c r="G30" t="n">
         <v>-0.09134681941075161</v>
       </c>
     </row>
-    <row r="31" spans="1:6">
+    <row r="31" spans="1:7">
       <c r="A31" s="1" t="n">
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
         <v>0.1496872985581948</v>
       </c>
       <c r="D31" t="n">
+        <v>-0.2928184357111927</v>
+      </c>
+      <c r="E31" t="n">
         <v>-0.4071455430831104</v>
       </c>
-      <c r="E31" t="n">
+      <c r="F31" t="n">
         <v>-0.121832531883168</v>
       </c>
-      <c r="F31" t="n">
+      <c r="G31" t="n">
         <v>-0.04270773389002334</v>
       </c>
     </row>
-    <row r="32" spans="1:6">
+    <row r="32" spans="1:7">
       <c r="A32" s="1" t="n">
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="n">
         <v>0.4001816214467527</v>
       </c>
       <c r="D32" t="n">
+        <v>-0.2806280615099984</v>
+      </c>
+      <c r="E32" t="n">
         <v>-0.2783813086559444</v>
       </c>
-      <c r="E32" t="n">
+      <c r="F32" t="n">
         <v>-0.02087290632430706</v>
       </c>
-      <c r="F32" t="n">
+      <c r="G32" t="n">
         <v>-0.1030501299812374</v>
       </c>
     </row>
-    <row r="33" spans="1:6">
+    <row r="33" spans="1:7">
       <c r="A33" s="1" t="n">
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="n">
         <v>0.1821172626168225</v>
       </c>
       <c r="D33" t="n">
+        <v>-0.2709852379781559</v>
+      </c>
+      <c r="E33" t="n">
         <v>-0.5522783488794601</v>
       </c>
-      <c r="E33" t="n">
+      <c r="F33" t="n">
         <v>-0.02185937552636825</v>
       </c>
-      <c r="F33" t="n">
+      <c r="G33" t="n">
         <v>-0.09659845146709042</v>
       </c>
     </row>
-    <row r="34" spans="1:6">
+    <row r="34" spans="1:7">
       <c r="A34" s="1" t="n">
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="n">
         <v>1.111200368274594</v>
       </c>
       <c r="D34" t="n">
+        <v>-0.4256483741502808</v>
+      </c>
+      <c r="E34" t="n">
         <v>-0.2627194170384837</v>
       </c>
-      <c r="E34" t="n">
+      <c r="F34" t="n">
         <v>-0.05773882133641615</v>
       </c>
-      <c r="F34" t="n">
+      <c r="G34" t="n">
         <v>-0.2277745134332831</v>
       </c>
     </row>
-    <row r="35" spans="1:6">
+    <row r="35" spans="1:7">
       <c r="A35" s="1" t="n">
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="n">
         <v>1.032006321620078</v>
       </c>
       <c r="D35" t="n">
+        <v>-0.365653515789698</v>
+      </c>
+      <c r="E35" t="n">
         <v>-0.2190050510614926</v>
       </c>
-      <c r="E35" t="n">
+      <c r="F35" t="n">
         <v>-0.05233169225487078</v>
       </c>
-      <c r="F35" t="n">
+      <c r="G35" t="n">
         <v>-0.1720079599340852</v>
       </c>
     </row>
-    <row r="36" spans="1:6">
+    <row r="36" spans="1:7">
       <c r="A36" s="1" t="n">
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
         <v>-0.3509225860774516</v>
       </c>
       <c r="D36" t="n">
+        <v>-0.139087484791633</v>
+      </c>
+      <c r="E36" t="n">
         <v>-0.4366784538562998</v>
       </c>
-      <c r="E36" t="n">
+      <c r="F36" t="n">
         <v>-0.1047855354221245</v>
       </c>
-      <c r="F36" t="n">
+      <c r="G36" t="n">
         <v>0.1164687212377135</v>
       </c>
     </row>
-    <row r="37" spans="1:6">
+    <row r="37" spans="1:7">
       <c r="A37" s="1" t="n">
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
         <v>0.401965800012757</v>
       </c>
       <c r="D37" t="n">
+        <v>-0.2867071246920977</v>
+      </c>
+      <c r="E37" t="n">
         <v>-0.552255249424409</v>
       </c>
-      <c r="E37" t="n">
+      <c r="F37" t="n">
         <v>-0.06911952341634622</v>
       </c>
-      <c r="F37" t="n">
+      <c r="G37" t="n">
         <v>-0.1942040386195751</v>
       </c>
     </row>
-    <row r="38" spans="1:6">
+    <row r="38" spans="1:7">
       <c r="A38" s="1" t="n">
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="n">
         <v>0.3386069228665523</v>
       </c>
       <c r="D38" t="n">
+        <v>-0.3069716557220559</v>
+      </c>
+      <c r="E38" t="n">
         <v>-0.2115796612337968</v>
       </c>
-      <c r="E38" t="n">
+      <c r="F38" t="n">
         <v>-0.03693361474460386</v>
       </c>
-      <c r="F38" t="n">
+      <c r="G38" t="n">
         <v>-0.05913636039251446</v>
       </c>
     </row>
-    <row r="39" spans="1:6">
+    <row r="39" spans="1:7">
       <c r="A39" s="1" t="n">
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n">
         <v>0.747684921451253</v>
       </c>
       <c r="D39" t="n">
+        <v>-0.2704018710429032</v>
+      </c>
+      <c r="E39" t="n">
         <v>-0.3141388711706843</v>
       </c>
-      <c r="E39" t="n">
+      <c r="F39" t="n">
         <v>-0.0821521830214704</v>
       </c>
-      <c r="F39" t="n">
+      <c r="G39" t="n">
         <v>-0.1734529487065813</v>
       </c>
     </row>
-    <row r="40" spans="1:6">
+    <row r="40" spans="1:7">
       <c r="A40" s="1" t="n">
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="n">
         <v>0.759704102283257</v>
       </c>
       <c r="D40" t="n">
+        <v>-0.3175854043629854</v>
+      </c>
+      <c r="E40" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="E40" t="n">
+      <c r="F40" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="F40" t="n">
+      <c r="G40" t="n">
         <v>-0.171400239579414</v>
       </c>
     </row>
@@ -1333,13 +1453,13 @@
         <v>1</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>44</v>
+        <v>2</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>45</v>
@@ -1350,7 +1470,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="C2" t="n">
         <v>0.07278087118398249</v>
@@ -1373,7 +1493,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
         <v>-0.04349867722843614</v>
@@ -1396,7 +1516,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C4" t="n">
         <v>0.3126729641772183</v>
@@ -1419,7 +1539,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C5" t="n">
         <v>-0.1968090831565901</v>
@@ -1442,7 +1562,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="C6" t="n">
         <v>-0.1968090831565901</v>
@@ -1465,7 +1585,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7" t="n">
         <v>0.1086553736971797</v>
@@ -1488,7 +1608,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C8" t="n">
         <v>0.3429830909016213</v>
@@ -1511,7 +1631,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C9" t="n">
         <v>-0.2155775254667976</v>
@@ -1534,7 +1654,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C10" t="n">
         <v>0.05506444198697693</v>
@@ -1557,7 +1677,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="C11" t="n">
         <v>0.3926898766687119</v>
@@ -1580,7 +1700,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="C12" t="n">
         <v>0.6241843204701205</v>
@@ -1603,7 +1723,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C13" t="n">
         <v>0.5716340002902437</v>
@@ -1626,7 +1746,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="C14" t="n">
         <v>0.9631695736914455</v>
@@ -1649,7 +1769,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C15" t="n">
         <v>-0.7657767875916701</v>
@@ -1672,7 +1792,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="C16" t="n">
         <v>0.2215481234513006</v>
@@ -1695,7 +1815,7 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="C17" t="n">
         <v>-0.197436759158294</v>
@@ -1718,7 +1838,7 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C18" t="n">
         <v>-0.4565890353085781</v>
@@ -1741,7 +1861,7 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="C19" t="n">
         <v>0.0779076429422346</v>
@@ -1764,7 +1884,7 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C20" t="n">
         <v>-0.3160191983581459</v>
@@ -1787,7 +1907,7 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C21" t="n">
         <v>0.3465913133623217</v>
@@ -1810,7 +1930,7 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
         <v>0.5966486670607791</v>
@@ -1833,7 +1953,7 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="C23" t="n">
         <v>0.3838275179382956</v>
@@ -1856,7 +1976,7 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="C24" t="n">
         <v>0.4102398672784485</v>
@@ -1879,7 +1999,7 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C25" t="n">
         <v>0.5421712943309728</v>
@@ -1902,7 +2022,7 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="C26" t="n">
         <v>0.400010057347545</v>
@@ -1925,7 +2045,7 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="C27" t="n">
         <v>0.02680320823281568</v>
@@ -1948,7 +2068,7 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="C28" t="n">
         <v>0.1960032156616571</v>
@@ -1971,7 +2091,7 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="C29" t="n">
         <v>6.710342015648556</v>
@@ -1994,7 +2114,7 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C30" t="n">
         <v>0.0656790081001008</v>
@@ -2017,7 +2137,7 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C31" t="n">
         <v>0.3520356161704029</v>
@@ -2040,7 +2160,7 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C32" t="n">
         <v>0.4459095523088845</v>
@@ -2063,7 +2183,7 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C33" t="n">
         <v>-0.06683414051600942</v>
@@ -2086,7 +2206,7 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C34" t="n">
         <v>0.5062288014744917</v>
@@ -2109,7 +2229,7 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C35" t="n">
         <v>0.7019742458181404</v>
@@ -2132,7 +2252,7 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C36" t="n">
         <v>-0.174568534216331</v>
@@ -2155,7 +2275,7 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C37" t="n">
         <v>0.3158818819445489</v>
@@ -2178,7 +2298,7 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C38" t="n">
         <v>0.2356306494803936</v>
@@ -2201,7 +2321,7 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C39" t="n">
         <v>0.8426380303669712</v>
@@ -2224,7 +2344,7 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C40" t="n">
         <v>1.024269328464122</v>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CovarUnc_2009_to_2011" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Covar_2009_to_2011" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CovarUnc_2009_to_2012" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Covar_2009_to_2012" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,19 +537,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4363241601072309</v>
+        <v>0.1727551315153118</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3081140805306247</v>
+        <v>-0.1579579096295905</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4576570057588757</v>
+        <v>-0.4484445323492274</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04555414074666971</v>
+        <v>-0.0443412417267765</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1798104364542343</v>
+        <v>-0.06981091711725176</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -560,19 +560,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.08985714150524</v>
+        <v>0.3871082644376517</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5781722429646022</v>
+        <v>-0.2379954738506166</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3620777838639835</v>
+        <v>-0.361180141755518</v>
       </c>
       <c r="F3" t="n">
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3995474696300114</v>
+        <v>-0.1415684799359996</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -583,19 +583,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.283709169368171</v>
+        <v>0.07686637875656069</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.295796486709357</v>
+        <v>-0.1494944168944105</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5861330664460952</v>
+        <v>-0.5824541837301086</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1964237563617732</v>
+        <v>-0.1754460561644704</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.110564104659066</v>
+        <v>-0.03128524089045891</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -606,19 +606,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6353287960843303</v>
+        <v>0.2833127201376149</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4093969355275733</v>
+        <v>-0.2096251919389817</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4953582044065317</v>
+        <v>-0.4860132622500562</v>
       </c>
       <c r="F5" t="n">
         <v>-0.05315066436964837</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2809471840310464</v>
+        <v>-0.1226354800513329</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -629,19 +629,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6353287960843303</v>
+        <v>0.2833127201376149</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4093969355275733</v>
+        <v>-0.2096251919389817</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4953582044065317</v>
+        <v>-0.4860132622500562</v>
       </c>
       <c r="F6" t="n">
         <v>-0.05315066436964837</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2809471840310464</v>
+        <v>-0.1226354800513329</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -652,19 +652,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5106881886541067</v>
+        <v>0.01638434378147279</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2674305484240287</v>
+        <v>-0.1410718834189756</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.262631449293981</v>
+        <v>-0.3935641376831325</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002407767627232283</v>
+        <v>-0.004750955551678292</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1328931606352948</v>
+        <v>-0.006370448842810139</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -675,19 +675,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.368404344821531</v>
+        <v>0.1468383905413746</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2716232611692157</v>
+        <v>-0.1460149714873806</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2789982479436891</v>
+        <v>-0.1948289132913794</v>
       </c>
       <c r="F8" t="n">
         <v>-0.1048565174099811</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06415457014335828</v>
+        <v>-0.01321140180437591</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,19 +698,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>1.482278357028076</v>
+        <v>0.03738776049644472</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3129919938921713</v>
+        <v>-0.1370879601867309</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07643545344396332</v>
+        <v>-0.07618361684369356</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02965983333152862</v>
+        <v>-0.02084795666577791</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06933448932922912</v>
+        <v>-0.002068876409644564</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -721,19 +721,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2305811861308734</v>
+        <v>0.003537699477101114</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3885307163126707</v>
+        <v>-0.1385600891031786</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6170223666373371</v>
+        <v>-0.6164366344418757</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1059357544732321</v>
+        <v>-0.1063374679794493</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.117846957248409</v>
+        <v>-0.00180457755446384</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -744,19 +744,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6816434272975801</v>
+        <v>0.6816432093816376</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3763490996138042</v>
+        <v>-0.4114715931299158</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3615879556093179</v>
+        <v>-0.413114317909722</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001565753633372538</v>
+        <v>0.0002838638469014556</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2475413390040164</v>
+        <v>-0.2817900633651184</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -767,19 +767,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4959321589434947</v>
+        <v>0.3723831869387502</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.274333027178568</v>
+        <v>-0.208469085890422</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4665234793132788</v>
+        <v>-0.43730840372378</v>
       </c>
       <c r="F12" t="n">
         <v>-0.07596174772776487</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1936921227459136</v>
+        <v>-0.1345594193494564</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -790,19 +790,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9945775325894669</v>
+        <v>0.006079500952100873</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4514425331726257</v>
+        <v>-0.1366941751851425</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2057813985096446</v>
+        <v>-0.2206908967761832</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008197472169668612</v>
+        <v>-0.04455248451540762</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1965125339385523</v>
+        <v>-0.001070833645040921</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -813,19 +813,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8232544262510897</v>
+        <v>1.409901506281679</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2735684942886152</v>
+        <v>-0.3359691146223856</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1125772802437477</v>
+        <v>-0.08764859879763968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02528713280488728</v>
+        <v>0.04319374675263407</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1134974882647972</v>
+        <v>-0.1844748200767588</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -836,19 +836,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8002997798564983</v>
+        <v>-0.5841398967347298</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06790689399582069</v>
+        <v>-0.0649402101329616</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1301797247799175</v>
+        <v>-0.1326074424137802</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009297595581204967</v>
+        <v>-0.01531486132336479</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09674194138631444</v>
+        <v>0.06851527620590518</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -859,19 +859,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4040621431410926</v>
+        <v>0.2179428156841118</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.34065965665819</v>
+        <v>-0.211735884033974</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4546486151150617</v>
+        <v>-0.45167860772783</v>
       </c>
       <c r="F16" t="n">
         <v>-0.01230605687093749</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1787338820866344</v>
+        <v>-0.09575809086806175</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -882,19 +882,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6823311323443265</v>
+        <v>0.5727601399949304</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3964056600852889</v>
+        <v>-0.3143632423290078</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3364825360131138</v>
+        <v>-0.3352872590099016</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04533777917674435</v>
+        <v>-0.01860258869582366</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1986571316082736</v>
+        <v>-0.1813843561033396</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7273994871788335</v>
+        <v>-0.3731484917516797</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06878243352881491</v>
+        <v>-0.0635069815048144</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1743198450688082</v>
+        <v>-0.1798335287553886</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04890928667035862</v>
+        <v>-0.00292379803310885</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1623767559504462</v>
+        <v>0.0660135991952145</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -928,19 +928,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4194830228511619</v>
+        <v>0.009226854750002537</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3530033310618481</v>
+        <v>-0.1383812150537888</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1878356237037364</v>
+        <v>-0.3247272560197255</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01909356722982552</v>
+        <v>0.004634794161576795</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08680328252895578</v>
+        <v>-0.003038975797185923</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -951,19 +951,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3023849903084074</v>
+        <v>0.4083376141255587</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1199686884605011</v>
+        <v>-0.1909594524838051</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2097093588016761</v>
+        <v>-0.2392413267074984</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04443465492510944</v>
+        <v>-0.07733372447077957</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0499765897299405</v>
+        <v>-0.06611296400613174</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -974,19 +974,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.419595471703682</v>
+        <v>0.00599518017516321</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3411833863449786</v>
+        <v>-0.1384312564164391</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.61407367936906</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.008921880856679401</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1978060838230851</v>
+        <v>-0.003627994065405785</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -997,19 +997,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4297194328589496</v>
+        <v>0.3003125630774917</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2752320820846895</v>
+        <v>-0.2283584828814301</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.2832335168051391</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.005102929000857889</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1237562026297322</v>
+        <v>-0.08352610969375304</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1020,19 +1020,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3231932775915683</v>
+        <v>0.3123892570913589</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2695676878696008</v>
+        <v>-0.2093774314151596</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3730105296334114</v>
       </c>
       <c r="F23" t="n">
         <v>0.004156822137837838</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1767013832255611</v>
+        <v>-0.1178230288189358</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1043,19 +1043,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3348399254415322</v>
+        <v>0.07397141533588668</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2720429754621176</v>
+        <v>-0.1386354333130607</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.380430081945951</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1380324601916616</v>
+        <v>-0.09523269533670928</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1117340433429809</v>
+        <v>-0.02109645433758166</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1066,19 +1066,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4830247721369207</v>
+        <v>0.1265570691640243</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3423859454617846</v>
+        <v>-0.1624564197848006</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.6407994503493556</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.11698260356056</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2440500917810962</v>
+        <v>-0.0662927249083307</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1089,19 +1089,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4445757040283733</v>
+        <v>0.2725195511194805</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2695745654630834</v>
+        <v>-0.1846768367201714</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.3483031702687254</v>
       </c>
       <c r="F26" t="n">
         <v>-0.111125920574245</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1130918541924558</v>
+        <v>-0.06463543762249273</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1112,19 +1112,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.521615812931703</v>
+        <v>0.07830090550460243</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2865585189556205</v>
+        <v>-0.1581078244168704</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3332401319664669</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.04510310016987344</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.143017386340532</v>
+        <v>-0.02256139049908169</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1135,19 +1135,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3221254685962464</v>
+        <v>0.3221254671620532</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2869219574571164</v>
+        <v>-0.2224965977756504</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.4006545349741236</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.05958483679626425</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1699357958423363</v>
+        <v>-0.1098672358603634</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1158,19 +1158,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.097619560224732</v>
+        <v>0.07901777260352774</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.08439552054752833</v>
+        <v>-0.138000269256551</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.03044481659964991</v>
       </c>
       <c r="F29" t="n">
         <v>-0.00483623182778953</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07976540169395419</v>
+        <v>-0.002023533328201027</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1181,19 +1181,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.26708142794146</v>
+        <v>-0.004916561464537054</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2968667398458991</v>
+        <v>-0.1337310707970777</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.3821143452331156</v>
       </c>
       <c r="F30" t="n">
         <v>-0.04051352308810744</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.09134681941075161</v>
+        <v>0.001679501438412323</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1204,19 +1204,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1496872985581948</v>
+        <v>0.001877811704941732</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2928184357111927</v>
+        <v>-0.1366331879627673</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3975494767873221</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.09956686093057684</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.04270773389002334</v>
+        <v>-0.0005595552439249518</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1227,19 +1227,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4001816214467527</v>
+        <v>0.005657721649573013</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2806280615099984</v>
+        <v>-0.1367295673272931</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.2781711882753994</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.05724374137464504</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1030501299812374</v>
+        <v>-0.00124994599931529</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1250,19 +1250,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1821172626168225</v>
+        <v>0.1084117249776568</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2709852379781559</v>
+        <v>-0.158221980363013</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.3235856023099844</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02185937552636825</v>
+        <v>0.01048013556691602</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.09659845146709042</v>
+        <v>-0.03621664289916852</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1273,19 +1273,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>1.111200368274594</v>
+        <v>0.2509246070450655</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.4256483741502808</v>
+        <v>-0.1883770231197229</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.260943098205201</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02745085931519266</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.2277745134332831</v>
+        <v>-0.05858894829154788</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1296,19 +1296,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>1.032006321620078</v>
+        <v>0.8976971488920169</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.365653515789698</v>
+        <v>-0.252365879171318</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2185123631066607</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.01921309265456504</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1720079599340852</v>
+        <v>-0.1789103868611053</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1319,19 +1319,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3509225860774516</v>
+        <v>0.07863217204154038</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.139087484791633</v>
+        <v>-0.1463628725028107</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.4343882685998714</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.07579822101759758</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1164687212377135</v>
+        <v>-0.0281967143138735</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1342,19 +1342,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.401965800012757</v>
+        <v>0.0134669957579183</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2867071246920977</v>
+        <v>-0.1364407696664231</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.5380526140854195</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.06911952341634622</v>
+        <v>0.02920943065224142</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1942040386195751</v>
+        <v>-0.007639315550110141</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1365,19 +1365,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3386069228665523</v>
+        <v>-0.2126803921753372</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3069716557220559</v>
+        <v>-0.05573297621436937</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.2100522825150694</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.007325747984901779</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.05913636039251446</v>
+        <v>0.04311595886822308</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1388,19 +1388,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.747684921451253</v>
+        <v>0.08603367891283098</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2704018710429032</v>
+        <v>-0.1377311384059574</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.255435666262586</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.06727098504895779</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1734529487065813</v>
+        <v>-0.01618849976626849</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1411,19 +1411,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.759704102283257</v>
+        <v>0.5065420056834377</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3175854043629854</v>
+        <v>-0.2518784125981087</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3712572385230804</v>
+        <v>-0.3605538161577854</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1456427669620106</v>
+        <v>-0.1084705650380272</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.171400239579414</v>
+        <v>-0.127690755621404</v>
       </c>
     </row>
   </sheetData>
@@ -1473,19 +1473,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07278087118398249</v>
+        <v>0.5095418379078709</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2746833820796017</v>
+        <v>-0.1928678792039042</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4576570057588757</v>
+        <v>-0.4484445323492274</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04555414074666971</v>
+        <v>-0.0443412417267765</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02999320553300349</v>
+        <v>-0.2059075334083821</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1496,19 +1496,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04349867722843614</v>
+        <v>0.9419233621358647</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2670711336714227</v>
+        <v>-0.3215843663826037</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.3620777838639835</v>
+        <v>-0.361180141755518</v>
       </c>
       <c r="F3" t="n">
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01594684822165814</v>
+        <v>-0.3444686431262113</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1519,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3126729641772183</v>
+        <v>0.1442520252693369</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2129740122661761</v>
+        <v>-0.1878585112386242</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5861330664460952</v>
+        <v>-0.5824541837301086</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1964237563617732</v>
+        <v>-0.1754460561644704</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1218515651515237</v>
+        <v>-0.05871174670242395</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1542,19 +1542,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1968090831565901</v>
+        <v>0.7540927537262267</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2656531945473813</v>
+        <v>-0.2331534921799265</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4953582044065317</v>
+        <v>-0.4860132622500562</v>
       </c>
       <c r="F5" t="n">
         <v>-0.05315066436964837</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08703046051959011</v>
+        <v>-0.3264185484207251</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1565,19 +1565,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1968090831565901</v>
+        <v>0.7540927537262267</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2656531945473813</v>
+        <v>-0.2331534921799265</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4953582044065317</v>
+        <v>-0.4860132622500562</v>
       </c>
       <c r="F6" t="n">
         <v>-0.05315066436964837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08703046051959011</v>
+        <v>-0.3264185484207251</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1588,19 +1588,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1086553736971797</v>
+        <v>-0.5957934331250254</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3011000539213597</v>
+        <v>0.02521162758675841</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.262631449293981</v>
+        <v>-0.3935641376831325</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002407767627232283</v>
+        <v>-0.004750955551678292</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02827470137635651</v>
+        <v>0.2316523406263649</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1611,19 +1611,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3429830909016213</v>
+        <v>0.357525407296189</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.346993590900856</v>
+        <v>-0.1316537770188893</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2789982479436891</v>
+        <v>-0.1948289132913794</v>
       </c>
       <c r="F8" t="n">
         <v>-0.1048565174099811</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0597276689934084</v>
+        <v>-0.03216741748291085</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1634,19 +1634,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2155775254667976</v>
+        <v>-0.9802021292646634</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2595219162935896</v>
+        <v>0.002241517604101248</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07643545344396332</v>
+        <v>-0.07618361684369356</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02965983333152862</v>
+        <v>-0.02084795666577791</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01008377243601364</v>
+        <v>0.05424013193065876</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1657,19 +1657,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05506444198697693</v>
+        <v>0.08275509788815276</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3132412020913974</v>
+        <v>-0.1123962647717245</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6170223666373371</v>
+        <v>-0.6164366344418757</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1059357544732321</v>
+        <v>-0.1063374679794493</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02814269910583094</v>
+        <v>-0.04221330645326322</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1680,19 +1680,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3926898766687119</v>
+        <v>0.4816612307494569</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3411299093435399</v>
+        <v>-0.2208793213610481</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3615879556093179</v>
+        <v>-0.413114317909722</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001565753633372538</v>
+        <v>0.0002838638469014556</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1426067852942974</v>
+        <v>-0.1991178770144829</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1703,19 +1703,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6241843204701205</v>
+        <v>0.6685530052541172</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2477634490196334</v>
+        <v>-0.1138553367042311</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4665234793132788</v>
+        <v>-0.43730840372378</v>
       </c>
       <c r="F12" t="n">
         <v>-0.07596174772776487</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2437825090313376</v>
+        <v>-0.2415793928046616</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1726,19 +1726,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5716340002902437</v>
+        <v>0.678813789441497</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3632218402650448</v>
+        <v>-0.1074416209386287</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2057813985096446</v>
+        <v>-0.2206908967761832</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008197472169668612</v>
+        <v>-0.04455248451540762</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1129456902067733</v>
+        <v>-0.1195651830929457</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1749,19 +1749,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9631695736914455</v>
+        <v>1.128292085479197</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2474804778941823</v>
+        <v>-0.1156394590569818</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1125772802437477</v>
+        <v>-0.08764859879763968</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02528713280488728</v>
+        <v>0.04319374675263407</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1327868079432751</v>
+        <v>-0.147628382929908</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1772,19 +1772,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7657767875916701</v>
+        <v>-0.4836651817613908</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2021551546526934</v>
+        <v>-0.03035989273464131</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1301797247799175</v>
+        <v>-0.1326074424137802</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009297595581204967</v>
+        <v>-0.01531486132336479</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09256872857503133</v>
+        <v>0.05673033755235846</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1795,19 +1795,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2215481234513006</v>
+        <v>0.3908177824082176</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2628765424648973</v>
+        <v>-0.1525482234993669</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4546486151150617</v>
+        <v>-0.45167860772783</v>
       </c>
       <c r="F16" t="n">
         <v>-0.01230605687093749</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09800016370163335</v>
+        <v>-0.1717146059769325</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1818,19 +1818,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.197436759158294</v>
+        <v>0.3969300310446685</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2724659927366025</v>
+        <v>-0.150758170523129</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3364825360131138</v>
+        <v>-0.3352872590099016</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04533777917674435</v>
+        <v>-0.01860258869582366</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05748267723570236</v>
+        <v>-0.1257016560191376</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1841,19 +1841,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4565890353085781</v>
+        <v>-0.09871510917863918</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1911982357594821</v>
+        <v>-0.05912215963812294</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1743198450688082</v>
+        <v>-0.1798335287553886</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04890928667035862</v>
+        <v>-0.00292379803310885</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1019239739135577</v>
+        <v>0.01746366338301351</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1864,19 +1864,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0779076429422346</v>
+        <v>-0.2001351000392363</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3026691911443888</v>
+        <v>-0.01876131680238741</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1878356237037364</v>
+        <v>-0.3247272560197255</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01909356722982552</v>
+        <v>0.004634794161576795</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01612136552157743</v>
+        <v>0.06591690686216291</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1887,19 +1887,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3160191983581459</v>
+        <v>0.7625092511662139</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2531907131666987</v>
+        <v>-0.1516455520542156</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2097093588016761</v>
+        <v>-0.2392413267074984</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04443465492510944</v>
+        <v>-0.07733372447077957</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05222997942795253</v>
+        <v>-0.1234560445396377</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1910,19 +1910,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3465913133623217</v>
+        <v>0.462250696699198</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3550769208547558</v>
+        <v>-0.144633276701632</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.61407367936906</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.008921880856679401</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1633903962426841</v>
+        <v>-0.2797318404711206</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1933,19 +1933,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5966486670607791</v>
+        <v>0.6675551741061863</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.258673619641919</v>
+        <v>-0.2703495977625766</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.2832335168051391</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.005102929000857889</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1718306590145999</v>
+        <v>-0.1856675129659429</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1956,19 +1956,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3838275179382956</v>
+        <v>0.7186638865816094</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3315468494243731</v>
+        <v>-0.1701885678740545</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3730105296334114</v>
       </c>
       <c r="F23" t="n">
         <v>0.004156822137837838</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2098523021429951</v>
+        <v>-0.2710565549156191</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1979,19 +1979,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4102398672784485</v>
+        <v>0.4697726069474424</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2824054656039393</v>
+        <v>-0.1994056243993244</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.380430081945951</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1380324601916616</v>
+        <v>-0.09523269533670928</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1368945446128193</v>
+        <v>-0.133977919802021</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2002,19 +2002,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5421712943309728</v>
+        <v>0.427818318242941</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.240139070140522</v>
+        <v>-0.3101587991977694</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.6407994503493556</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.11698260356056</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2739340956721002</v>
+        <v>-0.2240984424605028</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2025,19 +2025,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.400010057347545</v>
+        <v>0.6061762063939715</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3384341944607119</v>
+        <v>-0.1476123016469272</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.3483031702687254</v>
       </c>
       <c r="F26" t="n">
         <v>-0.111125920574245</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1017551761627021</v>
+        <v>-0.1437712054627559</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2048,19 +2048,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02680320823281568</v>
+        <v>0.3726038449378046</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2697743092522675</v>
+        <v>-0.2083129063957397</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3332401319664669</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.04510310016987344</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.007348942827199601</v>
+        <v>-0.1073609659163772</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2071,19 +2071,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1960032156616571</v>
+        <v>0.3224487253785333</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2811793262287609</v>
+        <v>-0.1425894247700906</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.4006545349741236</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.05958483679626425</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.103400586691483</v>
+        <v>-0.1099774894426918</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2094,19 +2094,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>6.710342015648556</v>
+        <v>1.037059981674009</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4478540804371309</v>
+        <v>-0.09463746143908468</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.03044481659964991</v>
       </c>
       <c r="F29" t="n">
         <v>-0.00483623182778953</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1727949853025827</v>
+        <v>-0.02655763845420284</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2117,19 +2117,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0656790081001008</v>
+        <v>0.7764246510634912</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2830455053328189</v>
+        <v>-0.1805266453407762</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.3821143452331156</v>
       </c>
       <c r="F30" t="n">
         <v>-0.04051352308810744</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02246344322118949</v>
+        <v>-0.2652272991369397</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2140,19 +2140,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3520356161704029</v>
+        <v>0.2952514172033169</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4904359061218004</v>
+        <v>-0.2428205096870083</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3975494767873221</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.09956686093057684</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1004403416992048</v>
+        <v>-0.08797978963365562</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2163,19 +2163,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4459095523088845</v>
+        <v>0.6042377616821371</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3247013065391837</v>
+        <v>-0.1405652136624181</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.2781711882753994</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.05724374137464504</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1148254563994765</v>
+        <v>-0.133492706009461</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2186,19 +2186,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.06683414051600942</v>
+        <v>0.2168033448324375</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2468428129018339</v>
+        <v>-0.1042551476659751</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.3235856023099844</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02185937552636825</v>
+        <v>0.01048013556691602</v>
       </c>
       <c r="G33" t="n">
-        <v>0.035450096197438</v>
+        <v>-0.07242656936562833</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2209,19 +2209,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5062288014744917</v>
+        <v>0.833654883027544</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3321727268536971</v>
+        <v>-0.2751254907511456</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.260943098205201</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02745085931519266</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.103767081287785</v>
+        <v>-0.1946519450996892</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2232,19 +2232,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7019742458181404</v>
+        <v>0.752406695632905</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1465550288987344</v>
+        <v>-0.187089309758954</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2185123631066607</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.01921309265456504</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1170004053462547</v>
+        <v>-0.14995410552291</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2255,19 +2255,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.174568534216331</v>
+        <v>0.2138366924041092</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2657733499408937</v>
+        <v>-0.1924456125939538</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.4343882685998714</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.07579822101759758</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0579380602878343</v>
+        <v>-0.07667970970402554</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2278,19 +2278,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3158818819445489</v>
+        <v>0.04319053329420672</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2885105055146718</v>
+        <v>-0.1235724483276623</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.5380526140854195</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.06911952341634622</v>
+        <v>0.02920943065224142</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1526138223660728</v>
+        <v>-0.02450035022978173</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2301,19 +2301,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2356306494803936</v>
+        <v>0.07492460984635604</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3336281292284953</v>
+        <v>-0.09185108166677716</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.2100522825150694</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.007325747984901779</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.04115196136343154</v>
+        <v>-0.01518920650517663</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2324,19 +2324,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8426380303669712</v>
+        <v>0.5486656383772368</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2921499459122759</v>
+        <v>-0.1789324695549358</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.255435666262586</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.06727098504895779</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1954808059734104</v>
+        <v>-0.1032394949381246</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2347,19 +2347,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>1.024269328464122</v>
+        <v>0.568937538417661</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1403169509794568</v>
+        <v>-0.1833098164787898</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3712572385230804</v>
+        <v>-0.3605538161577854</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1456427669620106</v>
+        <v>-0.1084705650380272</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.2310899832776447</v>
+        <v>-0.1434196243683963</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CovarUnc_2009_to_2012" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Covar_2009_to_2012" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CovarUnc_2008_to_2010" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Covar_2008_to_2010" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,19 +537,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.1727551315153118</v>
+        <v>0.4078928841949477</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1579579096295905</v>
+        <v>-0.2730549251191534</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4484445323492274</v>
+        <v>-0.3768901133455611</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0443412417267765</v>
+        <v>-0.04362715168902515</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.06981091711725176</v>
+        <v>-0.1359355906254347</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -560,19 +560,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3871082644376517</v>
+        <v>1.089857322377365</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2379954738506166</v>
+        <v>-0.3356476989129508</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.361180141755518</v>
+        <v>-0.139549010336894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004527576062531471</v>
+        <v>-0.008466696019729811</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1415684799359996</v>
+        <v>-0.1428610200927327</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -583,19 +583,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.07686637875656069</v>
+        <v>0.5187836072612817</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1494944168944105</v>
+        <v>-0.372386373224101</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5824541837301086</v>
+        <v>-0.5133855319574849</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1754460561644704</v>
+        <v>-0.150264499281326</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.03128524089045891</v>
+        <v>-0.1883812392041795</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -606,19 +606,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2833127201376149</v>
+        <v>0.7000581538102079</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2096251919389817</v>
+        <v>-0.2740846170016522</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4860132622500562</v>
+        <v>-0.2826071460333419</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05315066436964837</v>
+        <v>-0.2140600952794894</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1226354800513329</v>
+        <v>-0.04798692179987658</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -629,19 +629,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2833127201376149</v>
+        <v>0.7000581538102079</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2096251919389817</v>
+        <v>-0.2740846170016522</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4860132622500562</v>
+        <v>-0.2826071460333419</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05315066436964837</v>
+        <v>-0.2140600952794894</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1226354800513329</v>
+        <v>-0.04798692179987658</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -652,19 +652,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.01638434378147279</v>
+        <v>0.6536148378067698</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1410718834189756</v>
+        <v>-0.2729394382180423</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3935641376831325</v>
+        <v>-0.2745825517650025</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.004750955551678292</v>
+        <v>-0.02596464230416128</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.006370448842810139</v>
+        <v>-0.1625003545681059</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -675,19 +675,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1468383905413746</v>
+        <v>0.368404359780716</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1460149714873806</v>
+        <v>-0.2752501717754869</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1948289132913794</v>
+        <v>-0.2888431543339274</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1048565174099811</v>
+        <v>-0.1127307625764536</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01321140180437591</v>
+        <v>-0.06488057293486277</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,19 +698,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.03738776049644472</v>
+        <v>1.482278446675114</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1370879601867309</v>
+        <v>-0.3129920030782766</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07618361684369356</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02084795666577791</v>
+        <v>-0.02125152201574228</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.002068876409644564</v>
+        <v>-0.08179795215884948</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -721,19 +721,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.003537699477101114</v>
+        <v>0.4070917930715988</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1385600891031786</v>
+        <v>-0.3598092517834649</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6164366344418757</v>
+        <v>-0.3342207391628874</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1063374679794493</v>
+        <v>-0.1241931898428532</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.00180457755446384</v>
+        <v>-0.08550049164712639</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -744,19 +744,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6816432093816376</v>
+        <v>0.4601811695698881</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.4114715931299158</v>
+        <v>-0.2691988354436578</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.413114317909722</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002838638469014556</v>
+        <v>-0.003279462254741294</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2817900633651184</v>
+        <v>-0.1648868215387335</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -767,19 +767,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3723831869387502</v>
+        <v>0.2884080938489082</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.208469085890422</v>
+        <v>-0.2734689178683587</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.43730840372378</v>
+        <v>-0.4616054966515489</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07596174772776487</v>
+        <v>-0.05349152616482249</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1345594193494564</v>
+        <v>-0.1177033723011863</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -790,19 +790,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.006079500952100873</v>
+        <v>-0.735459023472582</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1366941751851425</v>
+        <v>-0.137923145536795</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2206908967761832</v>
+        <v>-0.2163147600375518</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04455248451540762</v>
+        <v>-0.0251844409554047</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.001070833645040921</v>
+        <v>0.1405685178281589</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -813,19 +813,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>1.409901506281679</v>
+        <v>0.7261224064127945</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3359691146223856</v>
+        <v>-0.2959365362969258</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08764859879763968</v>
+        <v>-0.143042688726838</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04319374675263407</v>
+        <v>-0.0002014834941005232</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1844748200767588</v>
+        <v>-0.1037201996784992</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -836,19 +836,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.5841398967347298</v>
+        <v>-0.8002998356892381</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0649402101329616</v>
+        <v>-0.04171809674257704</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1326074424137802</v>
+        <v>-0.1629034478627218</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01531486132336479</v>
+        <v>-0.0174244180304535</v>
       </c>
       <c r="G15" t="n">
-        <v>0.06851527620590518</v>
+        <v>0.1164268436709941</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -859,19 +859,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2179428156841118</v>
+        <v>0.4040621280052694</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.211735884033974</v>
+        <v>-0.3082241950289964</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.45167860772783</v>
+        <v>-0.3743751795522665</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01230605687093749</v>
+        <v>-0.04911477874870375</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09575809086806175</v>
+        <v>-0.1314254097045344</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -882,19 +882,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.5727601399949304</v>
+        <v>0.6823311280459069</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3143632423290078</v>
+        <v>-0.448576955944651</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3352872590099016</v>
+        <v>-0.412942917469445</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01860258869582366</v>
+        <v>-0.04771571095972019</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1813843561033396</v>
+        <v>-0.2492058918108359</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.3731484917516797</v>
+        <v>-0.7273995581642853</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0635069815048144</v>
+        <v>-0.06662089800792709</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1798335287553886</v>
+        <v>-0.1772914247526856</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00292379803310885</v>
+        <v>-0.01245498740745456</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0660135991952145</v>
+        <v>0.119901951694296</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -928,19 +928,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.009226854750002537</v>
+        <v>-0.9339296661824751</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1383812150537888</v>
+        <v>-0.0985554284509636</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3247272560197255</v>
+        <v>-0.193083062956932</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004634794161576795</v>
+        <v>-0.03768857234552898</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.003038975797185923</v>
+        <v>0.1451275247433034</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -951,19 +951,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4083376141255587</v>
+        <v>-0.3377653390216033</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1909594524838051</v>
+        <v>-0.1017524300073469</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2392413267074984</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07733372447077957</v>
+        <v>-0.06976047660935519</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.06611296400613174</v>
+        <v>0.04726988163938368</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -974,19 +974,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.00599518017516321</v>
+        <v>0.5451813987348718</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1384312564164391</v>
+        <v>-0.3607954104513982</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.61407367936906</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008921880856679401</v>
+        <v>-0.003484632365108815</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.003627994065405785</v>
+        <v>-0.2589163082571057</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -997,19 +997,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3003125630774917</v>
+        <v>0.3858377030326174</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2283584828814301</v>
+        <v>-0.3231343704074801</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2832335168051391</v>
+        <v>-0.4244176356608813</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.005102929000857889</v>
+        <v>0.01938105876254231</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08352610969375304</v>
+        <v>-0.1712342688652082</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1020,19 +1020,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3123892570913589</v>
+        <v>0.5370181633238528</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2093774314151596</v>
+        <v>-0.3952431442185991</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.3730105296334114</v>
+        <v>-0.519214035564546</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.09977187843083737</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1178230288189358</v>
+        <v>-0.2252480568445391</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1043,19 +1043,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.07397141533588668</v>
+        <v>0.4414853420831659</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1386354333130607</v>
+        <v>-0.2959114951916511</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.380430081945951</v>
+        <v>-0.468380322170776</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.09523269533670928</v>
+        <v>-0.1106747552403082</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02109645433758166</v>
+        <v>-0.1579217645813503</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1066,19 +1066,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1265570691640243</v>
+        <v>0.7227643007545391</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1624564197848006</v>
+        <v>-0.3995382705829728</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6407994503493556</v>
+        <v>-0.5073351570863548</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.11698260356056</v>
+        <v>-0.1374975801219516</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.0662927249083307</v>
+        <v>-0.2673053977074299</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1089,19 +1089,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2725195511194805</v>
+        <v>0.4445756822310466</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1846768367201714</v>
+        <v>-0.3073831489948345</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3483031702687254</v>
+        <v>-0.4505516767410683</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1115505849096438</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.06463543762249273</v>
+        <v>-0.1507116416780252</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1112,19 +1112,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.07830090550460243</v>
+        <v>0.7419486942379167</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1581078244168704</v>
+        <v>-0.3260881152762604</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3332401319664669</v>
+        <v>-0.314839324735946</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.04510310016987344</v>
+        <v>-0.05269726656907843</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.02256139049908169</v>
+        <v>-0.1944959577617474</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1135,19 +1135,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3221254671620532</v>
+        <v>0.3227392769518092</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2224965977756504</v>
+        <v>-0.2853213603251697</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4006545349741236</v>
+        <v>-0.5924179870062874</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.05958483679626425</v>
+        <v>-0.001656869072382211</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1098672358603634</v>
+        <v>-0.1906618160532311</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1158,19 +1158,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07901777260352774</v>
+        <v>-2.88392681398632</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.138000269256551</v>
+        <v>0.001402437312116117</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03044481659964991</v>
+        <v>-0.06491231730979236</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.006259285657825231</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.002023533328201027</v>
+        <v>0.1691510507026964</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1181,19 +1181,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.004916561464537054</v>
+        <v>0.2670814354299432</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1337310707970777</v>
+        <v>-0.2950799378800713</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3821143452331156</v>
+        <v>-0.3758420243704514</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.04901316514339061</v>
       </c>
       <c r="G30" t="n">
-        <v>0.001679501438412323</v>
+        <v>-0.08728992086229424</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1204,19 +1204,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.001877811704941732</v>
+        <v>0.7469016112822924</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1366331879627673</v>
+        <v>-0.3612864749575403</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3975494767873221</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.09956686093057684</v>
+        <v>-0.1111451210040375</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.0005595552439249518</v>
+        <v>-0.2210831921910981</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1227,19 +1227,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.005657721649573013</v>
+        <v>0.6359712972184337</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1367295673272931</v>
+        <v>-0.2835566802185953</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2781711882753994</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.05724374137464504</v>
+        <v>-0.05281994499207488</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.00124994599931529</v>
+        <v>-0.14345055305167</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1250,19 +1250,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1084117249776568</v>
+        <v>0.2958984741502546</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.158221980363013</v>
+        <v>-0.2816324595048966</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.3235856023099844</v>
+        <v>-0.5558928360551493</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01048013556691602</v>
+        <v>-0.08886572216080547</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.03621664289916852</v>
+        <v>-0.1381926103881335</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1273,19 +1273,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2509246070450655</v>
+        <v>1.056576714308349</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1883770231197229</v>
+        <v>-0.419482686499712</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.260943098205201</v>
+        <v>-0.2638622166637504</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02745085931519266</v>
+        <v>-0.03477062233602739</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.05858894829154788</v>
+        <v>-0.2420528440104468</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1296,19 +1296,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.8976971488920169</v>
+        <v>1.032006322557162</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.252365879171318</v>
+        <v>-0.3665541555464831</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2185123631066607</v>
+        <v>-0.2198777582365995</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01921309265456504</v>
+        <v>-0.05767646343403966</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1789103868611053</v>
+        <v>-0.1673927617631999</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1319,19 +1319,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.07863217204154038</v>
+        <v>-0.5270060400980143</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1463628725028107</v>
+        <v>-0.125634210871334</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4343882685998714</v>
+        <v>-0.3321751213341257</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.07579822101759758</v>
+        <v>-0.08983073783688712</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.0281967143138735</v>
+        <v>0.1277169538868743</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1342,19 +1342,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0134669957579183</v>
+        <v>0.5299523439037523</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1364407696664231</v>
+        <v>-0.3661507809696995</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5380526140854195</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02920943065224142</v>
+        <v>-0.09707212707889849</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.007639315550110141</v>
+        <v>-0.2412253625924317</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1365,19 +1365,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.2126803921753372</v>
+        <v>0.3386069246811933</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.05573297621436937</v>
+        <v>-0.2830441500850768</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2100522825150694</v>
+        <v>-0.1409151105907709</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.007325747984901779</v>
+        <v>-0.04171384157564108</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04311595886822308</v>
+        <v>-0.03359023662568487</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1388,19 +1388,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.08603367891283098</v>
+        <v>1.266062028664334</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1377311384059574</v>
+        <v>-0.445215001910942</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.255435666262586</v>
+        <v>-0.3125908846315499</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.06727098504895779</v>
+        <v>-0.0451382864144947</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.01618849976626849</v>
+        <v>-0.338611579070232</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1411,19 +1411,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.5065420056834377</v>
+        <v>0.7835255274172676</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2518784125981087</v>
+        <v>-0.3372967466223741</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3605538161577854</v>
+        <v>-0.3259453138267329</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1084705650380272</v>
+        <v>-0.09903205603997856</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.127690755621404</v>
+        <v>-0.1777923299853371</v>
       </c>
     </row>
   </sheetData>
@@ -1473,19 +1473,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5095418379078709</v>
+        <v>0.02819967377920843</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1928678792039042</v>
+        <v>0.04889165961129707</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.4484445323492274</v>
+        <v>-0.3768901133455611</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.0443412417267765</v>
+        <v>-0.04362715168902515</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2059075334083821</v>
+        <v>-0.009397906801407159</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1496,19 +1496,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9419233621358647</v>
+        <v>0.3093557447087796</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3215843663826037</v>
+        <v>0.00490655057687029</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.361180141755518</v>
+        <v>-0.139549010336894</v>
       </c>
       <c r="F3" t="n">
-        <v>0.004527576062531471</v>
+        <v>-0.008466696019729811</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3444686431262113</v>
+        <v>-0.04055106696373666</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1519,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1442520252693369</v>
+        <v>0.2288015404100484</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1878585112386242</v>
+        <v>-0.0572653002108311</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5824541837301086</v>
+        <v>-0.5133855319574849</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1754460561644704</v>
+        <v>-0.150264499281326</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.05871174670242395</v>
+        <v>-0.08308265163159267</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1542,19 +1542,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7540927537262267</v>
+        <v>0.2073126136087507</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2331534921799265</v>
+        <v>0.02114311487037529</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4860132622500562</v>
+        <v>-0.2826071460333419</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05315066436964837</v>
+        <v>-0.2140600952794894</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.3264185484207251</v>
+        <v>-0.01421066824695284</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1565,19 +1565,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7540927537262267</v>
+        <v>0.2073126136087507</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2331534921799265</v>
+        <v>0.02114311487037529</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4860132622500562</v>
+        <v>-0.2826071460333419</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05315066436964837</v>
+        <v>-0.2140600952794894</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.3264185484207251</v>
+        <v>-0.01421066824695284</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1588,19 +1588,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.5957934331250254</v>
+        <v>0.3546343838533185</v>
       </c>
       <c r="D7" t="n">
-        <v>0.02521162758675841</v>
+        <v>-0.01570419844458056</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.3935641376831325</v>
+        <v>-0.2745825517650025</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.004750955551678292</v>
+        <v>-0.02596464230416128</v>
       </c>
       <c r="G7" t="n">
-        <v>0.2316523406263649</v>
+        <v>-0.08816845913654553</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1611,19 +1611,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.357525407296189</v>
+        <v>0.1266097931884754</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1316537770188893</v>
+        <v>0.03511014513116037</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.1948289132913794</v>
+        <v>-0.2888431543339274</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1048565174099811</v>
+        <v>-0.1127307625764536</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03216741748291085</v>
+        <v>-0.02229755349834152</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1634,19 +1634,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.9802021292646634</v>
+        <v>-0.08869547311095088</v>
       </c>
       <c r="D9" t="n">
-        <v>0.002241517604101248</v>
+        <v>0.06768351372147197</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07618361684369356</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02084795666577791</v>
+        <v>-0.02125152201574228</v>
       </c>
       <c r="G9" t="n">
-        <v>0.05424013193065876</v>
+        <v>0.004894564906148337</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1657,19 +1657,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.08275509788815276</v>
+        <v>-0.004548484023170596</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1123962647717245</v>
+        <v>0.06480912663305877</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6164366344418757</v>
+        <v>-0.3342207391628874</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1063374679794493</v>
+        <v>-0.1241931898428532</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04221330645326322</v>
+        <v>0.0009553069525078502</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1680,19 +1680,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4816612307494569</v>
+        <v>0.2350257668321817</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2208793213610481</v>
+        <v>-0.02721987640679813</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.413114317909722</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0002838638469014556</v>
+        <v>-0.003279462254741294</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1991178770144829</v>
+        <v>-0.08421172841314306</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1703,19 +1703,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6685530052541172</v>
+        <v>0.3311953141561448</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1138553367042311</v>
+        <v>-0.1320509768838574</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.43730840372378</v>
+        <v>-0.4616054966515489</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07596174772776487</v>
+        <v>-0.05349152616482249</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2415793928046616</v>
+        <v>-0.135165434666863</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1726,19 +1726,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.678813789441497</v>
+        <v>0.2991658719289579</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1074416209386287</v>
+        <v>0.001847133827872209</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2206908967761832</v>
+        <v>-0.2163147600375518</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.04455248451540762</v>
+        <v>-0.0251844409554047</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1195651830929457</v>
+        <v>-0.0571796685602705</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1749,19 +1749,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>1.128292085479197</v>
+        <v>-0.1604109459254005</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1156394590569818</v>
+        <v>0.1259059517484384</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.08764859879763968</v>
+        <v>-0.143042688726838</v>
       </c>
       <c r="F14" t="n">
-        <v>0.04319374675263407</v>
+        <v>-0.0002014834941005232</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.147628382929908</v>
+        <v>0.02291329284850769</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1772,19 +1772,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.4836651817613908</v>
+        <v>-0.1719004993041076</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.03035989273464131</v>
+        <v>0.09128830689043428</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1326074424137802</v>
+        <v>-0.1629034478627218</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.01531486132336479</v>
+        <v>-0.0174244180304535</v>
       </c>
       <c r="G15" t="n">
-        <v>0.05673033755235846</v>
+        <v>0.02500791786644408</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1795,19 +1795,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.3908177824082176</v>
+        <v>0.1382222394283822</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1525482234993669</v>
+        <v>0.02648442055294799</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.45167860772783</v>
+        <v>-0.3743751795522665</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01230605687093749</v>
+        <v>-0.04911477874870375</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1717146059769325</v>
+        <v>-0.0449582209964416</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1818,19 +1818,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3969300310446685</v>
+        <v>-0.1539120536404289</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.150758170523129</v>
+        <v>0.126877756346584</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3352872590099016</v>
+        <v>-0.412942917469445</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01860258869582366</v>
+        <v>-0.04771571095972019</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1257016560191376</v>
+        <v>0.05621286939926876</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1841,19 +1841,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.09871510917863918</v>
+        <v>-0.2985174196706776</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05912215963812294</v>
+        <v>0.08655627236817137</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1798335287553886</v>
+        <v>-0.1772914247526856</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.00292379803310885</v>
+        <v>-0.01245498740745456</v>
       </c>
       <c r="G18" t="n">
-        <v>0.01746366338301351</v>
+        <v>0.0492065479440057</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1864,19 +1864,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2001351000392363</v>
+        <v>0.166926510817083</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.01876131680238741</v>
+        <v>0.03725586171515875</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3247272560197255</v>
+        <v>-0.193083062956932</v>
       </c>
       <c r="F19" t="n">
-        <v>0.004634794161576795</v>
+        <v>-0.03768857234552898</v>
       </c>
       <c r="G19" t="n">
-        <v>0.06591690686216291</v>
+        <v>-0.02593946011795947</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1887,19 +1887,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.7625092511662139</v>
+        <v>-0.3746474798796978</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1516455520542156</v>
+        <v>0.06623028736521042</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2392413267074984</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.07733372447077957</v>
+        <v>-0.06976047660935519</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1234560445396377</v>
+        <v>0.05243149602533374</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1910,19 +1910,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.462250696699198</v>
+        <v>0.2138848618828393</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.144633276701632</v>
+        <v>-0.01759945726803091</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.61407367936906</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.008921880856679401</v>
+        <v>-0.003484632365108815</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2797318404711206</v>
+        <v>-0.1015777114906975</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1933,19 +1933,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6675551741061863</v>
+        <v>0.07871000421140821</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2703495977625766</v>
+        <v>0.03251801883648914</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2832335168051391</v>
+        <v>-0.4244176356608813</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.005102929000857889</v>
+        <v>0.01938105876254231</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1856675129659429</v>
+        <v>-0.03493139710708514</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1956,19 +1956,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.7186638865816094</v>
+        <v>0.2517908390836933</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1701885678740545</v>
+        <v>-0.06457767326827205</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.3730105296334114</v>
+        <v>-0.519214035564546</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.09977187843083737</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2710565549156191</v>
+        <v>-0.1056116926917709</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1979,19 +1979,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4697726069474424</v>
+        <v>0.2828368642052739</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.1994056243993244</v>
+        <v>-0.01554391488065776</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.380430081945951</v>
+        <v>-0.468380322170776</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.09523269533670928</v>
+        <v>-0.1106747552403082</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.133977919802021</v>
+        <v>-0.1011723208593832</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2002,19 +2002,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.427818318242941</v>
+        <v>0.3324274551202691</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3101587991977694</v>
+        <v>-0.1190799789513348</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6407994503493556</v>
+        <v>-0.5073351570863548</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.11698260356056</v>
+        <v>-0.1374975801219516</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2240984424605028</v>
+        <v>-0.1229441645181232</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2025,19 +2025,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.6061762063939715</v>
+        <v>0.1458812186459287</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1476123016469272</v>
+        <v>0.002653468692579833</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3483031702687254</v>
+        <v>-0.4505516767410683</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1115505849096438</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1437712054627559</v>
+        <v>-0.04945389239866858</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2048,19 +2048,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3726038449378046</v>
+        <v>-0.6218148211433211</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2083129063957397</v>
+        <v>0.255616310157921</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3332401319664669</v>
+        <v>-0.314839324735946</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.04510310016987344</v>
+        <v>-0.05269726656907843</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1073609659163772</v>
+        <v>0.1630038170131728</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2071,19 +2071,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3224487253785333</v>
+        <v>-0.02050688747786805</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1425894247700906</v>
+        <v>0.07193266974300669</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4006545349741236</v>
+        <v>-0.5924179870062874</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.05958483679626425</v>
+        <v>-0.001656869072382211</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1099774894426918</v>
+        <v>0.01211467177177013</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2094,19 +2094,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>1.037059981674009</v>
+        <v>0.5222138715689313</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.09463746143908468</v>
+        <v>0.02455335509179813</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03044481659964991</v>
+        <v>-0.06491231730979236</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.006259285657825231</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.02655763845420284</v>
+        <v>-0.03062942673822882</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2117,19 +2117,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.7764246510634912</v>
+        <v>0.02653029875413995</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1805266453407762</v>
+        <v>0.05201890317021768</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3821143452331156</v>
+        <v>-0.3758420243704514</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.04901316514339061</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2652272991369397</v>
+        <v>-0.008670867276768674</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2140,19 +2140,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2952514172033169</v>
+        <v>0.1975245189274473</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2428205096870083</v>
+        <v>0.02291702519025349</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3975494767873221</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.09956686093057684</v>
+        <v>-0.1111451210040375</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.08797978963365562</v>
+        <v>-0.05846734097349021</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2163,19 +2163,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6042377616821371</v>
+        <v>0.2687550399275207</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1405652136624181</v>
+        <v>-0.01883431773888235</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2781711882753994</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.05724374137464504</v>
+        <v>-0.05281994499207488</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.133492706009461</v>
+        <v>-0.06062075329758927</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2186,19 +2186,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2168033448324375</v>
+        <v>0.04916308804604505</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1042551476659751</v>
+        <v>0.03904752502151594</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.3235856023099844</v>
+        <v>-0.5558928360551493</v>
       </c>
       <c r="F33" t="n">
-        <v>0.01048013556691602</v>
+        <v>-0.08886572216080547</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.07242656936562833</v>
+        <v>-0.02296049512027793</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2209,19 +2209,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.833654883027544</v>
+        <v>0.1452866624838806</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2751254907511456</v>
+        <v>0.03657442697160108</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.260943098205201</v>
+        <v>-0.2638622166637504</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02745085931519266</v>
+        <v>-0.03477062233602739</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1946519450996892</v>
+        <v>-0.033283953142986</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2232,19 +2232,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.752406695632905</v>
+        <v>0.2977464430508948</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.187089309758954</v>
+        <v>-0.0394374204968842</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2185123631066607</v>
+        <v>-0.2198777582365995</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.01921309265456504</v>
+        <v>-0.05767646343403966</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.14995410552291</v>
+        <v>-0.04829485858571177</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2255,19 +2255,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.2138366924041092</v>
+        <v>-0.01597305690625872</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1924456125939538</v>
+        <v>0.06798861609405968</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4343882685998714</v>
+        <v>-0.3321751213341257</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.07579822101759758</v>
+        <v>-0.08983073783688712</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.07667970970402554</v>
+        <v>0.003870980628513578</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2278,19 +2278,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.04319053329420672</v>
+        <v>0.1532051856960986</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1235724483276623</v>
+        <v>0.01468234112280112</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5380526140854195</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F37" t="n">
-        <v>0.02920943065224142</v>
+        <v>-0.09707212707889849</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.02450035022978173</v>
+        <v>-0.06973641478467391</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2301,19 +2301,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.07492460984635604</v>
+        <v>-0.3091216453869416</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.09185108166677716</v>
+        <v>0.1205405374697369</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2100522825150694</v>
+        <v>-0.1409151105907709</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.007325747984901779</v>
+        <v>-0.04171384157564108</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.01518920650517663</v>
+        <v>0.03066525950242957</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2324,19 +2324,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5486656383772368</v>
+        <v>0.4964607144724867</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1789324695549358</v>
+        <v>-0.08602183684352407</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.255435666262586</v>
+        <v>-0.3125908846315499</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.06727098504895779</v>
+        <v>-0.0451382864144947</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1032394949381246</v>
+        <v>-0.1327797079983622</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2347,19 +2347,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.568937538417661</v>
+        <v>0.3066957891682905</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1833098164787898</v>
+        <v>-0.03129606446497278</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3605538161577854</v>
+        <v>-0.3259453138267329</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1084705650380272</v>
+        <v>-0.09903205603997856</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1434196243683963</v>
+        <v>-0.06959334066965636</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CovarUnc_2008_to_2010" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Covar_2008_to_2010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CovarUnc_Q1-2008_to_Q4-2010" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Covar_Q1-2008_to_Q4-2010" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -6,8 +6,8 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="CovarUnc_Q1-2008_to_Q4-2010" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="Covar_Q1-2008_to_Q4-2010" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="CovarUnc_Q1-2009_to_Q4-2011" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Covar_Q1-2009_to_Q4-2011" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -537,19 +537,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4078928841949477</v>
+        <v>0.4363241601072309</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2730549251191534</v>
+        <v>-0.3081140805306247</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3768901133455611</v>
+        <v>-0.4576570057588757</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04362715168902515</v>
+        <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1359355906254347</v>
+        <v>-0.1798104364542343</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -560,19 +560,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.089857322377365</v>
+        <v>1.08985714150524</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.3356476989129508</v>
+        <v>-0.5781722429646022</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.139549010336894</v>
+        <v>-0.3620777838639835</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.008466696019729811</v>
+        <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.1428610200927327</v>
+        <v>-0.3995474696300114</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -583,19 +583,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.5187836072612817</v>
+        <v>0.283709169368171</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.372386373224101</v>
+        <v>-0.295796486709357</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5133855319574849</v>
+        <v>-0.5861330664460952</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.150264499281326</v>
+        <v>-0.1964237563617732</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1883812392041795</v>
+        <v>-0.110564104659066</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -606,19 +606,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7000581538102079</v>
+        <v>0.6353287960843303</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2740846170016522</v>
+        <v>-0.4093969355275733</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2826071460333419</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2140600952794894</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.04798692179987658</v>
+        <v>-0.2809471840310464</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -629,19 +629,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7000581538102079</v>
+        <v>0.6353287960843303</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2740846170016522</v>
+        <v>-0.4093969355275733</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2826071460333419</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2140600952794894</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.04798692179987658</v>
+        <v>-0.2809471840310464</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -652,19 +652,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.6536148378067698</v>
+        <v>0.5106881886541067</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2729394382180423</v>
+        <v>-0.2674305484240287</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2745825517650025</v>
+        <v>-0.262631449293981</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02596464230416128</v>
+        <v>-0.002407767627232283</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1625003545681059</v>
+        <v>-0.1328931606352948</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -675,19 +675,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.368404359780716</v>
+        <v>0.368404344821531</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2752501717754869</v>
+        <v>-0.2716232611692157</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2888431543339274</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1127307625764536</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06488057293486277</v>
+        <v>-0.06415457014335828</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,19 +698,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>1.482278446675114</v>
+        <v>1.482278357028076</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3129920030782766</v>
+        <v>-0.3129919938921713</v>
       </c>
       <c r="E9" t="n">
         <v>-0.07643545344396332</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02125152201574228</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.08179795215884948</v>
+        <v>-0.06933448932922912</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -721,19 +721,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4070917930715988</v>
+        <v>0.2305811861308734</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3598092517834649</v>
+        <v>-0.3885307163126707</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3342207391628874</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1241931898428532</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.08550049164712639</v>
+        <v>-0.117846957248409</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -744,19 +744,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4601811695698881</v>
+        <v>0.6816434272975801</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2691988354436578</v>
+        <v>-0.3763490996138042</v>
       </c>
       <c r="E11" t="n">
         <v>-0.3615879556093179</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.003279462254741294</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1648868215387335</v>
+        <v>-0.2475413390040164</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -767,19 +767,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2884080938489082</v>
+        <v>0.4959321589434947</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2734689178683587</v>
+        <v>-0.274333027178568</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4616054966515489</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05349152616482249</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1177033723011863</v>
+        <v>-0.1936921227459136</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -790,19 +790,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.735459023472582</v>
+        <v>0.9945775325894669</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.137923145536795</v>
+        <v>-0.4514425331726257</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2163147600375518</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0251844409554047</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="G13" t="n">
-        <v>0.1405685178281589</v>
+        <v>-0.1965125339385523</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -813,19 +813,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7261224064127945</v>
+        <v>0.8232544262510897</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2959365362969258</v>
+        <v>-0.2735684942886152</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.143042688726838</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0002014834941005232</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1037201996784992</v>
+        <v>-0.1134974882647972</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -836,19 +836,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8002998356892381</v>
+        <v>-0.8002997798564983</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.04171809674257704</v>
+        <v>-0.06790689399582069</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1629034478627218</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0174244180304535</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="G15" t="n">
-        <v>0.1164268436709941</v>
+        <v>0.09674194138631444</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -859,19 +859,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4040621280052694</v>
+        <v>0.4040621431410926</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.3082241950289964</v>
+        <v>-0.34065965665819</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3743751795522665</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.04911477874870375</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1314254097045344</v>
+        <v>-0.1787338820866344</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -882,19 +882,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6823311280459069</v>
+        <v>0.6823311323443265</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.448576955944651</v>
+        <v>-0.3964056600852889</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.412942917469445</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04771571095972019</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.2492058918108359</v>
+        <v>-0.1986571316082736</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -905,19 +905,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7273995581642853</v>
+        <v>-0.7273994871788335</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06662089800792709</v>
+        <v>-0.06878243352881491</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1772914247526856</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01245498740745456</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="G18" t="n">
-        <v>0.119901951694296</v>
+        <v>0.1623767559504462</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -928,19 +928,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.9339296661824751</v>
+        <v>0.4194830228511619</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.0985554284509636</v>
+        <v>-0.3530033310618481</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.193083062956932</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.03768857234552898</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1451275247433034</v>
+        <v>-0.08680328252895578</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -951,19 +951,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3377653390216033</v>
+        <v>-0.3023849903084074</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1017524300073469</v>
+        <v>-0.1199686884605011</v>
       </c>
       <c r="E20" t="n">
         <v>-0.2097093588016761</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06976047660935519</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="G20" t="n">
-        <v>0.04726988163938368</v>
+        <v>0.0499765897299405</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -974,19 +974,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.5451813987348718</v>
+        <v>0.419595471703682</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3607954104513982</v>
+        <v>-0.3411833863449786</v>
       </c>
       <c r="E21" t="n">
         <v>-0.4784023549028504</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.003484632365108815</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.2589163082571057</v>
+        <v>-0.1978060838230851</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -997,19 +997,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3858377030326174</v>
+        <v>0.4297194328589496</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3231343704074801</v>
+        <v>-0.2752320820846895</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4244176356608813</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01938105876254231</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1712342688652082</v>
+        <v>-0.1237562026297322</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1020,19 +1020,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5370181633238528</v>
+        <v>0.3231932775915683</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3952431442185991</v>
+        <v>-0.2695676878696008</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.519214035564546</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.09977187843083737</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2252480568445391</v>
+        <v>-0.1767013832255611</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1043,19 +1043,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4414853420831659</v>
+        <v>0.3348399254415322</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2959114951916511</v>
+        <v>-0.2720429754621176</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.468380322170776</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1106747552403082</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1579217645813503</v>
+        <v>-0.1117340433429809</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1066,19 +1066,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7227643007545391</v>
+        <v>0.4830247721369207</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3995382705829728</v>
+        <v>-0.3423859454617846</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5073351570863548</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1374975801219516</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2673053977074299</v>
+        <v>-0.2440500917810962</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1089,19 +1089,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4445756822310466</v>
+        <v>0.4445757040283733</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3073831489948345</v>
+        <v>-0.2695745654630834</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4505516767410683</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1115505849096438</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1507116416780252</v>
+        <v>-0.1130918541924558</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1112,19 +1112,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7419486942379167</v>
+        <v>0.521615812931703</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3260881152762604</v>
+        <v>-0.2865585189556205</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.314839324735946</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.05269726656907843</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1944959577617474</v>
+        <v>-0.143017386340532</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1135,19 +1135,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3227392769518092</v>
+        <v>0.3221254685962464</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2853213603251697</v>
+        <v>-0.2869219574571164</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5924179870062874</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.001656869072382211</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1906618160532311</v>
+        <v>-0.1699357958423363</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1158,19 +1158,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>-2.88392681398632</v>
+        <v>-3.097619560224732</v>
       </c>
       <c r="D29" t="n">
-        <v>0.001402437312116117</v>
+        <v>-0.08439552054752833</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.06491231730979236</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.006259285657825231</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1691510507026964</v>
+        <v>0.07976540169395419</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1181,19 +1181,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.2670814354299432</v>
+        <v>0.26708142794146</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2950799378800713</v>
+        <v>-0.2968667398458991</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3758420243704514</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.04901316514339061</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.08728992086229424</v>
+        <v>-0.09134681941075161</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1204,19 +1204,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.7469016112822924</v>
+        <v>0.1496872985581948</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3612864749575403</v>
+        <v>-0.2928184357111927</v>
       </c>
       <c r="E31" t="n">
         <v>-0.4071455430831104</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1111451210040375</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.2210831921910981</v>
+        <v>-0.04270773389002334</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1227,19 +1227,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6359712972184337</v>
+        <v>0.4001816214467527</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2835566802185953</v>
+        <v>-0.2806280615099984</v>
       </c>
       <c r="E32" t="n">
         <v>-0.2783813086559444</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.05281994499207488</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.14345055305167</v>
+        <v>-0.1030501299812374</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1250,19 +1250,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2958984741502546</v>
+        <v>0.1821172626168225</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2816324595048966</v>
+        <v>-0.2709852379781559</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5558928360551493</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.08886572216080547</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1381926103881335</v>
+        <v>-0.09659845146709042</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1273,19 +1273,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>1.056576714308349</v>
+        <v>1.111200368274594</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.419482686499712</v>
+        <v>-0.4256483741502808</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2638622166637504</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.03477062233602739</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.2420528440104468</v>
+        <v>-0.2277745134332831</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1296,19 +1296,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>1.032006322557162</v>
+        <v>1.032006321620078</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3665541555464831</v>
+        <v>-0.365653515789698</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2198777582365995</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05767646343403966</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1673927617631999</v>
+        <v>-0.1720079599340852</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1319,19 +1319,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.5270060400980143</v>
+        <v>-0.3509225860774516</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.125634210871334</v>
+        <v>-0.139087484791633</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.3321751213341257</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.08983073783688712</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1277169538868743</v>
+        <v>0.1164687212377135</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1342,19 +1342,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.5299523439037523</v>
+        <v>0.401965800012757</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3661507809696995</v>
+        <v>-0.2867071246920977</v>
       </c>
       <c r="E37" t="n">
         <v>-0.552255249424409</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.09707212707889849</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.2412253625924317</v>
+        <v>-0.1942040386195751</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1365,19 +1365,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3386069246811933</v>
+        <v>0.3386069228665523</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2830441500850768</v>
+        <v>-0.3069716557220559</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1409151105907709</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.04171384157564108</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.03359023662568487</v>
+        <v>-0.05913636039251446</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1388,19 +1388,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>1.266062028664334</v>
+        <v>0.747684921451253</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.445215001910942</v>
+        <v>-0.2704018710429032</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3125908846315499</v>
+        <v>-0.3141388711706843</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0451382864144947</v>
+        <v>-0.0821521830214704</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.338611579070232</v>
+        <v>-0.1734529487065813</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1411,19 +1411,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7835255274172676</v>
+        <v>0.759704102283257</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3372967466223741</v>
+        <v>-0.3175854043629854</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3259453138267329</v>
+        <v>-0.3712572385230804</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.09903205603997856</v>
+        <v>-0.1456427669620106</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1777923299853371</v>
+        <v>-0.171400239579414</v>
       </c>
     </row>
   </sheetData>
@@ -1473,19 +1473,19 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02819967377920843</v>
+        <v>0.07278087118398249</v>
       </c>
       <c r="D2" t="n">
-        <v>0.04889165961129707</v>
+        <v>-0.2746833820796017</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.3768901133455611</v>
+        <v>-0.4576570057588757</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.04362715168902515</v>
+        <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.009397906801407159</v>
+        <v>-0.02999320553300349</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1496,19 +1496,19 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3093557447087796</v>
+        <v>-0.04349867722843614</v>
       </c>
       <c r="D3" t="n">
-        <v>0.00490655057687029</v>
+        <v>-0.2670711336714227</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.139549010336894</v>
+        <v>-0.3620777838639835</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.008466696019729811</v>
+        <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.04055106696373666</v>
+        <v>0.01594684822165814</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1519,19 +1519,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2288015404100484</v>
+        <v>0.3126729641772183</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.0572653002108311</v>
+        <v>-0.2129740122661761</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5133855319574849</v>
+        <v>-0.5861330664460952</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.150264499281326</v>
+        <v>-0.1964237563617732</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.08308265163159267</v>
+        <v>-0.1218515651515237</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1542,19 +1542,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2073126136087507</v>
+        <v>-0.1968090831565901</v>
       </c>
       <c r="D5" t="n">
-        <v>0.02114311487037529</v>
+        <v>-0.2656531945473813</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.2826071460333419</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.2140600952794894</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.01421066824695284</v>
+        <v>0.08703046051959011</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1565,19 +1565,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2073126136087507</v>
+        <v>-0.1968090831565901</v>
       </c>
       <c r="D6" t="n">
-        <v>0.02114311487037529</v>
+        <v>-0.2656531945473813</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.2826071460333419</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.2140600952794894</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.01421066824695284</v>
+        <v>0.08703046051959011</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1588,19 +1588,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.3546343838533185</v>
+        <v>0.1086553736971797</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.01570419844458056</v>
+        <v>-0.3011000539213597</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.2745825517650025</v>
+        <v>-0.262631449293981</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.02596464230416128</v>
+        <v>-0.002407767627232283</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.08816845913654553</v>
+        <v>-0.02827470137635651</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1611,19 +1611,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1266097931884754</v>
+        <v>0.3429830909016213</v>
       </c>
       <c r="D8" t="n">
-        <v>0.03511014513116037</v>
+        <v>-0.346993590900856</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2888431543339274</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1127307625764536</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02229755349834152</v>
+        <v>-0.0597276689934084</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1634,19 +1634,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.08869547311095088</v>
+        <v>-0.2155775254667976</v>
       </c>
       <c r="D9" t="n">
-        <v>0.06768351372147197</v>
+        <v>-0.2595219162935896</v>
       </c>
       <c r="E9" t="n">
         <v>-0.07643545344396332</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02125152201574228</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="G9" t="n">
-        <v>0.004894564906148337</v>
+        <v>0.01008377243601364</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1657,19 +1657,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.004548484023170596</v>
+        <v>0.05506444198697693</v>
       </c>
       <c r="D10" t="n">
-        <v>0.06480912663305877</v>
+        <v>-0.3132412020913974</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.3342207391628874</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1241931898428532</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0009553069525078502</v>
+        <v>-0.02814269910583094</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1680,19 +1680,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2350257668321817</v>
+        <v>0.3926898766687119</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.02721987640679813</v>
+        <v>-0.3411299093435399</v>
       </c>
       <c r="E11" t="n">
         <v>-0.3615879556093179</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.003279462254741294</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08421172841314306</v>
+        <v>-0.1426067852942974</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1703,19 +1703,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3311953141561448</v>
+        <v>0.6241843204701205</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1320509768838574</v>
+        <v>-0.2477634490196334</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4616054966515489</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.05349152616482249</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.135165434666863</v>
+        <v>-0.2437825090313376</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1726,19 +1726,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2991658719289579</v>
+        <v>0.5716340002902437</v>
       </c>
       <c r="D13" t="n">
-        <v>0.001847133827872209</v>
+        <v>-0.3632218402650448</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2163147600375518</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0251844409554047</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.0571796685602705</v>
+        <v>-0.1129456902067733</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1749,19 +1749,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>-0.1604109459254005</v>
+        <v>0.9631695736914455</v>
       </c>
       <c r="D14" t="n">
-        <v>0.1259059517484384</v>
+        <v>-0.2474804778941823</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.143042688726838</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0002014834941005232</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="G14" t="n">
-        <v>0.02291329284850769</v>
+        <v>-0.1327868079432751</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1772,19 +1772,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.1719004993041076</v>
+        <v>-0.7657767875916701</v>
       </c>
       <c r="D15" t="n">
-        <v>0.09128830689043428</v>
+        <v>-0.2021551546526934</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1629034478627218</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.0174244180304535</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="G15" t="n">
-        <v>0.02500791786644408</v>
+        <v>0.09256872857503133</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1795,19 +1795,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1382222394283822</v>
+        <v>0.2215481234513006</v>
       </c>
       <c r="D16" t="n">
-        <v>0.02648442055294799</v>
+        <v>-0.2628765424648973</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.3743751795522665</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.04911477874870375</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.0449582209964416</v>
+        <v>-0.09800016370163335</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1818,19 +1818,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.1539120536404289</v>
+        <v>-0.197436759158294</v>
       </c>
       <c r="D17" t="n">
-        <v>0.126877756346584</v>
+        <v>-0.2724659927366025</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.412942917469445</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04771571095972019</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05621286939926876</v>
+        <v>0.05748267723570236</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1841,19 +1841,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2985174196706776</v>
+        <v>-0.4565890353085781</v>
       </c>
       <c r="D18" t="n">
-        <v>0.08655627236817137</v>
+        <v>-0.1911982357594821</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1772914247526856</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01245498740745456</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0492065479440057</v>
+        <v>0.1019239739135577</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1864,19 +1864,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.166926510817083</v>
+        <v>0.0779076429422346</v>
       </c>
       <c r="D19" t="n">
-        <v>0.03725586171515875</v>
+        <v>-0.3026691911443888</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.193083062956932</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.03768857234552898</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.02593946011795947</v>
+        <v>-0.01612136552157743</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1887,19 +1887,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3746474798796978</v>
+        <v>-0.3160191983581459</v>
       </c>
       <c r="D20" t="n">
-        <v>0.06623028736521042</v>
+        <v>-0.2531907131666987</v>
       </c>
       <c r="E20" t="n">
         <v>-0.2097093588016761</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.06976047660935519</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05243149602533374</v>
+        <v>0.05222997942795253</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1910,19 +1910,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2138848618828393</v>
+        <v>0.3465913133623217</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.01759945726803091</v>
+        <v>-0.3550769208547558</v>
       </c>
       <c r="E21" t="n">
         <v>-0.4784023549028504</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.003484632365108815</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1015777114906975</v>
+        <v>-0.1633903962426841</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1933,19 +1933,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.07871000421140821</v>
+        <v>0.5966486670607791</v>
       </c>
       <c r="D22" t="n">
-        <v>0.03251801883648914</v>
+        <v>-0.258673619641919</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4244176356608813</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F22" t="n">
-        <v>0.01938105876254231</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.03493139710708514</v>
+        <v>-0.1718306590145999</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1956,19 +1956,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.2517908390836933</v>
+        <v>0.3838275179382956</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.06457767326827205</v>
+        <v>-0.3315468494243731</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.519214035564546</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.09977187843083737</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1056116926917709</v>
+        <v>-0.2098523021429951</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1979,19 +1979,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2828368642052739</v>
+        <v>0.4102398672784485</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.01554391488065776</v>
+        <v>-0.2824054656039393</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.468380322170776</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1106747552403082</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1011723208593832</v>
+        <v>-0.1368945446128193</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2002,19 +2002,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3324274551202691</v>
+        <v>0.5421712943309728</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.1190799789513348</v>
+        <v>-0.240139070140522</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5073351570863548</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1374975801219516</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1229441645181232</v>
+        <v>-0.2739340956721002</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2025,19 +2025,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.1458812186459287</v>
+        <v>0.400010057347545</v>
       </c>
       <c r="D26" t="n">
-        <v>0.002653468692579833</v>
+        <v>-0.3384341944607119</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4505516767410683</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1115505849096438</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.04945389239866858</v>
+        <v>-0.1017551761627021</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2048,19 +2048,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.6218148211433211</v>
+        <v>0.02680320823281568</v>
       </c>
       <c r="D27" t="n">
-        <v>0.255616310157921</v>
+        <v>-0.2697743092522675</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.314839324735946</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.05269726656907843</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1630038170131728</v>
+        <v>-0.007348942827199601</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2071,19 +2071,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>-0.02050688747786805</v>
+        <v>0.1960032156616571</v>
       </c>
       <c r="D28" t="n">
-        <v>0.07193266974300669</v>
+        <v>-0.2811793262287609</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.5924179870062874</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.001656869072382211</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G28" t="n">
-        <v>0.01211467177177013</v>
+        <v>-0.103400586691483</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2094,19 +2094,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5222138715689313</v>
+        <v>6.710342015648556</v>
       </c>
       <c r="D29" t="n">
-        <v>0.02455335509179813</v>
+        <v>-0.4478540804371309</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.06491231730979236</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.006259285657825231</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.03062942673822882</v>
+        <v>-0.1727949853025827</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2117,19 +2117,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.02653029875413995</v>
+        <v>0.0656790081001008</v>
       </c>
       <c r="D30" t="n">
-        <v>0.05201890317021768</v>
+        <v>-0.2830455053328189</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3758420243704514</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.04901316514339061</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.008670867276768674</v>
+        <v>-0.02246344322118949</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2140,19 +2140,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1975245189274473</v>
+        <v>0.3520356161704029</v>
       </c>
       <c r="D31" t="n">
-        <v>0.02291702519025349</v>
+        <v>-0.4904359061218004</v>
       </c>
       <c r="E31" t="n">
         <v>-0.4071455430831104</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.1111451210040375</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.05846734097349021</v>
+        <v>-0.1004403416992048</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2163,19 +2163,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.2687550399275207</v>
+        <v>0.4459095523088845</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.01883431773888235</v>
+        <v>-0.3247013065391837</v>
       </c>
       <c r="E32" t="n">
         <v>-0.2783813086559444</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.05281994499207488</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.06062075329758927</v>
+        <v>-0.1148254563994765</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2186,19 +2186,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04916308804604505</v>
+        <v>-0.06683414051600942</v>
       </c>
       <c r="D33" t="n">
-        <v>0.03904752502151594</v>
+        <v>-0.2468428129018339</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5558928360551493</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.08886572216080547</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.02296049512027793</v>
+        <v>0.035450096197438</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2209,19 +2209,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1452866624838806</v>
+        <v>0.5062288014744917</v>
       </c>
       <c r="D34" t="n">
-        <v>0.03657442697160108</v>
+        <v>-0.3321727268536971</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2638622166637504</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.03477062233602739</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.033283953142986</v>
+        <v>-0.103767081287785</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2232,19 +2232,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2977464430508948</v>
+        <v>0.7019742458181404</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.0394374204968842</v>
+        <v>-0.1465550288987344</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2198777582365995</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05767646343403966</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.04829485858571177</v>
+        <v>-0.1170004053462547</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2255,19 +2255,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.01597305690625872</v>
+        <v>-0.174568534216331</v>
       </c>
       <c r="D36" t="n">
-        <v>0.06798861609405968</v>
+        <v>-0.2657733499408937</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.3321751213341257</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.08983073783688712</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G36" t="n">
-        <v>0.003870980628513578</v>
+        <v>0.0579380602878343</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2278,19 +2278,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1532051856960986</v>
+        <v>0.3158818819445489</v>
       </c>
       <c r="D37" t="n">
-        <v>0.01468234112280112</v>
+        <v>-0.2885105055146718</v>
       </c>
       <c r="E37" t="n">
         <v>-0.552255249424409</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.09707212707889849</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.06973641478467391</v>
+        <v>-0.1526138223660728</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2301,19 +2301,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3091216453869416</v>
+        <v>0.2356306494803936</v>
       </c>
       <c r="D38" t="n">
-        <v>0.1205405374697369</v>
+        <v>-0.3336281292284953</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.1409151105907709</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.04171384157564108</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G38" t="n">
-        <v>0.03066525950242957</v>
+        <v>-0.04115196136343154</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2324,19 +2324,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4964607144724867</v>
+        <v>0.8426380303669712</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.08602183684352407</v>
+        <v>-0.2921499459122759</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3125908846315499</v>
+        <v>-0.3141388711706843</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0451382864144947</v>
+        <v>-0.0821521830214704</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1327797079983622</v>
+        <v>-0.1954808059734104</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2347,19 +2347,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3066957891682905</v>
+        <v>1.024269328464122</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.03129606446497278</v>
+        <v>-0.1403169509794568</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3259453138267329</v>
+        <v>-0.3712572385230804</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.09903205603997856</v>
+        <v>-0.1456427669620106</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.06959334066965636</v>
+        <v>-0.2310899832776447</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
   <si>
     <t>Ticker</t>
   </si>
@@ -51,6 +51,9 @@
   </si>
   <si>
     <t>BDB:IM</t>
+  </si>
+  <si>
+    <t>BKIR:ID</t>
   </si>
   <si>
     <t>BKT:SM</t>
@@ -501,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -537,10 +540,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4363241601072309</v>
+        <v>0.4239467826473806</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3081140805306247</v>
+        <v>-0.3029594373230575</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -549,7 +552,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1798104364542343</v>
+        <v>-0.1747096837416925</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -560,10 +563,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.08985714150524</v>
+        <v>1.070616863255573</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5781722429646022</v>
+        <v>-0.5685977273797818</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -572,7 +575,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3995474696300114</v>
+        <v>-0.3924938804972057</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -583,10 +586,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.283709169368171</v>
+        <v>0.2795946936506882</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.295796486709357</v>
+        <v>-0.291270485481167</v>
       </c>
       <c r="E4" t="n">
         <v>-0.5861330664460952</v>
@@ -595,7 +598,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.110564104659066</v>
+        <v>-0.108960655165847</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -606,10 +609,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6353287960843303</v>
+        <v>0.6165801017582428</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4093969355275733</v>
+        <v>-0.4012163197711576</v>
       </c>
       <c r="E5" t="n">
         <v>-0.4953582044065317</v>
@@ -618,7 +621,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2809471840310464</v>
+        <v>-0.2726563700342038</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -629,10 +632,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6353287960843303</v>
+        <v>0.6165801017582428</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4093969355275733</v>
+        <v>-0.4012163197711576</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4953582044065317</v>
@@ -641,7 +644,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2809471840310464</v>
+        <v>-0.2726563700342038</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -652,10 +655,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5106881886541067</v>
+        <v>0.49692530868367</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2674305484240287</v>
+        <v>-0.2634183274735076</v>
       </c>
       <c r="E7" t="n">
         <v>-0.262631449293981</v>
@@ -664,7 +667,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1328931606352948</v>
+        <v>-0.1293117333390502</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -675,19 +678,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.368404344821531</v>
+        <v>0.04158288884088489</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2716232611692157</v>
+        <v>-0.3063346266445296</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2789982479436891</v>
+        <v>-0.8539629754327032</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1048565174099811</v>
+        <v>-0.004144896706283483</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.06415457014335828</v>
+        <v>-0.03533789070265508</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -698,19 +701,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>1.482278357028076</v>
+        <v>0.3579536711895336</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3129919938921713</v>
+        <v>-0.2675037661273957</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07643545344396332</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02965983333152862</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06933448932922912</v>
+        <v>-0.06233467175183927</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -721,19 +724,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.2305811861308734</v>
+        <v>1.456110295458959</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3885307163126707</v>
+        <v>-0.3080989558217331</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6170223666373371</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1059357544732321</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.117846957248409</v>
+        <v>-0.06811046202219333</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -744,19 +747,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.6816434272975801</v>
+        <v>0.2243670918749916</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3763490996138042</v>
+        <v>-0.38125488015164</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3615879556093179</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001565753633372538</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.2475413390040164</v>
+        <v>-0.114671016867502</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -767,19 +770,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.4959321589434947</v>
+        <v>0.6797480574843302</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.274333027178568</v>
+        <v>-0.3752427903235625</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4665234793132788</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07596174772776487</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1936921227459136</v>
+        <v>-0.2468530284259481</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -790,19 +793,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.9945775325894669</v>
+        <v>0.4812970960295652</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4514425331726257</v>
+        <v>-0.2701381786871042</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2057813985096446</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008197472169668612</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1965125339385523</v>
+        <v>-0.1879762272323864</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -813,19 +816,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8232544262510897</v>
+        <v>0.9677739625949707</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2735684942886152</v>
+        <v>-0.4424712418328476</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1125772802437477</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02528713280488728</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1134974882647972</v>
+        <v>-0.1912165793391113</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -836,19 +839,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.8002997798564983</v>
+        <v>1.054590568151363</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.06790689399582069</v>
+        <v>-0.2687475078847504</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1301797247799175</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009297595581204967</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09674194138631444</v>
+        <v>-0.1453905096848142</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -859,19 +862,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4040621431410926</v>
+        <v>-0.7775973588588512</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.34065965665819</v>
+        <v>-0.06956630231389166</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4546486151150617</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01230605687093749</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1787338820866344</v>
+        <v>0.09399762439815329</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -882,19 +885,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6823311323443265</v>
+        <v>0.3925999538949175</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3964056600852889</v>
+        <v>-0.3345817799897355</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3364825360131138</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04533777917674435</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1986571316082736</v>
+        <v>-0.173663667972403</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -905,19 +908,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7273994871788335</v>
+        <v>0.6770214199190676</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06878243352881491</v>
+        <v>-0.3912320938326468</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1743198450688082</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04890928667035862</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1623767559504462</v>
+        <v>-0.1971112366753505</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -928,19 +931,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4194830228511619</v>
+        <v>-0.706765052008099</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3530033310618481</v>
+        <v>-0.07041700584970119</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1878356237037364</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01909356722982552</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.08680328252895578</v>
+        <v>0.1577705489033551</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -951,19 +954,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3023849903084074</v>
+        <v>0.4075833657361465</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1199686884605011</v>
+        <v>-0.3465752912508041</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2097093588016761</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04443465492510944</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0499765897299405</v>
+        <v>-0.08434089610975884</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -974,19 +977,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.419595471703682</v>
+        <v>-0.2942358119068144</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3411833863449786</v>
+        <v>-0.1199305169553305</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1978060838230851</v>
+        <v>0.04862973668277991</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -997,19 +1000,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4297194328589496</v>
+        <v>0.4082875109754635</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2752320820846895</v>
+        <v>-0.3351835505725445</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1237562026297322</v>
+        <v>-0.1924752745591239</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1020,19 +1023,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3231932775915683</v>
+        <v>0.550471449015121</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2695676878696008</v>
+        <v>-0.2708785664171025</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1767013832255611</v>
+        <v>-0.1585319419532945</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1043,19 +1046,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3348399254415322</v>
+        <v>0.3136557743806602</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2720429754621176</v>
+        <v>-0.2655134651518344</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1117340433429809</v>
+        <v>-0.1714868873596679</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1066,19 +1069,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4830247721369207</v>
+        <v>0.3249587253927451</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3423859454617846</v>
+        <v>-0.2679157059122059</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2440500917810962</v>
+        <v>-0.1084367470809656</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1089,19 +1092,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4445757040283733</v>
+        <v>0.476019734731798</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2695745654630834</v>
+        <v>-0.3371842838841151</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1130918541924558</v>
+        <v>-0.2405107701556505</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1112,19 +1115,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.521615812931703</v>
+        <v>0.4319642501675903</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2865585189556205</v>
+        <v>-0.2655131873247691</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.143017386340532</v>
+        <v>-0.1098837330822488</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1135,19 +1138,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3221254685962464</v>
+        <v>0.6681908867085991</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2869219574571164</v>
+        <v>-0.285387753344664</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1699357958423363</v>
+        <v>-0.1832055544031959</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1158,19 +1161,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>-3.097619560224732</v>
+        <v>0.3073241247696459</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.08439552054752833</v>
+        <v>-0.2614514932174142</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G29" t="n">
-        <v>0.07976540169395419</v>
+        <v>-0.1621274156056836</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1181,19 +1184,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.26708142794146</v>
+        <v>-3.745922572070168</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2968667398458991</v>
+        <v>-0.04013217749898038</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.09134681941075161</v>
+        <v>0.09645955962841009</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1204,19 +1207,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1496872985581948</v>
+        <v>0.3421318954379721</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2928184357111927</v>
+        <v>-0.298592624594658</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.04270773389002334</v>
+        <v>-0.1170154761718613</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1227,19 +1230,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4001816214467527</v>
+        <v>0.1456532708003029</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2806280615099984</v>
+        <v>-0.2881220171865264</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1030501299812374</v>
+        <v>-0.04155677328315506</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1250,19 +1253,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1821172626168225</v>
+        <v>0.3893968546761494</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2709852379781559</v>
+        <v>-0.2762601713787765</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.09659845146709042</v>
+        <v>-0.10027296192062</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1273,19 +1276,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>1.111200368274594</v>
+        <v>0.1767429412072895</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.4256483741502808</v>
+        <v>-0.2668891820136114</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.2277745134332831</v>
+        <v>-0.09374780942257638</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1296,19 +1299,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>1.032006321620078</v>
+        <v>1.095085248015992</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.365653515789698</v>
+        <v>-0.4192392030488902</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1720079599340852</v>
+        <v>-0.2244712264828643</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1319,19 +1322,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.3509225860774516</v>
+        <v>1.025352979515697</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.139087484791633</v>
+        <v>-0.360839374225097</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G36" t="n">
-        <v>0.1164687212377135</v>
+        <v>-0.1708990250582586</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1342,19 +1345,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.401965800012757</v>
+        <v>-0.3414653257019286</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2867071246920977</v>
+        <v>-0.1385340696247173</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.06911952341634622</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1942040386195751</v>
+        <v>0.1133299234912893</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1365,19 +1368,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3386069228665523</v>
+        <v>0.3901037027327098</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3069716557220559</v>
+        <v>-0.2821471135116304</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.05913636039251446</v>
+        <v>-0.1884730356382012</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1388,19 +1391,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.747684921451253</v>
+        <v>0.4337562502155502</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2704018710429032</v>
+        <v>-0.3115370555571237</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1734529487065813</v>
+        <v>-0.07575381424012299</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1411,19 +1414,42 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.759704102283257</v>
+        <v>0.7353417457151553</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3175854043629854</v>
+        <v>-0.2662546977247719</v>
       </c>
       <c r="E40" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.1705894962463203</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.728604881291727</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.3032022762407328</v>
+      </c>
+      <c r="E41" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F41" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G40" t="n">
-        <v>-0.171400239579414</v>
+      <c r="G41" t="n">
+        <v>-0.164383805269449</v>
       </c>
     </row>
   </sheetData>
@@ -1437,7 +1463,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G40"/>
+  <dimension ref="A1:G41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1462,7 +1488,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1473,10 +1499,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.07278087118398249</v>
+        <v>0.05070084559028867</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2746833820796017</v>
+        <v>-0.2682201400285395</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1485,7 +1511,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02999320553300349</v>
+        <v>-0.02089396372629944</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1496,10 +1522,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.04349867722843614</v>
+        <v>-0.0884348708126074</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2670711336714227</v>
+        <v>-0.2583966829196825</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1508,7 +1534,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.01594684822165814</v>
+        <v>0.03242069764431079</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1519,10 +1545,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3126729641772183</v>
+        <v>0.3176051897879475</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2129740122661761</v>
+        <v>-0.2068872397354408</v>
       </c>
       <c r="E4" t="n">
         <v>-0.5861330664460952</v>
@@ -1531,7 +1557,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1218515651515237</v>
+        <v>-0.1237736993914612</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1542,10 +1568,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.1968090831565901</v>
+        <v>-0.2106796207444298</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2656531945473813</v>
+        <v>-0.2601348014519492</v>
       </c>
       <c r="E5" t="n">
         <v>-0.4953582044065317</v>
@@ -1554,7 +1580,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08703046051959011</v>
+        <v>0.09316411682529784</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1565,10 +1591,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.1968090831565901</v>
+        <v>-0.2106796207444298</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2656531945473813</v>
+        <v>-0.2601348014519492</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4953582044065317</v>
@@ -1577,7 +1603,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.08703046051959011</v>
+        <v>0.09316411682529784</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1588,10 +1614,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1086553736971797</v>
+        <v>-0.04587734317236858</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3011000539213597</v>
+        <v>-0.2523339334221427</v>
       </c>
       <c r="E7" t="n">
         <v>-0.262631449293981</v>
@@ -1600,7 +1626,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02827470137635651</v>
+        <v>0.01193837114540263</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1611,19 +1637,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.3429830909016213</v>
+        <v>-0.02938391791445076</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.346993590900856</v>
+        <v>-0.2317022728513676</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.2789982479436891</v>
+        <v>-0.8539629754327032</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.1048565174099811</v>
+        <v>-0.004144896706283483</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.0597276689934084</v>
+        <v>0.02497098466751337</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1634,19 +1660,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.2155775254667976</v>
+        <v>0.3305334993973643</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2595219162935896</v>
+        <v>-0.3390352841752542</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.07643545344396332</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.02965983333152862</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01008377243601364</v>
+        <v>-0.05755967558441934</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1657,19 +1683,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05506444198697693</v>
+        <v>-0.2803040315015613</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3132412020913974</v>
+        <v>-0.2510596060033476</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.6170223666373371</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1059357544732321</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.02814269910583094</v>
+        <v>0.01311139489350096</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1680,19 +1706,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3926898766687119</v>
+        <v>0.06727404477767734</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3411299093435399</v>
+        <v>-0.3175485300596852</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.3615879556093179</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="F11" t="n">
-        <v>0.001565753633372538</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.1426067852942974</v>
+        <v>-0.03438286363199942</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1703,19 +1729,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6241843204701205</v>
+        <v>0.3682001089704523</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2477634490196334</v>
+        <v>-0.3315421852634983</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.4665234793132788</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.07596174772776487</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2437825090313376</v>
+        <v>-0.1337132353161826</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1726,19 +1752,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5716340002902437</v>
+        <v>0.5840842485062656</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3632218402650448</v>
+        <v>-0.2440410977985494</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.2057813985096446</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.008197472169668612</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1129456902067733</v>
+        <v>-0.2281209554884307</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1749,19 +1775,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9631695736914455</v>
+        <v>0.4991533279507119</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2474804778941823</v>
+        <v>-0.3462791881794474</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.1125772802437477</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="F14" t="n">
-        <v>0.02528713280488728</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1327868079432751</v>
+        <v>-0.09862467438216733</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1772,19 +1798,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>-0.7657767875916701</v>
+        <v>0.948780975564057</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2021551546526934</v>
+        <v>-0.2426436058471388</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1301797247799175</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.009297595581204967</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="G15" t="n">
-        <v>0.09256872857503133</v>
+        <v>-0.13080313230785</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1795,19 +1821,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2215481234513006</v>
+        <v>-0.6731555101272375</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2628765424648973</v>
+        <v>-0.2052358541190039</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.4546486151150617</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.01230605687093749</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.09800016370163335</v>
+        <v>0.08137247134602597</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1818,19 +1844,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.197436759158294</v>
+        <v>0.2069866966006921</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2724659927366025</v>
+        <v>-0.2581944944504957</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.3364825360131138</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.04533777917674435</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05748267723570236</v>
+        <v>-0.09155902489685051</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1841,19 +1867,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.4565890353085781</v>
+        <v>-0.2008869330633231</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1911982357594821</v>
+        <v>-0.2673210916957272</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.1743198450688082</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="F18" t="n">
-        <v>0.04890928667035862</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1019239739135577</v>
+        <v>0.05848717727832524</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1864,19 +1890,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.0779076429422346</v>
+        <v>-0.4070642073289931</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3026691911443888</v>
+        <v>-0.1946147743149712</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1878356237037364</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="F19" t="n">
-        <v>0.01909356722982552</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.01612136552157743</v>
+        <v>0.09086858956414334</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1887,19 +1913,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3160191983581459</v>
+        <v>0.0482508421611634</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2531907131666987</v>
+        <v>-0.2852257926932002</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.2097093588016761</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.04443465492510944</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="G20" t="n">
-        <v>0.05222997942795253</v>
+        <v>-0.009984507730272539</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1910,19 +1936,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3465913133623217</v>
+        <v>-0.2453463412574255</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3550769208547558</v>
+        <v>-0.2518712585284888</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.1633903962426841</v>
+        <v>0.04054954389852006</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1933,19 +1959,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5966486670607791</v>
+        <v>0.3401582436861433</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.258673619641919</v>
+        <v>-0.3483261677989637</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1718306590145999</v>
+        <v>-0.1603577126094715</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1956,19 +1982,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3838275179382956</v>
+        <v>0.5972225900407235</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3315468494243731</v>
+        <v>-0.2534822232896506</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F23" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.2098523021429951</v>
+        <v>-0.1719959448340643</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1979,19 +2005,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4102398672784485</v>
+        <v>0.3530212665966147</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2824054656039393</v>
+        <v>-0.3214634104624542</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1368945446128193</v>
+        <v>-0.1930094170909475</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2002,19 +2028,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5421712943309728</v>
+        <v>0.3946604256376857</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.240139070140522</v>
+        <v>-0.2767715166720688</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.2739340956721002</v>
+        <v>-0.1316957798440928</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2025,19 +2051,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.400010057347545</v>
+        <v>0.5137443227653807</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3384341944607119</v>
+        <v>-0.2365484550441286</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1017551761627021</v>
+        <v>-0.259571260844915</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2048,19 +2074,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.02680320823281568</v>
+        <v>0.3794672239638895</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2697743092522675</v>
+        <v>-0.3297629391042508</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.007348942827199601</v>
+        <v>-0.09652945848026213</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2071,19 +2097,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.1960032156616571</v>
+        <v>0.04901298255914133</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2811793262287609</v>
+        <v>-0.26403125726455</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.103400586691483</v>
+        <v>-0.01343845122900881</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2094,19 +2120,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>6.710342015648556</v>
+        <v>0.1850345335974455</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.4478540804371309</v>
+        <v>-0.2753990384089926</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1727949853025827</v>
+        <v>-0.097614109378633</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2117,19 +2143,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.0656790081001008</v>
+        <v>6.132574713650087</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2830455053328189</v>
+        <v>-0.4273996644263079</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.02246344322118949</v>
+        <v>-0.1579171605621564</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2140,19 +2166,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3520356161704029</v>
+        <v>0.10558973327505</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4904359061218004</v>
+        <v>-0.2855169984789393</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1004403416992048</v>
+        <v>-0.03611365406964768</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2163,19 +2189,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4459095523088845</v>
+        <v>0.3295973771083137</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3247013065391837</v>
+        <v>-0.4712344968965392</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1148254563994765</v>
+        <v>-0.09403842014637594</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2186,19 +2212,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>-0.06683414051600942</v>
+        <v>0.4297799123710926</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2468428129018339</v>
+        <v>-0.3175589741135642</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G33" t="n">
-        <v>0.035450096197438</v>
+        <v>-0.1106719385889112</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2209,19 +2235,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.5062288014744917</v>
+        <v>-0.06903995920129058</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3321727268536971</v>
+        <v>-0.2408834844182671</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.103767081287785</v>
+        <v>0.0366201042798879</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2232,19 +2258,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.7019742458181404</v>
+        <v>0.5484179678399793</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1465550288987344</v>
+        <v>-0.3321363299068931</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1170004053462547</v>
+        <v>-0.1124150417415563</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2255,19 +2281,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.174568534216331</v>
+        <v>0.687038199004341</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2657733499408937</v>
+        <v>-0.1440111815554563</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0579380602878343</v>
+        <v>-0.1145109642565058</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2278,19 +2304,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3158818819445489</v>
+        <v>-0.159844597418635</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2885105055146718</v>
+        <v>-0.2609880507235462</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.06911952341634622</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1526138223660728</v>
+        <v>0.05305128993320662</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2301,19 +2327,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2356306494803936</v>
+        <v>0.2816244778822631</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3336281292284953</v>
+        <v>-0.2813721828621077</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.04115196136343154</v>
+        <v>-0.1360628465832888</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2324,19 +2350,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.8426380303669712</v>
+        <v>0.2926017065524083</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2921499459122759</v>
+        <v>-0.3437224444021341</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1954808059734104</v>
+        <v>-0.0511017312453691</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2347,19 +2373,42 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>1.024269328464122</v>
+        <v>0.6791908753643293</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1403169509794568</v>
+        <v>-0.2827614497647341</v>
       </c>
       <c r="E40" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F40" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G40" t="n">
+        <v>-0.1575632417969363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>45</v>
+      </c>
+      <c r="C41" t="n">
+        <v>1.022266682089163</v>
+      </c>
+      <c r="D41" t="n">
+        <v>-0.1353913288494478</v>
+      </c>
+      <c r="E41" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F40" t="n">
+      <c r="F41" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G40" t="n">
-        <v>-0.2310899832776447</v>
+      <c r="G41" t="n">
+        <v>-0.2306381572740347</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
   <si>
     <t>Ticker</t>
   </si>
@@ -39,6 +39,9 @@
   </si>
   <si>
     <t>ALBAV:FH</t>
+  </si>
+  <si>
+    <t>ALBK:ID</t>
   </si>
   <si>
     <t>ALPHA:GA</t>
@@ -504,7 +507,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -540,10 +543,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4239467826473806</v>
+        <v>0.411862069979672</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3029594373230575</v>
+        <v>-0.2979616111524293</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -552,7 +555,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1747096837416925</v>
+        <v>-0.1697295390284805</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -563,10 +566,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.070616863255573</v>
+        <v>1.051425955466162</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5685977273797818</v>
+        <v>-0.5591719625208053</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -575,7 +578,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3924938804972057</v>
+        <v>-0.3854583908397524</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -586,19 +589,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.2795946936506882</v>
+        <v>0.05057568506482162</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.291270485481167</v>
+        <v>-0.3097856654935229</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5861330664460952</v>
+        <v>-0.8539629754327032</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1964237563617732</v>
+        <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.108960655165847</v>
+        <v>-0.04298013151205918</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -609,19 +612,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.6165801017582428</v>
+        <v>0.275609665113663</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.4012163197711576</v>
+        <v>-0.2868887198098111</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4953582044065317</v>
+        <v>-0.5861330664460952</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05315066436964837</v>
+        <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.2726563700342038</v>
+        <v>-0.1074076524440166</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -632,10 +635,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.6165801017582428</v>
+        <v>0.5987676466205319</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.4012163197711576</v>
+        <v>-0.3933678330819938</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4953582044065317</v>
@@ -644,7 +647,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2726563700342038</v>
+        <v>-0.2647795680657393</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -655,19 +658,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.49692530868367</v>
+        <v>0.5987676466205319</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2634183274735076</v>
+        <v>-0.3933678330819938</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.262631449293981</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002407767627232283</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.1293117333390502</v>
+        <v>-0.2647795680657393</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -678,19 +681,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.04158288884088489</v>
+        <v>0.4834006790993338</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.3063346266445296</v>
+        <v>-0.2595373151941731</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8539629754327032</v>
+        <v>-0.262631449293981</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.004144896706283483</v>
+        <v>-0.002407767627232283</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03533789070265508</v>
+        <v>-0.1257923044354352</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -701,19 +704,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3579536711895336</v>
+        <v>0.05057568506482162</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2675037661273957</v>
+        <v>-0.3097856654935229</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2789982479436891</v>
+        <v>-0.8539629754327032</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1048565174099811</v>
+        <v>-0.004144896706283483</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.06233467175183927</v>
+        <v>-0.04298013151205918</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -724,19 +727,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>1.456110295458959</v>
+        <v>0.3477501051725454</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3080989558217331</v>
+        <v>-0.263516611901722</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07643545344396332</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02965983333152862</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.06811046202219333</v>
+        <v>-0.060557805108026</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -747,19 +750,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.2243670918749916</v>
+        <v>1.430009381008241</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.38125488015164</v>
+        <v>-0.3033426558286203</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6170223666373371</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1059357544732321</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.114671016867502</v>
+        <v>-0.0668895755632594</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -770,19 +773,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.6797480574843302</v>
+        <v>0.2182605703336354</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3752427903235625</v>
+        <v>-0.3741667493825774</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3615879556093179</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001565753633372538</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.2468530284259481</v>
+        <v>-0.1115500554608231</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -793,19 +796,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.4812970960295652</v>
+        <v>0.6774241567079006</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2701381786871042</v>
+        <v>-0.3740538129099692</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4665234793132788</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07596174772776487</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1879762272323864</v>
+        <v>-0.2460090952390757</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -816,19 +819,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.9677739625949707</v>
+        <v>0.467392853055394</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4424712418328476</v>
+        <v>-0.266076425060804</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2057813985096446</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.008197472169668612</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1912165793391113</v>
+        <v>-0.1825457620200084</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -839,19 +842,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>1.054590568151363</v>
+        <v>0.9414343914807709</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2687475078847504</v>
+        <v>-0.433717006053625</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1125772802437477</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02528713280488728</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1453905096848142</v>
+        <v>-0.1860123034602567</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -862,19 +865,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.7775973588588512</v>
+        <v>1.09005330621481</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.06956630231389166</v>
+        <v>-0.264558572376114</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1301797247799175</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009297595581204967</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="G16" t="n">
-        <v>0.09399762439815329</v>
+        <v>-0.1502795592530287</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -885,19 +888,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3925999538949175</v>
+        <v>-0.7554317397273778</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.3345817799897355</v>
+        <v>-0.07122140848358323</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4546486151150617</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01230605687093749</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.173663667972403</v>
+        <v>0.09131819716253307</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -908,19 +911,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>0.6770214199190676</v>
+        <v>0.3814087896894795</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3912320938326468</v>
+        <v>-0.3286825503402882</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3364825360131138</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04533777917674435</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1971112366753505</v>
+        <v>-0.1687133397680395</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -931,19 +934,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.706765052008099</v>
+        <v>0.6714405761937899</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.07041700584970119</v>
+        <v>-0.3861455938998912</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1743198450688082</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04890928667035862</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="G19" t="n">
-        <v>0.1577705489033551</v>
+        <v>-0.1954864032860128</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -954,19 +957,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.4075833657361465</v>
+        <v>-0.6866185208946721</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3465752912508041</v>
+        <v>-0.07204786327280836</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1878356237037364</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01909356722982552</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.08434089610975884</v>
+        <v>0.1532732562553487</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -977,19 +980,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2942358119068144</v>
+        <v>0.3959650776496594</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1199305169553305</v>
+        <v>-0.3403341781143907</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2097093588016761</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04443465492510944</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04862973668277991</v>
+        <v>-0.08193673315598902</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1000,19 +1003,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4082875109754635</v>
+        <v>-0.2862277046257434</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3351835505725445</v>
+        <v>-0.1199547590133496</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1924752745591239</v>
+        <v>0.04730619912328912</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1023,19 +1026,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.550471449015121</v>
+        <v>0.397175303317526</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2708785664171025</v>
+        <v>-0.3293493312406048</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1585319419532945</v>
+        <v>-0.1872367473878923</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1046,19 +1049,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3136557743806602</v>
+        <v>0.7204057643359473</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2655134651518344</v>
+        <v>-0.2830716012383139</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1714868873596679</v>
+        <v>-0.2074718407627859</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1069,19 +1072,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3249587253927451</v>
+        <v>0.3045945381628677</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2679157059122059</v>
+        <v>-0.2615853149725271</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1084367470809656</v>
+        <v>-0.1665327837800728</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1092,19 +1095,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.476019734731798</v>
+        <v>0.3155709552622812</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3371842838841151</v>
+        <v>-0.2639181565846123</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2405107701556505</v>
+        <v>-0.1053041053768199</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1115,19 +1118,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4319642501675903</v>
+        <v>0.4692350856342293</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2655131873247691</v>
+        <v>-0.3321481150861698</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1098837330822488</v>
+        <v>-0.2370828005555844</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1138,19 +1141,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.6681908867085991</v>
+        <v>0.4196509958672359</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.285387753344664</v>
+        <v>-0.2615827758205774</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1832055544031959</v>
+        <v>-0.1067514684367624</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1161,19 +1164,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3073241247696459</v>
+        <v>0.6605656356388346</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2614514932174142</v>
+        <v>-0.2811294849327813</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1621274156056836</v>
+        <v>-0.1811148519145985</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1184,19 +1187,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>-3.745922572070168</v>
+        <v>0.3047908047640696</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.04013217749898038</v>
+        <v>-0.2574348452066788</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G30" t="n">
-        <v>0.09645955962841009</v>
+        <v>-0.1607909743949127</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1207,19 +1210,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3421318954379721</v>
+        <v>-3.683592034671397</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.298592624594658</v>
+        <v>-0.03988187695709763</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1170154761718613</v>
+        <v>0.09485451412274047</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1230,19 +1233,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1456532708003029</v>
+        <v>0.4161184039320874</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2881220171865264</v>
+        <v>-0.3003690662688294</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.04155677328315506</v>
+        <v>-0.1423202391512075</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1253,19 +1256,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3893968546761494</v>
+        <v>0.141689076439999</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2762601713787765</v>
+        <v>-0.2835686515353462</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.10027296192062</v>
+        <v>-0.04042573705323494</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1276,19 +1279,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1767429412072895</v>
+        <v>0.3787987839205464</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2668891820136114</v>
+        <v>-0.2720296469381871</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.09374780942257638</v>
+        <v>-0.09754386965254702</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1299,19 +1302,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>1.095085248015992</v>
+        <v>0.1716369710441246</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.4192392030488902</v>
+        <v>-0.2629212611749936</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.2244712264828643</v>
+        <v>-0.09103950597065893</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1322,19 +1325,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>1.025352979515697</v>
+        <v>1.079477132057173</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.360839374225097</v>
+        <v>-0.413033514671421</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.1708990250582586</v>
+        <v>-0.2212718655758386</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1345,19 +1348,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.3414653257019286</v>
+        <v>1.018882170084308</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1385340696247173</v>
+        <v>-0.3561761972278854</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G37" t="n">
-        <v>0.1133299234912893</v>
+        <v>-0.1698205135161313</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1368,19 +1371,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.3901037027327098</v>
+        <v>-0.3321717807652745</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2821471135116304</v>
+        <v>-0.1380519874478386</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.06911952341634622</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1884730356382012</v>
+        <v>0.110245461739664</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1391,19 +1394,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4337562502155502</v>
+        <v>0.3788339539187838</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3115370555571237</v>
+        <v>-0.2777384320408315</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.07575381424012299</v>
+        <v>-0.1830282173630566</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1414,19 +1417,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.7353417457151553</v>
+        <v>0.4763112620228405</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2662546977247719</v>
+        <v>-0.3113736330412911</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1705894962463203</v>
+        <v>-0.08318587881056717</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1437,19 +1440,42 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.728604881291727</v>
+        <v>0.7231059781694449</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.3032022762407328</v>
+        <v>-0.2622418162266632</v>
       </c>
       <c r="E41" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.1677509610564273</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.7182201683972346</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.2986504487926159</v>
+      </c>
+      <c r="E42" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F42" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G41" t="n">
-        <v>-0.164383805269449</v>
+      <c r="G42" t="n">
+        <v>-0.1620408637574446</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1489,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G41"/>
+  <dimension ref="A1:G42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1488,7 +1514,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1499,10 +1525,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.05070084559028867</v>
+        <v>0.02866843528074026</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2682201400285395</v>
+        <v>-0.2618273349924023</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1511,7 +1537,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.02089396372629944</v>
+        <v>-0.01181434431461007</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1522,10 +1548,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.0884348708126074</v>
+        <v>-0.1323772527774157</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2583966829196825</v>
+        <v>-0.2498671840799422</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1534,7 +1560,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03242069764431079</v>
+        <v>0.04853021040054776</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1545,19 +1571,19 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.3176051897879475</v>
+        <v>-0.02025005543748002</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2068872397354408</v>
+        <v>-0.2370253994369486</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.5861330664460952</v>
+        <v>-0.8539629754327032</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.1964237563617732</v>
+        <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.1237736993914612</v>
+        <v>0.01720886320598276</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1568,19 +1594,19 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2106796207444298</v>
+        <v>0.3225406357544566</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2601348014519492</v>
+        <v>-0.200867545056263</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.4953582044065317</v>
+        <v>-0.5861330664460952</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.05315066436964837</v>
+        <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.09316411682529784</v>
+        <v>-0.1256970886340279</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1591,10 +1617,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2106796207444298</v>
+        <v>-0.2250525718729344</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2601348014519492</v>
+        <v>-0.2546718234177938</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4953582044065317</v>
@@ -1603,7 +1629,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09316411682529784</v>
+        <v>0.09951994418690419</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1614,19 +1640,19 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.04587734317236858</v>
+        <v>-0.2250525718729344</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2523339334221427</v>
+        <v>-0.2546718234177938</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.262631449293981</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.002407767627232283</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.01193837114540263</v>
+        <v>0.09951994418690419</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1637,19 +1663,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.02938391791445076</v>
+        <v>-0.1994855560679082</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2317022728513676</v>
+        <v>-0.2038962397440403</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.8539629754327032</v>
+        <v>-0.262631449293981</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.004144896706283483</v>
+        <v>-0.002407767627232283</v>
       </c>
       <c r="G8" t="n">
-        <v>0.02497098466751337</v>
+        <v>0.0519108658393297</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1660,19 +1686,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3305334993973643</v>
+        <v>-0.02025005543748002</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3390352841752542</v>
+        <v>-0.2370253994369486</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.2789982479436891</v>
+        <v>-0.8539629754327032</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.1048565174099811</v>
+        <v>-0.004144896706283483</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.05755967558441934</v>
+        <v>0.01720886320598276</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1683,19 +1709,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.2803040315015613</v>
+        <v>0.3183257474268024</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2510596060033476</v>
+        <v>-0.3311986160446775</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.07643545344396332</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.02965983333152862</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01311139489350096</v>
+        <v>-0.0554337965303394</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1706,19 +1732,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.06727404477767734</v>
+        <v>-0.3438688852153372</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3175485300596852</v>
+        <v>-0.2427238723208803</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.6170223666373371</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.1059357544732321</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.03438286363199942</v>
+        <v>0.01608468034331903</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1729,19 +1755,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.3682001089704523</v>
+        <v>0.07924152941879054</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3315421852634983</v>
+        <v>-0.3217353915458097</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.3615879556093179</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="F12" t="n">
-        <v>0.001565753633372538</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1337132353161826</v>
+        <v>-0.04049928481335192</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1752,19 +1778,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.5840842485062656</v>
+        <v>0.3441887460644044</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2440410977985494</v>
+        <v>-0.3221082341578303</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.4665234793132788</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.07596174772776487</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2281209554884307</v>
+        <v>-0.1249934198128789</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1775,19 +1801,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.4991533279507119</v>
+        <v>0.5447718854986365</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3462791881794474</v>
+        <v>-0.2403577817225462</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.2057813985096446</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.008197472169668612</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.09862467438216733</v>
+        <v>-0.2127670509194528</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1798,19 +1824,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.948780975564057</v>
+        <v>0.4271895129189104</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2426436058471388</v>
+        <v>-0.3294880845791489</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.1125772802437477</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="F15" t="n">
-        <v>0.02528713280488728</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.13080313230785</v>
+        <v>-0.08440578125378019</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1821,19 +1847,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.6731555101272375</v>
+        <v>0.9347538820671931</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2052358541190039</v>
+        <v>-0.2378657811515101</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1301797247799175</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.009297595581204967</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="G16" t="n">
-        <v>0.08137247134602597</v>
+        <v>-0.1288692952961266</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1844,19 +1870,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2069866966006921</v>
+        <v>-0.5812755176826736</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2581944944504957</v>
+        <v>-0.2083181092539295</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.4546486151150617</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.01230605687093749</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.09155902489685051</v>
+        <v>0.07026582222856548</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1867,19 +1893,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2008869330633231</v>
+        <v>0.192476823420405</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2673210916957272</v>
+        <v>-0.2535783531038847</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.3364825360131138</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.04533777917674435</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="G18" t="n">
-        <v>0.05848717727832524</v>
+        <v>-0.0851406904744845</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1890,19 +1916,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.4070642073289931</v>
+        <v>-0.2047211957248659</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1946147743149712</v>
+        <v>-0.2622477751162849</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.1743198450688082</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="F19" t="n">
-        <v>0.04890928667035862</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="G19" t="n">
-        <v>0.09086858956414334</v>
+        <v>0.05960350274856687</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1913,19 +1939,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.0482508421611634</v>
+        <v>-0.3584925581637922</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2852257926932002</v>
+        <v>-0.1979335283385212</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1878356237037364</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="F20" t="n">
-        <v>0.01909356722982552</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.009984507730272539</v>
+        <v>0.0800259824938561</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1936,19 +1962,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.2453463412574255</v>
+        <v>0.01883238996840779</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2518712585284888</v>
+        <v>-0.2679486232239351</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.2097093588016761</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="F21" t="n">
-        <v>-0.04443465492510944</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="G21" t="n">
-        <v>0.04054954389852006</v>
+        <v>-0.003896971219507951</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1959,19 +1985,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3401582436861433</v>
+        <v>-0.1755129054102278</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3483261677989637</v>
+        <v>-0.2505736191119258</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1603577126094715</v>
+        <v>0.02900784346819126</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1982,19 +2008,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.5972225900407235</v>
+        <v>0.333878822725671</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2534822232896506</v>
+        <v>-0.3416805992311634</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1719959448340643</v>
+        <v>-0.157397462195366</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2005,19 +2031,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3530212665966147</v>
+        <v>0.5977294745355402</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3214634104624542</v>
+        <v>-0.2483598203924171</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F24" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1930094170909475</v>
+        <v>-0.1721419240368968</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2028,19 +2054,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3946604256376857</v>
+        <v>0.3222711669664335</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2767715166720688</v>
+        <v>-0.3114565789249468</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1316957798440928</v>
+        <v>-0.1761972321981557</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2051,19 +2077,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5137443227653807</v>
+        <v>0.3793935431333822</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2365484550441286</v>
+        <v>-0.271214343548977</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.259571260844915</v>
+        <v>-0.126601314155156</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2074,19 +2100,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3794672239638895</v>
+        <v>0.4856913191622816</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3297629391042508</v>
+        <v>-0.2330045999720311</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.09652945848026213</v>
+        <v>-0.245397374744243</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2097,19 +2123,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04901298255914133</v>
+        <v>0.3589709627718327</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.26403125726455</v>
+        <v>-0.3211672684067938</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.01343845122900881</v>
+        <v>-0.09131558790384697</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2120,19 +2146,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1850345335974455</v>
+        <v>0.07033691095575501</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2753990384089926</v>
+        <v>-0.2583783301061945</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.097614109378633</v>
+        <v>-0.01928507709845047</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2143,19 +2169,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>6.132574713650087</v>
+        <v>0.1739053401120477</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.4273996644263079</v>
+        <v>-0.2696776370216096</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1579171605621564</v>
+        <v>-0.09174295501053514</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2166,19 +2192,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.10558973327505</v>
+        <v>5.557121551729171</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2855169984789393</v>
+        <v>-0.4070740968643229</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.03611365406964768</v>
+        <v>-0.1430989261972662</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2189,19 +2215,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3295973771083137</v>
+        <v>0.1452011683454493</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.4712344968965392</v>
+        <v>-0.2879987825326241</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.09403842014637594</v>
+        <v>-0.04966150213181084</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2212,19 +2238,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4297799123710926</v>
+        <v>0.3072692618639868</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3175589741135642</v>
+        <v>-0.4521695723775835</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1106719385889112</v>
+        <v>-0.08766791835159769</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2235,19 +2261,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.06903995920129058</v>
+        <v>0.4137236529573565</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2408834844182671</v>
+        <v>-0.3104932387294451</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0366201042798879</v>
+        <v>-0.1065373168798577</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2258,19 +2284,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.5484179678399793</v>
+        <v>-0.07146048109399977</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3321363299068931</v>
+        <v>-0.2349159762315927</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1124150417415563</v>
+        <v>0.03790399501719739</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2281,19 +2307,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.687038199004341</v>
+        <v>0.5900930106772948</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1440111815554563</v>
+        <v>-0.3321049213086225</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.1145109642565058</v>
+        <v>-0.1209576168482584</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2304,19 +2330,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.159844597418635</v>
+        <v>0.6723914805054129</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2609880507235462</v>
+        <v>-0.1414839375218493</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G37" t="n">
-        <v>0.05305128993320662</v>
+        <v>-0.1120697464887943</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2327,19 +2353,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2816244778822631</v>
+        <v>-0.1458141421965156</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2813721828621077</v>
+        <v>-0.2562518283264067</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.06911952341634622</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1360628465832888</v>
+        <v>0.04839468120257739</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2350,19 +2376,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2926017065524083</v>
+        <v>0.2473657747556107</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3437224444021341</v>
+        <v>-0.2743014558114389</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.0511017312453691</v>
+        <v>-0.1195112431760989</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2373,19 +2399,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6791908753643293</v>
+        <v>0.3489941701150292</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2827614497647341</v>
+        <v>-0.3537293040506974</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1575632417969363</v>
+        <v>-0.06095045205836671</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2396,19 +2422,42 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>1.022266682089163</v>
+        <v>0.5172388267560548</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1353913288494478</v>
+        <v>-0.2734791194209441</v>
       </c>
       <c r="E41" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F41" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G41" t="n">
+        <v>-0.1199925224013222</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>46</v>
+      </c>
+      <c r="C42" t="n">
+        <v>1.020148013310932</v>
+      </c>
+      <c r="D42" t="n">
+        <v>-0.1305481176072429</v>
+      </c>
+      <c r="E42" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F41" t="n">
+      <c r="F42" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G41" t="n">
-        <v>-0.2306381572740347</v>
+      <c r="G42" t="n">
+        <v>-0.2301601549372211</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
   <si>
     <t>Ticker</t>
   </si>
@@ -45,6 +45,9 @@
   </si>
   <si>
     <t>ALPHA:GA</t>
+  </si>
+  <si>
+    <t>BARCL:LN</t>
   </si>
   <si>
     <t>BBVA:SM</t>
@@ -507,7 +510,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -543,10 +546,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.411862069979672</v>
+        <v>0.4409915545533801</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2979616111524293</v>
+        <v>-0.3096629807104319</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -555,7 +558,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1697295390284805</v>
+        <v>-0.1817338830776345</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -566,10 +569,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.051425955466162</v>
+        <v>0.9533940063883531</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5591719625208053</v>
+        <v>-0.5414954994186643</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -578,7 +581,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3854583908397524</v>
+        <v>-0.3495193528637843</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -589,10 +592,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05057568506482162</v>
+        <v>0.04992925034202565</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3097856654935229</v>
+        <v>-0.3187774885099565</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -601,7 +604,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04298013151205918</v>
+        <v>-0.04243077959791067</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -612,10 +615,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.275609665113663</v>
+        <v>0.2869730993356343</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2868887198098111</v>
+        <v>-0.2972298854190601</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -624,7 +627,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1074076524440166</v>
+        <v>-0.1118360885548496</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -635,19 +638,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.5987676466205319</v>
+        <v>0.3777659592660206</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3933678330819938</v>
+        <v>-0.2979071326377972</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4953582044065317</v>
+        <v>-0.4367629114829378</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05315066436964837</v>
+        <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.2647795680657393</v>
+        <v>-0.145279186348446</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -658,10 +661,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5987676466205319</v>
+        <v>0.5917810359322363</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.3933678330819938</v>
+        <v>-0.4014316617874545</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -670,7 +673,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2647795680657393</v>
+        <v>-0.2616900361400727</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -681,19 +684,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.4834006790993338</v>
+        <v>0.5917810359322363</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2595373151941731</v>
+        <v>-0.4014316617874545</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.262631449293981</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002407767627232283</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.1257923044354352</v>
+        <v>-0.2616900361400727</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -704,19 +707,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.05057568506482162</v>
+        <v>0.4576783018979179</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.3097856654935229</v>
+        <v>-0.2694862359382508</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8539629754327032</v>
+        <v>-0.262631449293981</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.004144896706283483</v>
+        <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.04298013151205918</v>
+        <v>-0.1190987327388619</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -727,19 +730,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3477501051725454</v>
+        <v>0.04992925034202565</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.263516611901722</v>
+        <v>-0.3187774885099565</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2789982479436891</v>
+        <v>-0.8539629754327032</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1048565174099811</v>
+        <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.060557805108026</v>
+        <v>-0.04243077959791067</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -750,19 +753,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>1.430009381008241</v>
+        <v>0.372345197091732</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3033426558286203</v>
+        <v>-0.2727818165594061</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07643545344396332</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02965983333152862</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0668895755632594</v>
+        <v>-0.06484083697746879</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -773,19 +776,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.2182605703336354</v>
+        <v>1.296679392433293</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3741667493825774</v>
+        <v>-0.3095189852559813</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6170223666373371</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1059357544732321</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.1115500554608231</v>
+        <v>-0.06065298266808237</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -796,19 +799,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.6774241567079006</v>
+        <v>0.206646629301325</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3740538129099692</v>
+        <v>-0.3780160789318928</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3615879556093179</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001565753633372538</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.2460090952390757</v>
+        <v>-0.1056143256847459</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -819,19 +822,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.467392853055394</v>
+        <v>0.5729417762415319</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.266076425060804</v>
+        <v>-0.3536447362295476</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4665234793132788</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.07596174772776487</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1825457620200084</v>
+        <v>-0.2080659312222078</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -842,19 +845,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9414343914807709</v>
+        <v>0.461939167317447</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.433717006053625</v>
+        <v>-0.2756255307535358</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2057813985096446</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.008197472169668612</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1860123034602567</v>
+        <v>-0.1804157610746726</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -865,19 +868,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>1.09005330621481</v>
+        <v>0.8913393867130798</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.264558572376114</v>
+        <v>-0.4343975847505807</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1125772802437477</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02528713280488728</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1502795592530287</v>
+        <v>-0.1761143357282365</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -888,19 +891,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.7554317397273778</v>
+        <v>1.117144054594707</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.07122140848358323</v>
+        <v>-0.274024364988698</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1301797247799175</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.009297595581204967</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>0.09131819716253307</v>
+        <v>-0.1540144093774715</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -911,19 +914,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>0.3814087896894795</v>
+        <v>-0.808860652626885</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.3286825503402882</v>
+        <v>-0.06688627843240305</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4546486151150617</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01230605687093749</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.1687133397680395</v>
+        <v>0.09777679791459806</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -934,19 +937,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.6714405761937899</v>
+        <v>0.4083844285856145</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3861455938998912</v>
+        <v>-0.3425566996286451</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3364825360131138</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.04533777917674435</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1954864032860128</v>
+        <v>-0.1806458128876255</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -957,19 +960,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.6866185208946721</v>
+        <v>0.6868067846664564</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.07204786327280836</v>
+        <v>-0.3983994394766722</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1743198450688082</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04890928667035862</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.1532732562553487</v>
+        <v>-0.1999601943152842</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -980,19 +983,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3959650776496594</v>
+        <v>-0.7351805416400268</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.3403341781143907</v>
+        <v>-0.06777118338994034</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1878356237037364</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01909356722982552</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.08193673315598902</v>
+        <v>0.1641137139818336</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1003,19 +1006,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.2862277046257434</v>
+        <v>0.4239702733773645</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1199547590133496</v>
+        <v>-0.3550324173112465</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2097093588016761</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.04443465492510944</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>0.04730619912328912</v>
+        <v>-0.08773182564985908</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1026,19 +1029,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.397175303317526</v>
+        <v>-0.2709971539581087</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3293493312406048</v>
+        <v>-0.1373310495424816</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.1872367473878923</v>
+        <v>0.04478897437181876</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1049,19 +1052,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.7204057643359473</v>
+        <v>0.3760410907215236</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2830716012383139</v>
+        <v>-0.3355834642157051</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.2074718407627859</v>
+        <v>-0.177273637415981</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1072,19 +1075,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3045945381628677</v>
+        <v>0.7579972183920898</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2615853149725271</v>
+        <v>-0.3074931457312348</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1665327837800728</v>
+        <v>-0.218297917615692</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1095,19 +1098,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3155709552622812</v>
+        <v>0.3010404335031888</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2639181565846123</v>
+        <v>-0.2711868241802286</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1053041053768199</v>
+        <v>-0.1645896269973153</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1118,19 +1121,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4692350856342293</v>
+        <v>0.3118887736299416</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3321481150861698</v>
+        <v>-0.2734924452420639</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2370828005555844</v>
+        <v>-0.1040753837972112</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1141,19 +1144,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4196509958672359</v>
+        <v>0.4885817259462064</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2615827758205774</v>
+        <v>-0.3443553317952122</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1067514684367624</v>
+        <v>-0.2468577636965131</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1164,19 +1167,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.6605656356388346</v>
+        <v>0.4493313665175614</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2811294849327813</v>
+        <v>-0.2707112055070634</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1811148519145985</v>
+        <v>-0.1143016069610899</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1187,19 +1190,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3047908047640696</v>
+        <v>0.598976417050288</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2574348452066788</v>
+        <v>-0.2893769132995531</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1607909743949127</v>
+        <v>-0.1642282299010075</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1210,19 +1213,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>-3.683592034671397</v>
+        <v>0.3118731964903272</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.03988187695709763</v>
+        <v>-0.2667395608853629</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G31" t="n">
-        <v>0.09485451412274047</v>
+        <v>-0.1645272572778327</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1233,19 +1236,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.4161184039320874</v>
+        <v>-4.511494707655874</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3003690662688294</v>
+        <v>0.001702318991109342</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1423202391512075</v>
+        <v>0.1161734617824441</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1256,19 +1259,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.141689076439999</v>
+        <v>0.4108021208118122</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2835686515353462</v>
+        <v>-0.3094814349098682</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.04042573705323494</v>
+        <v>-0.1405019713747201</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1279,19 +1282,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.3787987839205464</v>
+        <v>0.1341496091298079</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2720296469381871</v>
+        <v>-0.2922388291585645</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.09754386965254702</v>
+        <v>-0.03827462893212077</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1302,19 +1305,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1716369710441246</v>
+        <v>0.3586424038970396</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2629212611749936</v>
+        <v>-0.2813138334954917</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.09103950597065893</v>
+        <v>-0.09235343243590446</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1325,19 +1328,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>1.079477132057173</v>
+        <v>0.1696342781672071</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.413033514671421</v>
+        <v>-0.2725072078325331</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.2212718655758386</v>
+        <v>-0.08997723967094282</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1348,19 +1351,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>1.018882170084308</v>
+        <v>1.123984165665379</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3561761972278854</v>
+        <v>-0.4285756532484287</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1698205135161313</v>
+        <v>-0.2303949438377807</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1371,19 +1374,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.3321717807652745</v>
+        <v>1.077735543625857</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1380519874478386</v>
+        <v>-0.3708430373876854</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G38" t="n">
-        <v>0.110245461739664</v>
+        <v>-0.1796298029614021</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1394,19 +1397,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.3788339539187838</v>
+        <v>-0.3144964672266017</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2777384320408315</v>
+        <v>-0.1544653042501963</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.06911952341634622</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1830282173630566</v>
+        <v>0.1043791503450748</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1417,19 +1420,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4763112620228405</v>
+        <v>0.3744136004688607</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3113736330412911</v>
+        <v>-0.2871514616127018</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.08318587881056717</v>
+        <v>-0.1808925866898158</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1440,19 +1443,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.7231059781694449</v>
+        <v>0.4509660999950495</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2622418162266632</v>
+        <v>-0.3185642709761078</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1677509610564273</v>
+        <v>-0.07875944646478546</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1463,19 +1466,42 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7182201683972346</v>
+        <v>0.7520556431992462</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2986504487926159</v>
+        <v>-0.2715728755468801</v>
       </c>
       <c r="E42" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.17446689796972</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.7478325038608082</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.3094765509069315</v>
+      </c>
+      <c r="E43" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F43" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G42" t="n">
-        <v>-0.1620408637574446</v>
+      <c r="G43" t="n">
+        <v>-0.168721835174748</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1515,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G42"/>
+  <dimension ref="A1:G43"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1514,7 +1540,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1525,10 +1551,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.02866843528074026</v>
+        <v>0.01425057803572313</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2618273349924023</v>
+        <v>-0.2748198738390686</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1537,7 +1563,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01181434431461007</v>
+        <v>-0.005872704036601519</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1548,10 +1574,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1323772527774157</v>
+        <v>-0.1396009695680103</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2498671840799422</v>
+        <v>-0.2631358744574042</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1560,7 +1586,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.04853021040054776</v>
+        <v>0.05117846369457089</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1571,10 +1597,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02025005543748002</v>
+        <v>-0.02170707909435516</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2370253994369486</v>
+        <v>-0.2491911668370347</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -1583,7 +1609,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01720886320598276</v>
+        <v>0.01844706825072733</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1594,10 +1620,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3225406357544566</v>
+        <v>0.3432427222113958</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.200867545056263</v>
+        <v>-0.210892241258584</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -1606,7 +1632,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1256970886340279</v>
+        <v>-0.1337648844644677</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1617,19 +1643,19 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.2250525718729344</v>
+        <v>0.3234428111262422</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2546718234177938</v>
+        <v>-0.2736584897444477</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.4953582044065317</v>
+        <v>-0.4367629114829378</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.05315066436964837</v>
+        <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.09951994418690419</v>
+        <v>-0.1243878842920963</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1640,10 +1666,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.2250525718729344</v>
+        <v>-0.1403065404591871</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2546718234177938</v>
+        <v>-0.270569366765792</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -1652,7 +1678,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.09951994418690419</v>
+        <v>0.06204461010754258</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1663,19 +1689,19 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1994855560679082</v>
+        <v>-0.1403065404591871</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2038962397440403</v>
+        <v>-0.270569366765792</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.262631449293981</v>
+        <v>-0.4953582044065317</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.002407767627232283</v>
+        <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0519108658393297</v>
+        <v>0.06204461010754258</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1686,19 +1712,19 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.02025005543748002</v>
+        <v>-0.1840471313516856</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2370253994369486</v>
+        <v>-0.2220810879947885</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.8539629754327032</v>
+        <v>-0.262631449293981</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.004144896706283483</v>
+        <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.01720886320598276</v>
+        <v>0.04789342212053933</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1709,19 +1735,19 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.3183257474268024</v>
+        <v>-0.02170707909435516</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3311986160446775</v>
+        <v>-0.2491911668370347</v>
       </c>
       <c r="E10" t="n">
-        <v>-0.2789982479436891</v>
+        <v>-0.8539629754327032</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.1048565174099811</v>
+        <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.0554337965303394</v>
+        <v>0.01844706825072733</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1732,19 +1758,19 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.3438688852153372</v>
+        <v>0.3480830413110473</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2427238723208803</v>
+        <v>-0.351669662421576</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.07643545344396332</v>
+        <v>-0.2789982479436891</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.02965983333152862</v>
+        <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>0.01608468034331903</v>
+        <v>-0.06061578318334193</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1755,19 +1781,19 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.07924152941879054</v>
+        <v>-0.5345431537342582</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3217353915458097</v>
+        <v>-0.2468853158014987</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.6170223666373371</v>
+        <v>-0.07643545344396332</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.1059357544732321</v>
+        <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.04049928481335192</v>
+        <v>0.02500358749277645</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1778,19 +1804,19 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3441887460644044</v>
+        <v>0.05487240306475685</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3221082341578303</v>
+        <v>-0.3166299497810253</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3615879556093179</v>
+        <v>-0.6170223666373371</v>
       </c>
       <c r="F13" t="n">
-        <v>0.001565753633372538</v>
+        <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1249934198128789</v>
+        <v>-0.02804455058366983</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1801,19 +1827,19 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5447718854986365</v>
+        <v>0.3691317258735358</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2403577817225462</v>
+        <v>-0.3404278925444745</v>
       </c>
       <c r="E14" t="n">
-        <v>-0.4665234793132788</v>
+        <v>-0.3615879556093179</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.07596174772776487</v>
+        <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2127670509194528</v>
+        <v>-0.1340515554501305</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1824,19 +1850,19 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4271895129189104</v>
+        <v>0.6254828748578527</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3294880845791489</v>
+        <v>-0.2512542143959018</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.2057813985096446</v>
+        <v>-0.4665234793132788</v>
       </c>
       <c r="F15" t="n">
-        <v>-0.008197472169668612</v>
+        <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.08440578125378019</v>
+        <v>-0.2442896746815683</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1847,19 +1873,19 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9347538820671931</v>
+        <v>0.4162224456825945</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2378657811515101</v>
+        <v>-0.341538715097484</v>
       </c>
       <c r="E16" t="n">
-        <v>-0.1125772802437477</v>
+        <v>-0.2057813985096446</v>
       </c>
       <c r="F16" t="n">
-        <v>0.02528713280488728</v>
+        <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1288692952961266</v>
+        <v>-0.08223886504879441</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1870,19 +1896,19 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.5812755176826736</v>
+        <v>0.9481998462643273</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2083181092539295</v>
+        <v>-0.251375502005538</v>
       </c>
       <c r="E17" t="n">
-        <v>-0.1301797247799175</v>
+        <v>-0.1125772802437477</v>
       </c>
       <c r="F17" t="n">
-        <v>-0.009297595581204967</v>
+        <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>0.07026582222856548</v>
+        <v>-0.1307230152580374</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1893,19 +1919,19 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>0.192476823420405</v>
+        <v>-0.7089126095373415</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2535783531038847</v>
+        <v>-0.2107647628057156</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.4546486151150617</v>
+        <v>-0.1301797247799175</v>
       </c>
       <c r="F18" t="n">
-        <v>-0.01230605687093749</v>
+        <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.0851406904744845</v>
+        <v>0.08569486565668938</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1916,19 +1942,19 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.2047211957248659</v>
+        <v>0.2224414720787243</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2622477751162849</v>
+        <v>-0.2663839592454106</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.3364825360131138</v>
+        <v>-0.4546486151150617</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.04533777917674435</v>
+        <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>0.05960350274856687</v>
+        <v>-0.09839532981889182</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1939,19 +1965,19 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3584925581637922</v>
+        <v>-0.2761040847662938</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1979335283385212</v>
+        <v>-0.2768057339493945</v>
       </c>
       <c r="E20" t="n">
-        <v>-0.1743198450688082</v>
+        <v>-0.3364825360131138</v>
       </c>
       <c r="F20" t="n">
-        <v>0.04890928667035862</v>
+        <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.0800259824938561</v>
+        <v>0.08038625662081095</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1962,19 +1988,19 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>0.01883238996840779</v>
+        <v>-0.3966390959248318</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2679486232239351</v>
+        <v>-0.2051424180243077</v>
       </c>
       <c r="E21" t="n">
-        <v>-0.1878356237037364</v>
+        <v>-0.1743198450688082</v>
       </c>
       <c r="F21" t="n">
-        <v>0.01909356722982552</v>
+        <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>-0.003896971219507951</v>
+        <v>0.08854140099710832</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1985,19 +2011,19 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>-0.1755129054102278</v>
+        <v>0.04868248768550111</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2505736191119258</v>
+        <v>-0.2941223169260315</v>
       </c>
       <c r="E22" t="n">
-        <v>-0.2097093588016761</v>
+        <v>-0.1878356237037364</v>
       </c>
       <c r="F22" t="n">
-        <v>-0.04443465492510944</v>
+        <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>0.02900784346819126</v>
+        <v>-0.01007382778939383</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2008,19 +2034,19 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.333878822725671</v>
+        <v>-0.1954218199887199</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.3416805992311634</v>
+        <v>-0.2633164952326887</v>
       </c>
       <c r="E23" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.2097093588016761</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.157397462195366</v>
+        <v>0.03229828342965539</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2031,19 +2057,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.5977294745355402</v>
+        <v>0.3806768687846389</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2483598203924171</v>
+        <v>-0.3669371664933037</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1721419240368968</v>
+        <v>-0.1794590401812077</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2054,19 +2080,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3222711669664335</v>
+        <v>0.6342240515861892</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3114565789249468</v>
+        <v>-0.2614697089369332</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F25" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1761972321981557</v>
+        <v>-0.1826521079546183</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2077,19 +2103,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3793935431333822</v>
+        <v>0.4217165859653823</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.271214343548977</v>
+        <v>-0.3411155525767993</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.126601314155156</v>
+        <v>-0.2305676176947449</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2100,19 +2126,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4856913191622816</v>
+        <v>0.4295816116265928</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2330045999720311</v>
+        <v>-0.2865069290260532</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.245397374744243</v>
+        <v>-0.1433487668758145</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2123,19 +2149,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3589709627718327</v>
+        <v>0.544999974895547</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3211672684067938</v>
+        <v>-0.2435188791654462</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.09131558790384697</v>
+        <v>-0.2753632972187406</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2146,19 +2172,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.07033691095575501</v>
+        <v>0.4002248316575928</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2583783301061945</v>
+        <v>-0.342008664976837</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.01928507709845047</v>
+        <v>-0.101809810783389</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2169,19 +2195,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1739053401120477</v>
+        <v>-0.1738556820342337</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2696776370216096</v>
+        <v>-0.2783987048543583</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.09174295501053514</v>
+        <v>0.04766800512668176</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2192,19 +2218,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>5.557121551729171</v>
+        <v>0.1779374415573103</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.4070740968643229</v>
+        <v>-0.2837287100093517</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1430989261972662</v>
+        <v>-0.09387007141335697</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2215,19 +2241,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1452011683454493</v>
+        <v>5.224821764513285</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2879987825326241</v>
+        <v>-0.412119565465656</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.04966150213181084</v>
+        <v>-0.1345420245201062</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2238,19 +2264,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.3072692618639868</v>
+        <v>0.2109099332568018</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.4521695723775835</v>
+        <v>-0.3144266895332103</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.08766791835159769</v>
+        <v>-0.07213512273629724</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2261,19 +2287,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4137236529573565</v>
+        <v>0.2992986687883128</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3104932387294451</v>
+        <v>-0.4610192896355619</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1065373168798577</v>
+        <v>-0.08539380444012776</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2284,19 +2310,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.07146048109399977</v>
+        <v>0.4604346664745922</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2349159762315927</v>
+        <v>-0.3300063441380096</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G35" t="n">
-        <v>0.03790399501719739</v>
+        <v>-0.1185657953419726</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2307,19 +2333,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5900930106772948</v>
+        <v>-0.08461226391527857</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3321049213086225</v>
+        <v>-0.2441001928128962</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.1209576168482584</v>
+        <v>0.04487995015902291</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2330,19 +2356,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6723914805054129</v>
+        <v>0.6858218312794433</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1414839375218493</v>
+        <v>-0.3576065295830448</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1120697464887943</v>
+        <v>-0.1405801675211431</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2353,19 +2379,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1458141421965156</v>
+        <v>0.6886308231486526</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2562518283264067</v>
+        <v>-0.1524481180485574</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G38" t="n">
-        <v>0.04839468120257739</v>
+        <v>-0.1147764122719547</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2376,19 +2402,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.2473657747556107</v>
+        <v>-0.1882173882657164</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2743014558114389</v>
+        <v>-0.2689453787280561</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.06911952341634622</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.1195112431760989</v>
+        <v>0.06246801829156694</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2399,19 +2425,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3489941701150292</v>
+        <v>0.2740063198125391</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3537293040506974</v>
+        <v>-0.2896547409289706</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.06095045205836671</v>
+        <v>-0.1323822422534285</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2422,19 +2448,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.5172388267560548</v>
+        <v>0.2958211527109025</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2734791194209441</v>
+        <v>-0.3533036379871728</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1199925224013222</v>
+        <v>-0.05166399478883493</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2445,19 +2471,42 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>1.020148013310932</v>
+        <v>0.6153446666378286</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1305481176072429</v>
+        <v>-0.2898355751989803</v>
       </c>
       <c r="E42" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F42" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G42" t="n">
+        <v>-0.1427517712835919</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>47</v>
+      </c>
+      <c r="C43" t="n">
+        <v>1.084890949464729</v>
+      </c>
+      <c r="D43" t="n">
+        <v>-0.1361527452041487</v>
+      </c>
+      <c r="E43" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F42" t="n">
+      <c r="F43" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G42" t="n">
-        <v>-0.2301601549372211</v>
+      <c r="G43" t="n">
+        <v>-0.244767098264872</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
   <si>
     <t>Ticker</t>
   </si>
@@ -99,6 +99,9 @@
   </si>
   <si>
     <t>CVAL:IM</t>
+  </si>
+  <si>
+    <t>DANSKE:DC</t>
   </si>
   <si>
     <t>DEXB:BB</t>
@@ -510,7 +513,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -546,10 +549,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4409915545533801</v>
+        <v>0.5235851607737643</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3096629807104319</v>
+        <v>-0.326318862612836</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -558,7 +561,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.1817338830776345</v>
+        <v>-0.2157709448327448</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -569,10 +572,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9533940063883531</v>
+        <v>0.9656417999101754</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5414954994186643</v>
+        <v>-0.5554072433594175</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -581,7 +584,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3495193528637843</v>
+        <v>-0.3540094596161577</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -592,10 +595,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.04992925034202565</v>
+        <v>0.05065923761407492</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3187774885099565</v>
+        <v>-0.3299024411964352</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -604,7 +607,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04243077959791067</v>
+        <v>-0.04305113597893832</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -615,10 +618,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2869730993356343</v>
+        <v>0.2838072366338433</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.2972298854190601</v>
+        <v>-0.3075172482443194</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -627,7 +630,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1118360885548496</v>
+        <v>-0.110602322385513</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -638,10 +641,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3777659592660206</v>
+        <v>0.4034227495997423</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2979071326377972</v>
+        <v>-0.3098487320321361</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -650,7 +653,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.145279186348446</v>
+        <v>-0.155146135798412</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -661,10 +664,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.5917810359322363</v>
+        <v>0.7707031209160095</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4014316617874545</v>
+        <v>-0.4496075935264296</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -673,7 +676,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.2616900361400727</v>
+        <v>-0.3408107311990172</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -684,10 +687,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.5917810359322363</v>
+        <v>0.7707031209160095</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4014316617874545</v>
+        <v>-0.4496075935264296</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -696,7 +699,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.2616900361400727</v>
+        <v>-0.3408107311990172</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -707,10 +710,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4576783018979179</v>
+        <v>0.4385996173229668</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2694862359382508</v>
+        <v>-0.2803056787004685</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -719,7 +722,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1190987327388619</v>
+        <v>-0.1141340071974095</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -730,10 +733,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.04992925034202565</v>
+        <v>0.05065923761407492</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3187774885099565</v>
+        <v>-0.3299024411964352</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -742,7 +745,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04243077959791067</v>
+        <v>-0.04305113597893832</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -753,10 +756,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.372345197091732</v>
+        <v>0.4640388139681123</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2727818165594061</v>
+        <v>-0.2822897926216069</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -765,7 +768,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06484083697746879</v>
+        <v>-0.08080852209921645</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -776,10 +779,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>1.296679392433293</v>
+        <v>1.313337208438091</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3095189852559813</v>
+        <v>-0.3204506387204311</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -788,7 +791,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06065298266808237</v>
+        <v>-0.06143216234142562</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -799,10 +802,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.206646629301325</v>
+        <v>0.19803238980501</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3780160789318928</v>
+        <v>-0.3843113606676162</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -811,7 +814,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1056143256847459</v>
+        <v>-0.101211703204204</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -822,10 +825,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.5729417762415319</v>
+        <v>0.633603754588242</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3536447362295476</v>
+        <v>-0.3909322271618669</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -834,7 +837,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2080659312222078</v>
+        <v>-0.2300955536688154</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -845,10 +848,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.461939167317447</v>
+        <v>0.7253158804761641</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2756255307535358</v>
+        <v>-0.3759209387286329</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -857,7 +860,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1804157610746726</v>
+        <v>-0.2832806262252423</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -868,10 +871,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8913393867130798</v>
+        <v>0.8541831477217816</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4343975847505807</v>
+        <v>-0.4383425550229118</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -880,7 +883,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1761143357282365</v>
+        <v>-0.1687728601403093</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -891,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>1.117144054594707</v>
+        <v>1.100617713434802</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.274024364988698</v>
+        <v>-0.2845783925788196</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -903,7 +906,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1540144093774715</v>
+        <v>-0.1517360150536197</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -914,10 +917,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.808860652626885</v>
+        <v>-0.8488431542308734</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06688627843240305</v>
+        <v>-0.06702013688258258</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -926,7 +929,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09777679791459806</v>
+        <v>0.1026099678391791</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -937,10 +940,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4083844285856145</v>
+        <v>0.4477913264802749</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3425566996286451</v>
+        <v>-0.3594082292050431</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -949,7 +952,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1806458128876255</v>
+        <v>-0.1980771609148146</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -960,10 +963,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6868067846664564</v>
+        <v>0.6738200559988877</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3983994394766722</v>
+        <v>-0.4066133053283133</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -972,7 +975,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1999601943152842</v>
+        <v>-0.196179176355265</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -983,10 +986,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.7351805416400268</v>
+        <v>-0.916225903844651</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.06777118338994034</v>
+        <v>-0.02679329922736368</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -995,7 +998,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.1641137139818336</v>
+        <v>0.2045283129921748</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1006,10 +1009,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.4239702733773645</v>
+        <v>0.5283771890393688</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3550324173112465</v>
+        <v>-0.3847954340606681</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -1018,7 +1021,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.08773182564985908</v>
+        <v>-0.1093366642356663</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1029,10 +1032,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2709971539581087</v>
+        <v>-0.2597004192196743</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1373310495424816</v>
+        <v>-0.153659487225309</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -1041,7 +1044,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04478897437181876</v>
+        <v>0.04292190988315189</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1052,19 +1055,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3760410907215236</v>
+        <v>0.3917071531748577</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3355834642157051</v>
+        <v>-0.2840516768085958</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.3653683669055505</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.177273637415981</v>
+        <v>-0.1180342455722587</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1075,19 +1078,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.7579972183920898</v>
+        <v>0.3603655187204254</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3074931457312348</v>
+        <v>-0.3436475914969778</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.218297917615692</v>
+        <v>-0.1698838448220949</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1098,19 +1101,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3010404335031888</v>
+        <v>0.8307665587748768</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2711868241802286</v>
+        <v>-0.3383437681220633</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1645896269973153</v>
+        <v>-0.2392549806317371</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1121,19 +1124,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3118887736299416</v>
+        <v>0.3920585028306503</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2734924452420639</v>
+        <v>-0.2799838619509993</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1040753837972112</v>
+        <v>-0.2143524774765483</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1144,19 +1147,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4885817259462064</v>
+        <v>0.4061868022898492</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.3443553317952122</v>
+        <v>-0.2829865817683059</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2468577636965131</v>
+        <v>-0.1355420615165729</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1167,19 +1170,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4493313665175614</v>
+        <v>0.4831917350526272</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2707112055070634</v>
+        <v>-0.354122811153709</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1143016069610899</v>
+        <v>-0.2441344504253163</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1190,19 +1193,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.598976417050288</v>
+        <v>0.5599835463957835</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2893769132995531</v>
+        <v>-0.2797092671582448</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1642282299010075</v>
+        <v>-0.14244947936949</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1213,19 +1216,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3118731964903272</v>
+        <v>0.6066711741119711</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2667395608853629</v>
+        <v>-0.3000498103849653</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1645272572778327</v>
+        <v>-0.1663379896441067</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1236,19 +1239,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>-4.511494707655874</v>
+        <v>0.3058709353570227</v>
       </c>
       <c r="D32" t="n">
-        <v>0.001702318991109342</v>
+        <v>-0.277446425912128</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G32" t="n">
-        <v>0.1161734617824441</v>
+        <v>-0.1613607922758987</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1259,19 +1262,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.4108021208118122</v>
+        <v>-4.817902595533432</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3094814349098682</v>
+        <v>0.01010934172288233</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1405019713747201</v>
+        <v>0.1240636328585127</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1282,19 +1285,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1341496091298079</v>
+        <v>0.4168064883034693</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2922388291585645</v>
+        <v>-0.3204703365461242</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.03827462893212077</v>
+        <v>-0.1425555768131948</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1305,19 +1308,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.3586424038970396</v>
+        <v>0.1285574697431343</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2813138334954917</v>
+        <v>-0.3021098083919642</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.09235343243590446</v>
+        <v>-0.03667911880465914</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1328,19 +1331,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1696342781672071</v>
+        <v>0.3436921054227871</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2725072078325331</v>
+        <v>-0.2916402326414063</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.08997723967094282</v>
+        <v>-0.08850360496141857</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1351,19 +1354,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>1.123984165665379</v>
+        <v>0.2209223719010629</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.4285756532484287</v>
+        <v>-0.2817034676273535</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.2303949438377807</v>
+        <v>-0.1171814176944917</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1374,19 +1377,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>1.077735543625857</v>
+        <v>1.111584467218865</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3708430373876854</v>
+        <v>-0.4374140204610317</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1796298029614021</v>
+        <v>-0.2278532462636883</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1397,19 +1400,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3144964672266017</v>
+        <v>1.035795880594363</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1544653042501963</v>
+        <v>-0.3776977840843846</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G39" t="n">
-        <v>0.1043791503450748</v>
+        <v>-0.172639578456725</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1420,19 +1423,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.3744136004688607</v>
+        <v>-0.301386414096387</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2871514616127018</v>
+        <v>-0.1700794894421045</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.06911952341634622</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1808925866898158</v>
+        <v>0.1000280165508608</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1443,19 +1446,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4509660999950495</v>
+        <v>0.4482973154880475</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.3185642709761078</v>
+        <v>-0.2996944989181378</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.07875944646478546</v>
+        <v>-0.2165884489857834</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1466,19 +1469,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.7520556431992462</v>
+        <v>0.4321672017427188</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2715728755468801</v>
+        <v>-0.3273378527639225</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.17446689796972</v>
+        <v>-0.07547629320666331</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1489,19 +1492,42 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7478325038608082</v>
+        <v>0.7617169326130744</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3094765509069315</v>
+        <v>-0.2820170526664457</v>
       </c>
       <c r="E43" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.1767081885040851</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.7382697130247441</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.3195715167792099</v>
+      </c>
+      <c r="E44" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F44" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G43" t="n">
-        <v>-0.168721835174748</v>
+      <c r="G44" t="n">
+        <v>-0.1665643311736203</v>
       </c>
     </row>
   </sheetData>
@@ -1515,7 +1541,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G43"/>
+  <dimension ref="A1:G44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1540,7 +1566,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1551,10 +1577,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01425057803572313</v>
+        <v>0.03175142544232651</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2748198738390686</v>
+        <v>-0.2528963738915957</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1563,7 +1589,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.005872704036601519</v>
+        <v>-0.01308485339300421</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1574,10 +1600,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.1396009695680103</v>
+        <v>-0.01984037835722521</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2631358744574042</v>
+        <v>-0.249508292024834</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1586,7 +1612,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.05117846369457089</v>
+        <v>0.007273589048728788</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1597,10 +1623,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02170707909435516</v>
+        <v>-0.02430627091223454</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2491911668370347</v>
+        <v>-0.2232810074776068</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -1609,7 +1635,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.01844706825072733</v>
+        <v>0.02065590844763902</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1620,10 +1646,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3432427222113958</v>
+        <v>0.3018615689418092</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.210892241258584</v>
+        <v>-0.1955589187910948</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -1632,7 +1658,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1337648844644677</v>
+        <v>-0.1176382637732834</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1643,10 +1669,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3234428111262422</v>
+        <v>0.3183367623064982</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2736584897444477</v>
+        <v>-0.2507231911796687</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -1655,7 +1681,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1243878842920963</v>
+        <v>-0.1224242276952205</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1666,10 +1692,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1403065404591871</v>
+        <v>0.02497192881123667</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.270569366765792</v>
+        <v>-0.2516602566399836</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -1678,7 +1704,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.06204461010754258</v>
+        <v>-0.01104277520959314</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1689,10 +1715,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1403065404591871</v>
+        <v>0.02497192881123667</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.270569366765792</v>
+        <v>-0.2516602566399836</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -1701,7 +1727,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>0.06204461010754258</v>
+        <v>-0.01104277520959314</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1712,10 +1738,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.1840471313516856</v>
+        <v>0.002625425034241236</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2220810879947885</v>
+        <v>-0.2517916478073021</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -1724,7 +1750,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>0.04789342212053933</v>
+        <v>-0.0006831977683503043</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1735,10 +1761,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02170707909435516</v>
+        <v>-0.02430627091223454</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2491911668370347</v>
+        <v>-0.2232810074776068</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -1747,7 +1773,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.01844706825072733</v>
+        <v>0.02065590844763902</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1758,10 +1784,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3480830413110473</v>
+        <v>0.3640770354081349</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.351669662421576</v>
+        <v>-0.3322983116570646</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -1770,7 +1796,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06061578318334193</v>
+        <v>-0.06340100499355468</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1781,10 +1807,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5345431537342582</v>
+        <v>-0.5693321088902196</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2468853158014987</v>
+        <v>-0.2221806282381618</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -1793,7 +1819,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02500358749277645</v>
+        <v>0.02663086244326022</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1804,10 +1830,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.05487240306475685</v>
+        <v>-0.003803826444531285</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3166299497810253</v>
+        <v>-0.2480954061880353</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -1816,7 +1842,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.02804455058366983</v>
+        <v>0.001944084770795727</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1827,10 +1853,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3691317258735358</v>
+        <v>0.3311924467423615</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3404278925444745</v>
+        <v>-0.3106590365333555</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -1839,7 +1865,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1340515554501305</v>
+        <v>-0.1202737655076508</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1850,10 +1876,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6254828748578527</v>
+        <v>0.5811900788024122</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2512542143959018</v>
+        <v>-0.2299237827135661</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -1862,7 +1888,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2442896746815683</v>
+        <v>-0.2269906035573914</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1873,10 +1899,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.4162224456825945</v>
+        <v>0.2617202574693711</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.341538715097484</v>
+        <v>-0.2935246380633852</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -1885,7 +1911,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.08223886504879441</v>
+        <v>-0.05171171607350775</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1896,10 +1922,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.9481998462643273</v>
+        <v>0.6492612969700435</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.251375502005538</v>
+        <v>-0.235565143148832</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -1908,7 +1934,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1307230152580374</v>
+        <v>-0.08951002762197055</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1919,10 +1945,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7089126095373415</v>
+        <v>-0.867716992447831</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.2107647628057156</v>
+        <v>-0.1736606593590693</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -1931,7 +1957,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.08569486565668938</v>
+        <v>0.104891477588997</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1942,10 +1968,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2224414720787243</v>
+        <v>0.2423993249820365</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2663839592454106</v>
+        <v>-0.2427608197180266</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -1954,7 +1980,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.09839532981889182</v>
+        <v>-0.1072235375292029</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1965,10 +1991,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2761040847662938</v>
+        <v>-0.2896482782505631</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2768057339493945</v>
+        <v>-0.2540032163888991</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -1977,7 +2003,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08038625662081095</v>
+        <v>0.08432957753933326</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -1988,10 +2014,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3966390959248318</v>
+        <v>-0.3968731240494834</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.2051424180243077</v>
+        <v>-0.1821612361583342</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -2000,7 +2026,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08854140099710832</v>
+        <v>0.08859364289217685</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2011,10 +2037,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.04868248768550111</v>
+        <v>0.1138420501973467</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2941223169260315</v>
+        <v>-0.2981257785235619</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -2023,7 +2049,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01007382778939383</v>
+        <v>-0.02355724334155489</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2034,10 +2060,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1954218199887199</v>
+        <v>-0.152541726287961</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2633164952326887</v>
+        <v>-0.2427183254776903</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -2046,7 +2072,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03229828342965539</v>
+        <v>0.02521128864106303</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2057,19 +2083,19 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3806768687846389</v>
+        <v>0.1675222561090844</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.3669371664933037</v>
+        <v>-0.2937111782448149</v>
       </c>
       <c r="E24" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.3653683669055505</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1794590401812077</v>
+        <v>-0.05047996432062007</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2080,19 +2106,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.6342240515861892</v>
+        <v>0.3447582162484611</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2614697089369332</v>
+        <v>-0.3352267661847734</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1826521079546183</v>
+        <v>-0.1625262359125264</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2103,19 +2129,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.4217165859653823</v>
+        <v>0.5129849074318542</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3411155525767993</v>
+        <v>-0.2409228718717478</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F26" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2305676176947449</v>
+        <v>-0.1477360791616078</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2126,19 +2152,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4295816116265928</v>
+        <v>0.4799072142046986</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2865069290260532</v>
+        <v>-0.3274370883484328</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F27" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1433487668758145</v>
+        <v>-0.262382526028469</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2149,19 +2175,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.544999974895547</v>
+        <v>0.4312838284574823</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2435188791654462</v>
+        <v>-0.2636159617292372</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2753632972187406</v>
+        <v>-0.1439167862627229</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2172,19 +2198,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4002248316575928</v>
+        <v>0.5225235268569756</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.342008664976837</v>
+        <v>-0.2218350558773637</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.101809810783389</v>
+        <v>-0.2640069868944091</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2195,19 +2221,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>-0.1738556820342337</v>
+        <v>0.4312417890782342</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2783987048543583</v>
+        <v>-0.3243393412295215</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G30" t="n">
-        <v>0.04766800512668176</v>
+        <v>-0.1096999523145711</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2218,19 +2244,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.1779374415573103</v>
+        <v>-0.2579899890958395</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2837287100093517</v>
+        <v>-0.2575908342928993</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.09387007141335697</v>
+        <v>0.07073607246515815</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2241,19 +2267,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>5.224821764513285</v>
+        <v>0.1613239400698864</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.412119565465656</v>
+        <v>-0.2598790351861195</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1345420245201062</v>
+        <v>-0.08510569581369933</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2264,19 +2290,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2109099332568018</v>
+        <v>3.408539329069575</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3144266895332103</v>
+        <v>-0.3411622090304309</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.07213512273629724</v>
+        <v>-0.0877717561782024</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2287,19 +2313,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2992986687883128</v>
+        <v>0.1932488605603138</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.4610192896355619</v>
+        <v>-0.2881002056331479</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.08539380444012776</v>
+        <v>-0.06609470715727073</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2310,19 +2336,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4604346664745922</v>
+        <v>0.2280794828664093</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3300063441380096</v>
+        <v>-0.3935748495369171</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1185657953419726</v>
+        <v>-0.06507404404954091</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2333,19 +2359,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>-0.08461226391527857</v>
+        <v>0.3768933388552169</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2441001928128962</v>
+        <v>-0.2969024814165206</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G36" t="n">
-        <v>0.04487995015902291</v>
+        <v>-0.09705320153804331</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2356,19 +2382,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.6858218312794433</v>
+        <v>-0.0269389624277287</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3576065295830448</v>
+        <v>-0.2415342468580728</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1405801675211431</v>
+        <v>0.01428893679411337</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2379,19 +2405,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.6886308231486526</v>
+        <v>0.5629976605336169</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1524481180485574</v>
+        <v>-0.3196913502369411</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1147764122719547</v>
+        <v>-0.1154035958350512</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2402,19 +2428,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.1882173882657164</v>
+        <v>0.5504760772214792</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2689453787280561</v>
+        <v>-0.1538919210823591</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G39" t="n">
-        <v>0.06246801829156694</v>
+        <v>-0.09174969673319726</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2425,19 +2451,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.2740063198125391</v>
+        <v>-0.1631266573558226</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2896547409289706</v>
+        <v>-0.2466775312689515</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.06911952341634622</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1323822422534285</v>
+        <v>0.0541405823842357</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2448,19 +2474,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2958211527109025</v>
+        <v>0.275147808327694</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.3533036379871728</v>
+        <v>-0.266779433026859</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.05166399478883493</v>
+        <v>-0.1329337361359277</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2471,19 +2497,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.6153446666378286</v>
+        <v>0.1712401396003998</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2898355751989803</v>
+        <v>-0.2969619479882908</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.2115796612337968</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.03693361474460386</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.1427517712835919</v>
+        <v>-0.02990641338146732</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2494,19 +2520,42 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>1.084890949464729</v>
+        <v>0.5669154349826261</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1361527452041487</v>
+        <v>-0.265648062290556</v>
       </c>
       <c r="E43" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F43" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G43" t="n">
+        <v>-0.1315168342222904</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.9268542433056836</v>
+      </c>
+      <c r="D44" t="n">
+        <v>-0.1332912689457494</v>
+      </c>
+      <c r="E44" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F43" t="n">
+      <c r="F44" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G43" t="n">
-        <v>-0.244767098264872</v>
+      <c r="G44" t="n">
+        <v>-0.209111730317547</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
   <si>
     <t>Ticker</t>
   </si>
@@ -104,6 +104,9 @@
     <t>DANSKE:DC</t>
   </si>
   <si>
+    <t>DBK:GR</t>
+  </si>
+  <si>
     <t>DEXB:BB</t>
   </si>
   <si>
@@ -147,6 +150,9 @@
   </si>
   <si>
     <t>SAN:SM</t>
+  </si>
+  <si>
+    <t>STAN:LN</t>
   </si>
   <si>
     <t>TATT:GA</t>
@@ -513,7 +519,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -549,10 +555,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5235851607737643</v>
+        <v>0.5133173762964544</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.326318862612836</v>
+        <v>-0.3356400353715208</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -561,7 +567,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2157709448327448</v>
+        <v>-0.2115395614323175</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -572,10 +578,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.9656417999101754</v>
+        <v>1.077030089836462</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5554072433594175</v>
+        <v>-0.5964105563763231</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -584,7 +590,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.3540094596161577</v>
+        <v>-0.394845003736183</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -595,10 +601,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05065923761407492</v>
+        <v>0.05207771252674191</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3299024411964352</v>
+        <v>-0.3411782799140372</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -607,7 +613,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04305113597893832</v>
+        <v>-0.04425658160394261</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -618,10 +624,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2838072366338433</v>
+        <v>0.2825328020969609</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3075172482443194</v>
+        <v>-0.3175117370389861</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -630,7 +636,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.110602322385513</v>
+        <v>-0.1101056633813969</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -641,10 +647,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4034227495997423</v>
+        <v>0.4246324426549627</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3098487320321361</v>
+        <v>-0.3211154182882906</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -653,7 +659,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.155146135798412</v>
+        <v>-0.1633028446658535</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -664,10 +670,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7707031209160095</v>
+        <v>0.933088931014157</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4496075935264296</v>
+        <v>-0.4938754348262123</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -676,7 +682,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3408107311990172</v>
+        <v>-0.4126189608194155</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -687,10 +693,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.7707031209160095</v>
+        <v>0.933088931014157</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4496075935264296</v>
+        <v>-0.4938754348262123</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -699,7 +705,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3408107311990172</v>
+        <v>-0.4126189608194155</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -710,10 +716,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4385996173229668</v>
+        <v>0.4804300045473515</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2803056787004685</v>
+        <v>-0.2897167547079636</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -722,7 +728,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1141340071974095</v>
+        <v>-0.1250192645664847</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -733,10 +739,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05065923761407492</v>
+        <v>0.05207771252674191</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3299024411964352</v>
+        <v>-0.3411782799140372</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -745,7 +751,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04305113597893832</v>
+        <v>-0.04425658160394261</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -756,10 +762,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4640388139681123</v>
+        <v>0.5360802223682858</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2822897926216069</v>
+        <v>-0.2915858391530846</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -768,7 +774,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08080852209921645</v>
+        <v>-0.09335393762810827</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -779,10 +785,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>1.313337208438091</v>
+        <v>1.464832711312148</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3204506387204311</v>
+        <v>-0.3343513408556866</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -791,7 +797,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06143216234142562</v>
+        <v>-0.06851845843260476</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -802,10 +808,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.19803238980501</v>
+        <v>0.2169192775443556</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3843113606676162</v>
+        <v>-0.4036417477713113</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -814,7 +820,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.101211703204204</v>
+        <v>-0.1108645386732299</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -825,10 +831,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.633603754588242</v>
+        <v>0.7254049258418889</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3909322271618669</v>
+        <v>-0.4220174882741489</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -837,7 +843,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2300955536688154</v>
+        <v>-0.2634334895224007</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -848,10 +854,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.7253158804761641</v>
+        <v>0.6497966055671789</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3759209387286329</v>
+        <v>-0.3322345087728632</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -860,7 +866,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2832806262252423</v>
+        <v>-0.2537856874487066</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -871,10 +877,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.8541831477217816</v>
+        <v>0.9356489248173061</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4383425550229118</v>
+        <v>-0.4628260457503449</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -883,7 +889,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1687728601403093</v>
+        <v>-0.1848691882411803</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -894,10 +900,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>1.100617713434802</v>
+        <v>1.079034011572025</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2845783925788196</v>
+        <v>-0.2947181180620204</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -906,7 +912,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1517360150536197</v>
+        <v>-0.1487603906648913</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -917,10 +923,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.8488431542308734</v>
+        <v>-0.9297989641881432</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.06702013688258258</v>
+        <v>-0.05608968429299882</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -929,7 +935,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1026099678391791</v>
+        <v>0.1123960785178202</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -940,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4477913264802749</v>
+        <v>0.4553255687141656</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3594082292050431</v>
+        <v>-0.3707052273808384</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -952,7 +958,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1980771609148146</v>
+        <v>-0.2014098768989847</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -963,10 +969,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6738200559988877</v>
+        <v>0.6541494141229918</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4066133053283133</v>
+        <v>-0.4132172614413864</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -975,7 +981,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.196179176355265</v>
+        <v>-0.190452172109492</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -986,10 +992,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.916225903844651</v>
+        <v>-1.058468770053595</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.02679329922736368</v>
+        <v>0.003576146766965438</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -998,7 +1004,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2045283129921748</v>
+        <v>0.2362810645120879</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1009,10 +1015,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5283771890393688</v>
+        <v>0.6104071220619212</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3847954340606681</v>
+        <v>-0.4100053654187156</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -1021,7 +1027,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1093366642356663</v>
+        <v>-0.1263110519083573</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1032,10 +1038,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2597004192196743</v>
+        <v>-0.2844687299821919</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.153659487225309</v>
+        <v>-0.1509919846574801</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -1044,7 +1050,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04292190988315189</v>
+        <v>0.04701548510994976</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1055,10 +1061,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3917071531748577</v>
+        <v>0.4742391748423622</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2840516768085958</v>
+        <v>-0.2934371751914728</v>
       </c>
       <c r="E24" t="n">
         <v>-0.3653683669055505</v>
@@ -1067,7 +1073,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1180342455722587</v>
+        <v>-0.1429038575620315</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1078,19 +1084,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3603655187204254</v>
+        <v>0.4742391748423622</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3436475914969778</v>
+        <v>-0.2934371751914728</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.3653683669055505</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.06403548437948565</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1698838448220949</v>
+        <v>-0.1429038575620315</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1101,19 +1107,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.8307665587748768</v>
+        <v>0.3947345153985278</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3383437681220633</v>
+        <v>-0.3590997503181121</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.2392549806317371</v>
+        <v>-0.1860861088985411</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1124,19 +1130,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3920585028306503</v>
+        <v>0.7832850324587028</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2799838619509993</v>
+        <v>-0.3270462894464407</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2143524774765483</v>
+        <v>-0.2255806318761802</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1147,19 +1153,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4061868022898492</v>
+        <v>0.4476297623480641</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2829865817683059</v>
+        <v>-0.2890216845218364</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1355420615165729</v>
+        <v>-0.2447352827672045</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1170,19 +1176,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4831917350526272</v>
+        <v>0.4917696512479742</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.354122811153709</v>
+        <v>-0.2921476633169118</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2441344504253163</v>
+        <v>-0.1641005368605554</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1193,19 +1199,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.5599835463957835</v>
+        <v>0.4810219661161527</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2797092671582448</v>
+        <v>-0.3639080181482787</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.14244947936949</v>
+        <v>-0.2430381664692209</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1216,19 +1222,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.6066711741119711</v>
+        <v>0.646920229149779</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.3000498103849653</v>
+        <v>-0.2886046865406164</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1663379896441067</v>
+        <v>-0.1645645669932689</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1239,19 +1245,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.3058709353570227</v>
+        <v>0.6766516019312523</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.277446425912128</v>
+        <v>-0.3115972371716328</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1613607922758987</v>
+        <v>-0.1855253256749189</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1262,19 +1268,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>-4.817902595533432</v>
+        <v>0.2969417161531833</v>
       </c>
       <c r="D33" t="n">
-        <v>0.01010934172288233</v>
+        <v>-0.2878210903935187</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G33" t="n">
-        <v>0.1240636328585127</v>
+        <v>-0.1566502241290595</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1285,19 +1291,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.4168064883034693</v>
+        <v>-4.969491282662259</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.3204703365461242</v>
+        <v>0.009384184191350786</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1425555768131948</v>
+        <v>0.1279671246482575</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1308,19 +1314,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1285574697431343</v>
+        <v>0.4284771130466196</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3021098083919642</v>
+        <v>-0.3314820646809841</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.03667911880465914</v>
+        <v>-0.1465471476949293</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1331,19 +1337,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3436921054227871</v>
+        <v>0.1408183441788156</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2916402326414063</v>
+        <v>-0.3136004091450919</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.08850360496141857</v>
+        <v>-0.04017730580984776</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1354,19 +1360,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2209223719010629</v>
+        <v>0.3764709257792592</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2817034676273535</v>
+        <v>-0.3021323163728879</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.1171814176944917</v>
+        <v>-0.09694442662172946</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1377,19 +1383,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>1.111584467218865</v>
+        <v>0.2674703352227962</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.4374140204610317</v>
+        <v>-0.2905942027044964</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.2278532462636883</v>
+        <v>-0.1418713406112829</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1400,19 +1406,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>1.035795880594363</v>
+        <v>1.106592903959311</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.3776977840843846</v>
+        <v>-0.4468252085170173</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.172639578456725</v>
+        <v>-0.2268300726532604</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1423,19 +1429,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.301386414096387</v>
+        <v>1.002415489614291</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1700794894421045</v>
+        <v>-0.3848718051149682</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G40" t="n">
-        <v>0.1000280165508608</v>
+        <v>-0.1670759565737982</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1446,19 +1452,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4482973154880475</v>
+        <v>0.3753247479844148</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2996944989181378</v>
+        <v>-0.2868680662829637</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.3057316541649393</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.06911952341634622</v>
+        <v>0.0008156890556644013</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.2165884489857834</v>
+        <v>-0.115054804339565</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1469,19 +1475,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4321672017427188</v>
+        <v>-0.3301304607231484</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.3273378527639225</v>
+        <v>-0.1689779993607696</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.07547629320666331</v>
+        <v>0.1095679620734246</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1492,19 +1498,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.7617169326130744</v>
+        <v>0.4457231976588654</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2820170526664457</v>
+        <v>-0.3097086608943906</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1767081885040851</v>
+        <v>-0.2153448006995512</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1515,19 +1521,65 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7382697130247441</v>
+        <v>0.4733841520110418</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3195715167792099</v>
+        <v>-0.3412345187727859</v>
       </c>
       <c r="E44" t="n">
+        <v>-0.2115796612337968</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.03693361474460386</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.0826746706193676</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.8495821063993149</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.2914843720589574</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.1970917391744101</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.716717612210105</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.3287164604856875</v>
+      </c>
+      <c r="E46" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F46" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G44" t="n">
-        <v>-0.1665643311736203</v>
+      <c r="G46" t="n">
+        <v>-0.1617018653372946</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1593,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G44"/>
+  <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1566,7 +1618,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>49</v>
+        <v>51</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1577,10 +1629,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03175142544232651</v>
+        <v>0.03223033121257607</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2528963738915957</v>
+        <v>-0.223395034315809</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1589,7 +1641,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01308485339300421</v>
+        <v>-0.01328221183299493</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1600,10 +1652,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>-0.01984037835722521</v>
+        <v>0.09256481032654168</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.249508292024834</v>
+        <v>-0.2287201171237075</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1612,7 +1664,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>0.007273589048728788</v>
+        <v>-0.0339347556062914</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1623,10 +1675,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02430627091223454</v>
+        <v>-0.0269058643983114</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.2232810074776068</v>
+        <v>-0.1907817769691939</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -1635,7 +1687,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02065590844763902</v>
+        <v>0.02286508998944656</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1646,10 +1698,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.3018615689418092</v>
+        <v>0.2619510381859741</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1955589187910948</v>
+        <v>-0.1733666346078543</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -1658,7 +1710,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1176382637732834</v>
+        <v>-0.1020847583673278</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1669,10 +1721,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3183367623064982</v>
+        <v>0.2973532628116082</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2507231911796687</v>
+        <v>-0.2212156374856965</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -1681,7 +1733,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1224242276952205</v>
+        <v>-0.1143545071219755</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1692,10 +1744,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02497192881123667</v>
+        <v>0.06961954323291308</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2516602566399836</v>
+        <v>-0.2232201237467701</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -1704,7 +1756,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.01104277520959314</v>
+        <v>-0.03078628695151794</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1715,10 +1767,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.02497192881123667</v>
+        <v>0.06961954323291308</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2516602566399836</v>
+        <v>-0.2232201237467701</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -1727,7 +1779,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.01104277520959314</v>
+        <v>-0.03078628695151794</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1738,10 +1790,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.002625425034241236</v>
+        <v>0.07329368130026048</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2517916478073021</v>
+        <v>-0.2421945053797379</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -1750,7 +1802,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0006831977683503043</v>
+        <v>-0.01907275159086312</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1761,10 +1813,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02430627091223454</v>
+        <v>-0.0269058643983114</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.2232810074776068</v>
+        <v>-0.1907817769691939</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -1773,7 +1825,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02065590844763902</v>
+        <v>0.02286508998944656</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1784,10 +1836,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3640770354081349</v>
+        <v>0.3610597439198973</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3322983116570646</v>
+        <v>-0.3020958039732771</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -1796,7 +1848,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06340100499355468</v>
+        <v>-0.06287556863226836</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1807,10 +1859,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.5693321088902196</v>
+        <v>-0.4728027302404476</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2221806282381618</v>
+        <v>-0.197546408590801</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -1819,7 +1871,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02663086244326022</v>
+        <v>0.02211564089784912</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1830,10 +1882,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.003803826444531285</v>
+        <v>-0.04900350991342461</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.2480954061880353</v>
+        <v>-0.1834441133136516</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -1842,7 +1894,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.001944084770795727</v>
+        <v>0.02504503786580232</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1853,10 +1905,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3311924467423615</v>
+        <v>0.313826994572984</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.3106590365333555</v>
+        <v>-0.2780044378967621</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -1865,7 +1917,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1202737655076508</v>
+        <v>-0.1139674371396648</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1876,10 +1928,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5811900788024122</v>
+        <v>0.5496784087685915</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2299237827135661</v>
+        <v>-0.2015401206078036</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -1888,7 +1940,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2269906035573914</v>
+        <v>-0.2146833511438311</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1899,10 +1951,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2617202574693711</v>
+        <v>0.1623124986138838</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2935246380633852</v>
+        <v>-0.2478629948121855</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -1911,7 +1963,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.05171171607350775</v>
+        <v>-0.03207034077018307</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1922,10 +1974,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.6492612969700435</v>
+        <v>0.4436608372577371</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.235565143148832</v>
+        <v>-0.2109398976262663</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -1934,7 +1986,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.08951002762197055</v>
+        <v>-0.0611650409212039</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1945,10 +1997,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.867716992447831</v>
+        <v>-0.9117021389304232</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1736606593590693</v>
+        <v>-0.1402085135102195</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -1957,7 +2009,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.104891477588997</v>
+        <v>0.11020849574893</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -1968,10 +2020,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2423993249820365</v>
+        <v>0.2388673262461987</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2427608197180266</v>
+        <v>-0.2133524468768827</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -1980,7 +2032,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1072235375292029</v>
+        <v>-0.1056611841726773</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -1991,10 +2043,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2896482782505631</v>
+        <v>-0.3020602279505805</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2540032163888991</v>
+        <v>-0.2246005468533784</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -2003,7 +2055,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08432957753933326</v>
+        <v>0.08794325161661008</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2014,10 +2066,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.3968731240494834</v>
+        <v>-0.4124273502680847</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1821612361583342</v>
+        <v>-0.1499321361309932</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -2026,7 +2078,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.08859364289217685</v>
+        <v>0.0920657993058298</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2037,10 +2089,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1138420501973467</v>
+        <v>0.1413914611496588</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2981257785235619</v>
+        <v>-0.2799885177345057</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -2049,7 +2101,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02355724334155489</v>
+        <v>-0.02925802066061305</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2060,10 +2112,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.152541726287961</v>
+        <v>-0.1231423273345843</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2427183254776903</v>
+        <v>-0.2147951404140678</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -2072,7 +2124,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02521128864106303</v>
+        <v>0.02035231168489465</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2083,10 +2135,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1675222561090844</v>
+        <v>0.2390580871339108</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2937111782448149</v>
+        <v>-0.2823988160892663</v>
       </c>
       <c r="E24" t="n">
         <v>-0.3653683669055505</v>
@@ -2095,7 +2147,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.05047996432062007</v>
+        <v>-0.07203606248722853</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2106,19 +2158,19 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3447582162484611</v>
+        <v>0.2390580871339108</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.3352267661847734</v>
+        <v>-0.2823988160892663</v>
       </c>
       <c r="E25" t="n">
-        <v>-0.4784023549028504</v>
+        <v>-0.3653683669055505</v>
       </c>
       <c r="F25" t="n">
-        <v>-0.006981433652357011</v>
+        <v>-0.06403548437948565</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1625262359125264</v>
+        <v>-0.07203606248722853</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2129,19 +2181,19 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.5129849074318542</v>
+        <v>0.3100593494253628</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2409228718717478</v>
+        <v>-0.2972255745889242</v>
       </c>
       <c r="E26" t="n">
-        <v>-0.3003788543237512</v>
+        <v>-0.4784023549028504</v>
       </c>
       <c r="F26" t="n">
-        <v>-0.01238582173880454</v>
+        <v>-0.006981433652357011</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1477360791616078</v>
+        <v>-0.1461684641484332</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2152,19 +2204,19 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4799072142046986</v>
+        <v>0.4131832040118078</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3274370883484328</v>
+        <v>-0.2133641659561395</v>
       </c>
       <c r="E27" t="n">
-        <v>-0.5425791265252571</v>
+        <v>-0.3003788543237512</v>
       </c>
       <c r="F27" t="n">
-        <v>0.004156822137837838</v>
+        <v>-0.01238582173880454</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.262382526028469</v>
+        <v>-0.1189938839365252</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2175,19 +2227,19 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4312838284574823</v>
+        <v>0.4725728768897388</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2636159617292372</v>
+        <v>-0.2967405243398467</v>
       </c>
       <c r="E28" t="n">
-        <v>-0.4717263683946465</v>
+        <v>-0.5425791265252571</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.1380324601916616</v>
+        <v>0.004156822137837838</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1439167862627229</v>
+        <v>-0.2583725801587593</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2198,19 +2250,19 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.5225235268569756</v>
+        <v>0.4255487273512809</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2218350558773637</v>
+        <v>-0.233919706929117</v>
       </c>
       <c r="E29" t="n">
-        <v>-0.6541617442573467</v>
+        <v>-0.4717263683946465</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.1489079646190707</v>
+        <v>-0.1380324601916616</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.2640069868944091</v>
+        <v>-0.1420030179606553</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2221,19 +2273,19 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4312417890782342</v>
+        <v>0.4854180904169939</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3243393412295215</v>
+        <v>-0.1943805774483272</v>
       </c>
       <c r="E30" t="n">
-        <v>-0.3655074649719977</v>
+        <v>-0.6541617442573467</v>
       </c>
       <c r="F30" t="n">
-        <v>-0.111125920574245</v>
+        <v>-0.1489079646190707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1096999523145711</v>
+        <v>-0.2452593248879806</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2244,19 +2296,19 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.2579899890958395</v>
+        <v>0.4121192988655937</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2575908342928993</v>
+        <v>-0.2915603625852031</v>
       </c>
       <c r="E31" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.3655074649719977</v>
       </c>
       <c r="F31" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.111125920574245</v>
       </c>
       <c r="G31" t="n">
-        <v>0.07073607246515815</v>
+        <v>-0.1048355437215487</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2267,19 +2319,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.1613239400698864</v>
+        <v>-0.3090651649913962</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2598790351861195</v>
+        <v>-0.2293563482455672</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.08510569581369933</v>
+        <v>0.08473993887865947</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2290,19 +2342,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>3.408539329069575</v>
+        <v>0.1302479404977813</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.3411622090304309</v>
+        <v>-0.2286493383311214</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0877717561782024</v>
+        <v>-0.06871169647581736</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2313,19 +2365,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.1932488605603138</v>
+        <v>2.071930146074285</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2881002056331479</v>
+        <v>-0.2762972931545578</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.04051352308810744</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.06609470715727073</v>
+        <v>-0.05335333702872096</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2336,19 +2388,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.2280794828664093</v>
+        <v>0.1610809427632519</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3935748495369171</v>
+        <v>-0.2524039030059633</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.06507404404954091</v>
+        <v>-0.05509268054510145</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2359,19 +2411,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.3768933388552169</v>
+        <v>0.1753844970467195</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2969024814165206</v>
+        <v>-0.3311173128492298</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.09705320153804331</v>
+        <v>-0.05003947897018696</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2382,19 +2434,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.0269389624277287</v>
+        <v>0.2982637824305144</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2415342468580728</v>
+        <v>-0.2578075528980288</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01428893679411337</v>
+        <v>-0.07680543008707286</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2405,19 +2457,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5629976605336169</v>
+        <v>-0.002793983152167057</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.3196913502369411</v>
+        <v>-0.2205349256786673</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1154035958350512</v>
+        <v>0.001481981675138286</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2428,19 +2480,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.5504760772214792</v>
+        <v>0.4328949188191913</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1538919210823591</v>
+        <v>-0.274300161348326</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.09174969673319726</v>
+        <v>-0.08873505833595598</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2451,19 +2503,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.1631266573558226</v>
+        <v>0.4565570375332483</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.2466775312689515</v>
+        <v>-0.1409394939576926</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G40" t="n">
-        <v>0.0541405823842357</v>
+        <v>-0.07609589493246739</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2474,19 +2526,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.275147808327694</v>
+        <v>0.2587723574866671</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.266779433026859</v>
+        <v>-0.2863524802522998</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.3057316541649393</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.06911952341634622</v>
+        <v>0.0008156890556644013</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1329337361359277</v>
+        <v>-0.07932597868647011</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2497,19 +2549,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.1712401396003998</v>
+        <v>-0.1804700538142109</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2969619479882908</v>
+        <v>-0.2166833637171101</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.02990641338146732</v>
+        <v>0.05989673285037113</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2520,19 +2572,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.5669154349826261</v>
+        <v>0.2448740797211013</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.265648062290556</v>
+        <v>-0.2355197232386616</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1315168342222904</v>
+        <v>-0.1183074162866105</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2543,19 +2595,65 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>0.9268542433056836</v>
+        <v>0.08614078946200177</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1332912689457494</v>
+        <v>-0.2446169843122578</v>
       </c>
       <c r="E44" t="n">
+        <v>-0.2115796612337968</v>
+      </c>
+      <c r="F44" t="n">
+        <v>-0.03693361474460386</v>
+      </c>
+      <c r="G44" t="n">
+        <v>-0.01504414832099654</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>49</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.5140805160988634</v>
+      </c>
+      <c r="D45" t="n">
+        <v>-0.2347584996732013</v>
+      </c>
+      <c r="E45" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F45" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G45" t="n">
+        <v>-0.1192598363718139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.7763859667536464</v>
+      </c>
+      <c r="D46" t="n">
+        <v>-0.1228795866069095</v>
+      </c>
+      <c r="E46" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F44" t="n">
+      <c r="F46" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G44" t="n">
-        <v>-0.209111730317547</v>
+      <c r="G46" t="n">
+        <v>-0.1751639096165542</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
   <si>
     <t>Ticker</t>
   </si>
@@ -152,7 +152,13 @@
     <t>SAN:SM</t>
   </si>
   <si>
+    <t>SHBA:SS</t>
+  </si>
+  <si>
     <t>STAN:LN</t>
+  </si>
+  <si>
+    <t>SWEDA:SS</t>
   </si>
   <si>
     <t>TATT:GA</t>
@@ -519,7 +525,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -555,10 +561,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.5133173762964544</v>
+        <v>0.4919503144781035</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3356400353715208</v>
+        <v>-0.3181762328711768</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -567,7 +573,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2115395614323175</v>
+        <v>-0.2027341340400822</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -578,10 +584,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.077030089836462</v>
+        <v>1.618870941697533</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.5964105563763231</v>
+        <v>-0.7309364310290544</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -590,7 +596,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.394845003736183</v>
+        <v>-0.5934867642556004</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -601,10 +607,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05207771252674191</v>
+        <v>0.05532850058171799</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3411782799140372</v>
+        <v>-0.3280330824680923</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -613,7 +619,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04425658160394261</v>
+        <v>-0.04701916006316918</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -624,10 +630,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2825328020969609</v>
+        <v>0.2539350217533258</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.3175117370389861</v>
+        <v>-0.299607334773569</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -636,7 +642,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1101056633813969</v>
+        <v>-0.09896084213373588</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -647,10 +653,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.4246324426549627</v>
+        <v>0.3841369227902027</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3211154182882906</v>
+        <v>-0.3029847380301454</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -659,7 +665,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1633028446658535</v>
+        <v>-0.1477292969906201</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -670,10 +676,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.933088931014157</v>
+        <v>0.8658049857592223</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4938754348262123</v>
+        <v>-0.4638374782993261</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -682,7 +688,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.4126189608194155</v>
+        <v>-0.3828654929042545</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -693,10 +699,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.933088931014157</v>
+        <v>0.8658049857592223</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4938754348262123</v>
+        <v>-0.4638374782993261</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -705,7 +711,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.4126189608194155</v>
+        <v>-0.3828654929042545</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -716,10 +722,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4804300045473515</v>
+        <v>0.4002852867330932</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2897167547079636</v>
+        <v>-0.27513346076482</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -728,7 +734,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1250192645664847</v>
+        <v>-0.1041637110307157</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -739,10 +745,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05207771252674191</v>
+        <v>0.05532850058171799</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3411782799140372</v>
+        <v>-0.3280330824680923</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -751,7 +757,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04425658160394261</v>
+        <v>-0.04701916006316918</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -762,10 +768,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.5360802223682858</v>
+        <v>0.4776602017268358</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2915858391530846</v>
+        <v>-0.2763511754357041</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -774,7 +780,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.09335393762810827</v>
+        <v>-0.08318057413579122</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -785,10 +791,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>1.464832711312148</v>
+        <v>2.201772405643438</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3343513408556866</v>
+        <v>-0.3370383859735022</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -797,7 +803,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.06851845843260476</v>
+        <v>-0.102989269620419</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -808,10 +814,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2169192775443556</v>
+        <v>0.1807330409664084</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.4036417477713113</v>
+        <v>-0.3700536001451304</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -820,7 +826,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.1108645386732299</v>
+        <v>-0.09237023761363806</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -831,10 +837,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.7254049258418889</v>
+        <v>0.8349958170513641</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4220174882741489</v>
+        <v>-0.4671256531762393</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -843,7 +849,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.2634334895224007</v>
+        <v>-0.3032318281643338</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -854,10 +860,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.6497966055671789</v>
+        <v>0.5808388298720129</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.3322345087728632</v>
+        <v>-0.2800305633629256</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -866,7 +872,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2537856874487066</v>
+        <v>-0.2268534191669171</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -877,10 +883,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.9356489248173061</v>
+        <v>0.7795649832119786</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4628260457503449</v>
+        <v>-0.4193648354247306</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -889,7 +895,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1848691882411803</v>
+        <v>-0.1540295102201802</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -900,10 +906,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>1.079034011572025</v>
+        <v>1.060065568841863</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2947181180620204</v>
+        <v>-0.2788918466495985</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -912,7 +918,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1487603906648913</v>
+        <v>-0.1461453174414509</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -923,10 +929,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9297989641881432</v>
+        <v>-0.7746920915194613</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.05608968429299882</v>
+        <v>-0.08047963868806579</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -935,7 +941,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.1123960785178202</v>
+        <v>0.09364642949627637</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -946,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4553255687141656</v>
+        <v>0.4715859888365319</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3707052273808384</v>
+        <v>-0.3574466581039505</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -958,7 +964,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2014098768989847</v>
+        <v>-0.2086025527340365</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -969,10 +975,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6541494141229918</v>
+        <v>0.6467767431508794</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.4132172614413864</v>
+        <v>-0.3960381567267396</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -981,7 +987,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.190452172109492</v>
+        <v>-0.1883056576120818</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -992,10 +998,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-1.058468770053595</v>
+        <v>-0.9431207866570032</v>
       </c>
       <c r="D21" t="n">
-        <v>0.003576146766965438</v>
+        <v>-0.0133548417922898</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -1004,7 +1010,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2362810645120879</v>
+        <v>0.2105320343306029</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1015,10 +1021,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.6104071220619212</v>
+        <v>0.5438871790618903</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.4100053654187156</v>
+        <v>-0.3818657696532745</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -1027,7 +1033,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1263110519083573</v>
+        <v>-0.1125461339224143</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1038,10 +1044,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2844687299821919</v>
+        <v>-0.2370140108524066</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1509919846574801</v>
+        <v>-0.15955058195092</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -1050,7 +1056,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.04701548510994976</v>
+        <v>0.03917242045822884</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1061,10 +1067,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4742391748423622</v>
+        <v>0.4400423443171934</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2934371751914728</v>
+        <v>-0.2778525853089872</v>
       </c>
       <c r="E24" t="n">
         <v>-0.3653683669055505</v>
@@ -1073,7 +1079,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.1429038575620315</v>
+        <v>-0.132599228046627</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1084,10 +1090,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4742391748423622</v>
+        <v>0.4400423443171934</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2934371751914728</v>
+        <v>-0.2778525853089872</v>
       </c>
       <c r="E25" t="n">
         <v>-0.3653683669055505</v>
@@ -1096,7 +1102,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.1429038575620315</v>
+        <v>-0.132599228046627</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1107,10 +1113,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3947345153985278</v>
+        <v>0.328885410882344</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3590997503181121</v>
+        <v>-0.3329420744601969</v>
       </c>
       <c r="E26" t="n">
         <v>-0.4784023549028504</v>
@@ -1119,7 +1125,7 @@
         <v>-0.006981433652357011</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1860861088985411</v>
+        <v>-0.1550434633840016</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1130,10 +1136,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.7832850324587028</v>
+        <v>0.991316525915685</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.3270462894464407</v>
+        <v>-0.376383645060642</v>
       </c>
       <c r="E27" t="n">
         <v>-0.3003788543237512</v>
@@ -1142,7 +1148,7 @@
         <v>-0.01238582173880454</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.2255806318761802</v>
+        <v>-0.285492252550032</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1153,10 +1159,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4476297623480641</v>
+        <v>0.40494108762416</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2890216845218364</v>
+        <v>-0.2739516598974769</v>
       </c>
       <c r="E28" t="n">
         <v>-0.5425791265252571</v>
@@ -1165,7 +1171,7 @@
         <v>0.004156822137837838</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2447352827672045</v>
+        <v>-0.2213958496948606</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1176,10 +1182,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4917696512479742</v>
+        <v>0.4563087219929589</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2921476633169118</v>
+        <v>-0.2766560596994966</v>
       </c>
       <c r="E29" t="n">
         <v>-0.4717263683946465</v>
@@ -1188,7 +1194,7 @@
         <v>-0.1380324601916616</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1641005368605554</v>
+        <v>-0.1522674407889398</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1199,10 +1205,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4810219661161527</v>
+        <v>0.4323332546576208</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.3639080181482787</v>
+        <v>-0.341307419432309</v>
       </c>
       <c r="E30" t="n">
         <v>-0.6541617442573467</v>
@@ -1211,7 +1217,7 @@
         <v>-0.1489079646190707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2430381664692209</v>
+        <v>-0.2184380109790802</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1222,10 +1228,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.646920229149779</v>
+        <v>0.576421290917265</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2886046865406164</v>
+        <v>-0.2736949005130463</v>
       </c>
       <c r="E31" t="n">
         <v>-0.3655074649719977</v>
@@ -1234,7 +1240,7 @@
         <v>-0.111125920574245</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1645645669932689</v>
+        <v>-0.1466309382072802</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1245,10 +1251,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.6766516019312523</v>
+        <v>0.8585436168137276</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.3115972371716328</v>
+        <v>-0.2995240282402075</v>
       </c>
       <c r="E32" t="n">
         <v>-0.3468909966907724</v>
@@ -1257,7 +1263,7 @@
         <v>-0.07270953440589001</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.1855253256749189</v>
+        <v>-0.2353967442933396</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1268,10 +1274,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2969417161531833</v>
+        <v>0.2935950129123967</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2878210903935187</v>
+        <v>-0.2720553035864422</v>
       </c>
       <c r="E33" t="n">
         <v>-0.6006553252866136</v>
@@ -1280,7 +1286,7 @@
         <v>-0.07310996669426154</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1566502241290595</v>
+        <v>-0.1548846863677966</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1291,10 +1297,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.969491282662259</v>
+        <v>-4.58758035405836</v>
       </c>
       <c r="D34" t="n">
-        <v>0.009384184191350786</v>
+        <v>0.001677579824282932</v>
       </c>
       <c r="E34" t="n">
         <v>-0.03058677999651533</v>
@@ -1303,7 +1309,7 @@
         <v>-0.00483623182778953</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1279671246482575</v>
+        <v>0.1181327088850799</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1314,10 +1320,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4284771130466196</v>
+        <v>0.4552203323865905</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.3314820646809841</v>
+        <v>-0.317731360275529</v>
       </c>
       <c r="E35" t="n">
         <v>-0.3825321355944528</v>
@@ -1326,7 +1332,7 @@
         <v>-0.04051352308810744</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.1465471476949293</v>
+        <v>-0.155693826467539</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1337,10 +1343,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1408183441788156</v>
+        <v>0.1173271841153897</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3136004091450919</v>
+        <v>-0.2950328603341076</v>
       </c>
       <c r="E36" t="n">
         <v>-0.4071455430831104</v>
@@ -1349,7 +1355,7 @@
         <v>-0.121832531883168</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.04017730580984776</v>
+        <v>-0.03347497219557189</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1360,10 +1366,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.3764709257792592</v>
+        <v>0.31366851150386</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.3021323163728879</v>
+        <v>-0.2854778711748115</v>
       </c>
       <c r="E37" t="n">
         <v>-0.2783813086559444</v>
@@ -1372,7 +1378,7 @@
         <v>-0.02087290632430706</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.09694442662172946</v>
+        <v>-0.0807722772591018</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1383,10 +1389,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2674703352227962</v>
+        <v>0.2481833658525524</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2905942027044964</v>
+        <v>-0.2752146160487612</v>
       </c>
       <c r="E38" t="n">
         <v>-0.5522783488794601</v>
@@ -1395,7 +1401,7 @@
         <v>-0.02185937552636825</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1418713406112829</v>
+        <v>-0.1316411661188256</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1406,10 +1412,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>1.106592903959311</v>
+        <v>0.9945843028619589</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4468252085170173</v>
+        <v>-0.4158317805578412</v>
       </c>
       <c r="E39" t="n">
         <v>-0.2627194170384837</v>
@@ -1418,7 +1424,7 @@
         <v>-0.05773882133641615</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2268300726532604</v>
+        <v>-0.2038704828765698</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1429,10 +1435,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>1.002415489614291</v>
+        <v>0.9465011234234821</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3848718051149682</v>
+        <v>-0.3641213934304151</v>
       </c>
       <c r="E40" t="n">
         <v>-0.2190050510614926</v>
@@ -1441,7 +1447,7 @@
         <v>-0.05233169225487078</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1670759565737982</v>
+        <v>-0.1577565213552327</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1452,19 +1458,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.3753247479844148</v>
+        <v>1.248630298627083</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2868680662829637</v>
+        <v>-0.2745102670004252</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.3057316541649393</v>
+        <v>-0.1406543160420174</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0008156890556644013</v>
+        <v>-0.03363115345720309</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.115054804339565</v>
+        <v>-0.1336323634582916</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1475,19 +1481,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.3301304607231484</v>
+        <v>0.8468282834711084</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1689779993607696</v>
+        <v>-0.4282181713881259</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.3057316541649393</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1047855354221245</v>
+        <v>0.0008156890556644013</v>
       </c>
       <c r="G42" t="n">
-        <v>0.1095679620734246</v>
+        <v>-0.2595929604621326</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1498,19 +1504,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4457231976588654</v>
+        <v>0.2078488827175524</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.3097086608943906</v>
+        <v>-0.2790001006137264</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.5129936739927624</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.06911952341634622</v>
+        <v>0.09022139165383412</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.2153448006995512</v>
+        <v>-0.1253775774330401</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1521,19 +1527,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>0.4733841520110418</v>
+        <v>-0.275058450669911</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.3412345187727859</v>
+        <v>-0.1745362029891824</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.0826746706193676</v>
+        <v>0.0912899519328194</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1544,19 +1550,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>0.8495821063993149</v>
+        <v>0.4011116570567202</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2914843720589574</v>
+        <v>-0.2926079743802018</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1970917391744101</v>
+        <v>-0.1937913716423956</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1567,19 +1573,65 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>0.716717612210105</v>
+        <v>0.3944147456146429</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.3287164604856875</v>
+        <v>-0.3180570814628554</v>
       </c>
       <c r="E46" t="n">
+        <v>-0.2115796612337968</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.03693361474460386</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.06888297599863814</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.9005629904418844</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.2752515862981738</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.2089186256223649</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.6617375243559738</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.3104440946321725</v>
+      </c>
+      <c r="E48" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F48" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G46" t="n">
-        <v>-0.1617018653372946</v>
+      <c r="G48" t="n">
+        <v>-0.1492975618697036</v>
       </c>
     </row>
   </sheetData>
@@ -1593,7 +1645,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G46"/>
+  <dimension ref="A1:G48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1618,7 +1670,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1629,10 +1681,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03223033121257607</v>
+        <v>0.03284403424449403</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.223395034315809</v>
+        <v>-0.2225380404213702</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1641,7 +1693,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01328221183299493</v>
+        <v>-0.013535120610715</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1652,10 +1704,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.09256481032654168</v>
+        <v>0.23504132789032</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2287201171237075</v>
+        <v>-0.2389068993625681</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1664,7 +1716,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0339347556062914</v>
+        <v>-0.0861674106088368</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1675,10 +1727,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0269058643983114</v>
+        <v>-0.03333497740918268</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1907817769691939</v>
+        <v>-0.1825437972398703</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -1687,7 +1739,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02286508998944656</v>
+        <v>0.02832866645626023</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1698,10 +1750,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2619510381859741</v>
+        <v>0.1799417640351807</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1733666346078543</v>
+        <v>-0.1875500157883299</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -1710,7 +1762,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.1020847583673278</v>
+        <v>-0.07012498071750613</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1721,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.2973532628116082</v>
+        <v>0.1622899070827212</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2212156374856965</v>
+        <v>-0.2204621219731174</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -1733,7 +1785,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1143545071219755</v>
+        <v>-0.06241257338102189</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1744,10 +1796,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.06961954323291308</v>
+        <v>-0.1842127250559805</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.2232201237467701</v>
+        <v>-0.216136024279605</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -1756,7 +1808,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.03078628695151794</v>
+        <v>0.08146025599049589</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1767,10 +1819,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.06961954323291308</v>
+        <v>-0.1842127250559805</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.2232201237467701</v>
+        <v>-0.216136024279605</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -1779,7 +1831,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.03078628695151794</v>
+        <v>0.08146025599049589</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1790,10 +1842,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07329368130026048</v>
+        <v>0.0720705733405087</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2421945053797379</v>
+        <v>-0.2409568678192104</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -1802,7 +1854,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.01907275159086312</v>
+        <v>-0.0187544699345006</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1813,10 +1865,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0269058643983114</v>
+        <v>-0.03333497740918268</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1907817769691939</v>
+        <v>-0.1825437972398703</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -1825,7 +1877,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02286508998944656</v>
+        <v>0.02832866645626023</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1836,10 +1888,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.3610597439198973</v>
+        <v>0.275643839004212</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.3020958039732771</v>
+        <v>-0.2821417935382731</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -1848,7 +1900,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.06287556863226836</v>
+        <v>-0.04800109513514826</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1859,10 +1911,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.4728027302404476</v>
+        <v>0.1170850658977755</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.197546408590801</v>
+        <v>-0.2265666336794663</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -1871,7 +1923,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>0.02211564089784912</v>
+        <v>-0.005476726563273731</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1882,10 +1934,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04900350991342461</v>
+        <v>-0.04888649121119149</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1834441133136516</v>
+        <v>-0.1826423827925339</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -1894,7 +1946,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02504503786580232</v>
+        <v>0.02498523117371815</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1905,10 +1957,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.313826994572984</v>
+        <v>0.3026791914468163</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2780044378967621</v>
+        <v>-0.2751054013492541</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -1917,7 +1969,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1139674371396648</v>
+        <v>-0.1099190710844898</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1928,10 +1980,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5496784087685915</v>
+        <v>0.4596335052679002</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2015401206078036</v>
+        <v>-0.2039207645700701</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -1940,7 +1992,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2146833511438311</v>
+        <v>-0.1795152577121505</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -1951,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1623124986138838</v>
+        <v>0.2247387417121972</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2478629948121855</v>
+        <v>-0.2571012312756135</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -1963,7 +2015,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.03207034077018307</v>
+        <v>-0.04440476298820165</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -1974,10 +2026,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.4436608372577371</v>
+        <v>0.3969757372821889</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2109398976262663</v>
+        <v>-0.21116075863633</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -1986,7 +2038,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.0611650409212039</v>
+        <v>-0.05472882701495811</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -1997,10 +2049,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.9117021389304232</v>
+        <v>-0.6198347782306324</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1402085135102195</v>
+        <v>-0.165347102988661</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -2009,7 +2061,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.11020849574893</v>
+        <v>0.07492694774393065</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2020,10 +2072,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.2388673262461987</v>
+        <v>0.1505781398349743</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2133524468768827</v>
+        <v>-0.2154793756273529</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -2032,7 +2084,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.1056611841726773</v>
+        <v>-0.066607119590244</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2043,10 +2095,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.3020602279505805</v>
+        <v>-0.2197818676365239</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2246005468533784</v>
+        <v>-0.2228693134168425</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -2055,7 +2107,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.08794325161661008</v>
+        <v>0.06398833841007888</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2066,10 +2118,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4124273502680847</v>
+        <v>-0.4319238535168871</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1499321361309932</v>
+        <v>-0.1456552409428003</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -2078,7 +2130,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0920657993058298</v>
+        <v>0.09641798679800981</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2089,10 +2141,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1413914611496588</v>
+        <v>0.08874722344583547</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2799885177345057</v>
+        <v>-0.2573270289115597</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -2101,7 +2153,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.02925802066061305</v>
+        <v>-0.01836439114524677</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2112,10 +2164,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1231423273345843</v>
+        <v>-0.1764350905606276</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2147951404140678</v>
+        <v>-0.2109912845414142</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -2124,7 +2176,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02035231168489465</v>
+        <v>0.02916025734584294</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2135,10 +2187,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.2390580871339108</v>
+        <v>0.14110719406724</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2823988160892663</v>
+        <v>-0.256562675052351</v>
       </c>
       <c r="E24" t="n">
         <v>-0.3653683669055505</v>
@@ -2147,7 +2199,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.07203606248722853</v>
+        <v>-0.04252023753344628</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2158,10 +2210,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.2390580871339108</v>
+        <v>0.14110719406724</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2823988160892663</v>
+        <v>-0.256562675052351</v>
       </c>
       <c r="E25" t="n">
         <v>-0.3653683669055505</v>
@@ -2170,7 +2222,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.07203606248722853</v>
+        <v>-0.04252023753344628</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2181,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3100593494253628</v>
+        <v>0.2123998069100925</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2972255745889242</v>
+        <v>-0.2724885158736967</v>
       </c>
       <c r="E26" t="n">
         <v>-0.4784023549028504</v>
@@ -2193,7 +2245,7 @@
         <v>-0.006981433652357011</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1461684641484332</v>
+        <v>-0.1001297126469827</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2204,10 +2256,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.4131832040118078</v>
+        <v>0.2782168476897708</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2133641659561395</v>
+        <v>-0.2151362559873949</v>
       </c>
       <c r="E27" t="n">
         <v>-0.3003788543237512</v>
@@ -2216,7 +2268,7 @@
         <v>-0.01238582173880454</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.1189938839365252</v>
+        <v>-0.08012451368240131</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2227,10 +2279,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.4725728768897388</v>
+        <v>0.2310091576017336</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2967405243398467</v>
+        <v>-0.2573986149060036</v>
       </c>
       <c r="E28" t="n">
         <v>-0.5425791265252571</v>
@@ -2239,7 +2291,7 @@
         <v>0.004156822137837838</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2583725801587593</v>
+        <v>-0.1263010109312462</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2250,10 +2302,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4255487273512809</v>
+        <v>0.3280107486740124</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.233919706929117</v>
+        <v>-0.2301854229583644</v>
       </c>
       <c r="E29" t="n">
         <v>-0.4717263683946465</v>
@@ -2262,7 +2314,7 @@
         <v>-0.1380324601916616</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1420030179606553</v>
+        <v>-0.1094551886576182</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2273,10 +2325,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4854180904169939</v>
+        <v>0.3534869473891949</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1943805774483272</v>
+        <v>-0.2008646426504286</v>
       </c>
       <c r="E30" t="n">
         <v>-0.6541617442573467</v>
@@ -2285,7 +2337,7 @@
         <v>-0.1489079646190707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2452593248879806</v>
+        <v>-0.1786006162211872</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2296,10 +2348,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.4121192988655937</v>
+        <v>0.2478195544894188</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2915603625852031</v>
+        <v>-0.262745474603424</v>
       </c>
       <c r="E31" t="n">
         <v>-0.3655074649719977</v>
@@ -2308,7 +2360,7 @@
         <v>-0.111125920574245</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1048355437215487</v>
+        <v>-0.06304072100298137</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2319,10 +2371,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.3090651649913962</v>
+        <v>-0.08224591750661292</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2293563482455672</v>
+        <v>-0.2227141349192973</v>
       </c>
       <c r="E32" t="n">
         <v>-0.3468909966907724</v>
@@ -2331,7 +2383,7 @@
         <v>-0.07270953440589001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.08473993887865947</v>
+        <v>0.02255030592892494</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2342,10 +2394,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.1302479404977813</v>
+        <v>0.06192541032212044</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2286493383311214</v>
+        <v>-0.2240179668880241</v>
       </c>
       <c r="E33" t="n">
         <v>-0.6006553252866136</v>
@@ -2354,7 +2406,7 @@
         <v>-0.07310996669426154</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.06871169647581736</v>
+        <v>-0.03266846279436157</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2365,10 +2417,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>2.071930146074285</v>
+        <v>2.305770705221685</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2762972931545578</v>
+        <v>-0.2815866432438271</v>
       </c>
       <c r="E34" t="n">
         <v>-0.03058677999651533</v>
@@ -2377,7 +2429,7 @@
         <v>-0.00483623182778953</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.05335333702872096</v>
+        <v>-0.05937485961084785</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2388,10 +2440,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.1610809427632519</v>
+        <v>-0.0018402511965665</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2524039030059633</v>
+        <v>-0.2202765075334738</v>
       </c>
       <c r="E35" t="n">
         <v>-0.3825321355944528</v>
@@ -2400,7 +2452,7 @@
         <v>-0.04051352308810744</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.05509268054510145</v>
+        <v>0.0006294001609128162</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2411,10 +2463,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1753844970467195</v>
+        <v>0.1659133252077882</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3311173128492298</v>
+        <v>-0.3243062498173652</v>
       </c>
       <c r="E36" t="n">
         <v>-0.4071455430831104</v>
@@ -2423,7 +2475,7 @@
         <v>-0.121832531883168</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.05003947897018696</v>
+        <v>-0.04733723041322936</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2434,10 +2486,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.2982637824305144</v>
+        <v>0.1794481808452521</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2578075528980288</v>
+        <v>-0.2424602627812859</v>
       </c>
       <c r="E37" t="n">
         <v>-0.2783813086559444</v>
@@ -2446,7 +2498,7 @@
         <v>-0.02087290632430706</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.07680543008707286</v>
+        <v>-0.0462094143507796</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2457,10 +2509,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.002793983152167057</v>
+        <v>-0.03307770079207228</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2205349256786673</v>
+        <v>-0.2089437455771173</v>
       </c>
       <c r="E38" t="n">
         <v>-0.5522783488794601</v>
@@ -2469,7 +2521,7 @@
         <v>-0.02185937552636825</v>
       </c>
       <c r="G38" t="n">
-        <v>0.001481981675138286</v>
+        <v>0.01754504009501173</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2480,10 +2532,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.4328949188191913</v>
+        <v>0.1348073198536914</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.274300161348326</v>
+        <v>-0.2370649107010774</v>
       </c>
       <c r="E39" t="n">
         <v>-0.2627194170384837</v>
@@ -2492,7 +2544,7 @@
         <v>-0.05773882133641615</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.08873505833595598</v>
+        <v>-0.02763288472860882</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2503,10 +2555,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.4565570375332483</v>
+        <v>0.400429987775663</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1409394939576926</v>
+        <v>-0.1499532790994916</v>
       </c>
       <c r="E40" t="n">
         <v>-0.2190050510614926</v>
@@ -2515,7 +2567,7 @@
         <v>-0.05233169225487078</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.07609589493246739</v>
+        <v>-0.06674101102946427</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2526,19 +2578,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2587723574866671</v>
+        <v>0.6827538899739699</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2863524802522998</v>
+        <v>-0.2163620090524164</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.3057316541649393</v>
+        <v>-0.1406543160420174</v>
       </c>
       <c r="F41" t="n">
-        <v>0.0008156890556644013</v>
+        <v>-0.03363115345720309</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.07932597868647011</v>
+        <v>-0.07307048057209861</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2549,19 +2601,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.1804700538142109</v>
+        <v>0.3600367164483639</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2166833637171101</v>
+        <v>-0.310829685717125</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.3057316541649393</v>
       </c>
       <c r="F42" t="n">
-        <v>-0.1047855354221245</v>
+        <v>0.0008156890556644013</v>
       </c>
       <c r="G42" t="n">
-        <v>0.05989673285037113</v>
+        <v>-0.1103682988891158</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2572,19 +2624,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2448740797211013</v>
+        <v>0.02286716007915101</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2355197232386616</v>
+        <v>-0.220904569198395</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.5129936739927624</v>
       </c>
       <c r="F43" t="n">
-        <v>-0.06911952341634622</v>
+        <v>0.09022139165383412</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1183074162866105</v>
+        <v>-0.01379381546829631</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2595,19 +2647,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>0.08614078946200177</v>
+        <v>-0.2314928957508005</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2446169843122578</v>
+        <v>-0.2144227233820333</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.03693361474460386</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.01504414832099654</v>
+        <v>0.07683085276751148</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2618,19 +2670,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>0.5140805160988634</v>
+        <v>0.1366606126410329</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2347584996732013</v>
+        <v>-0.2284412521947272</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.552255249424409</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.06911952341634622</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1192598363718139</v>
+        <v>-0.06602562430503209</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2641,19 +2693,65 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>0.7763859667536464</v>
+        <v>0.06255253507499448</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1228795866069095</v>
+        <v>-0.2374001321099717</v>
       </c>
       <c r="E46" t="n">
+        <v>-0.2115796612337968</v>
+      </c>
+      <c r="F46" t="n">
+        <v>-0.03693361474460386</v>
+      </c>
+      <c r="G46" t="n">
+        <v>-0.01092455294872436</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>51</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.4758672035055433</v>
+      </c>
+      <c r="D47" t="n">
+        <v>-0.2328819255865534</v>
+      </c>
+      <c r="E47" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F47" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G47" t="n">
+        <v>-0.110394856540079</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>52</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.5101422009592449</v>
+      </c>
+      <c r="D48" t="n">
+        <v>-0.1558140724161262</v>
+      </c>
+      <c r="E48" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F46" t="n">
+      <c r="F48" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G46" t="n">
-        <v>-0.1751639096165542</v>
+      <c r="G48" t="n">
+        <v>-0.1150954630904211</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -1681,10 +1681,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03284403424449403</v>
+        <v>0.01397795325880796</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.2225380404213702</v>
+        <v>-0.1654349089157814</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1693,7 +1693,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.013535120610715</v>
+        <v>-0.005760354584961463</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1704,10 +1704,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.23504132789032</v>
+        <v>0.2054989378050588</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.2389068993625681</v>
+        <v>-0.1866935634168373</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1716,7 +1716,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0861674106088368</v>
+        <v>-0.0753370120585401</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1727,10 +1727,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.03333497740918268</v>
+        <v>-0.0279070648080362</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1825437972398703</v>
+        <v>-0.1330439991591754</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -1739,7 +1739,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02832866645626023</v>
+        <v>0.023715928198059</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1750,10 +1750,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1799417640351807</v>
+        <v>-0.196922508562876</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1875500157883299</v>
+        <v>-0.1716582506364633</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -1762,7 +1762,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.07012498071750613</v>
+        <v>0.0767425349521124</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1773,10 +1773,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1622899070827212</v>
+        <v>-0.02808074819956824</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.2204621219731174</v>
+        <v>-0.1617212459987773</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -1785,7 +1785,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.06241257338102189</v>
+        <v>0.01079914203602466</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1796,10 +1796,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.1842127250559805</v>
+        <v>0.007112137584146971</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.216136024279605</v>
+        <v>-0.1643533782749233</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -1808,7 +1808,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>0.08146025599049589</v>
+        <v>-0.003145040865489495</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1819,10 +1819,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.1842127250559805</v>
+        <v>0.007112137584146971</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.216136024279605</v>
+        <v>-0.1643533782749233</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -1831,7 +1831,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>0.08146025599049589</v>
+        <v>-0.003145040865489495</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1842,10 +1842,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0720705733405087</v>
+        <v>0.01323992585585287</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2409568678192104</v>
+        <v>-0.1672547450889184</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -1854,7 +1854,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.0187544699345006</v>
+        <v>-0.003445342251204814</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1865,10 +1865,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.03333497740918268</v>
+        <v>-0.0279070648080362</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1825437972398703</v>
+        <v>-0.1330439991591754</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -1877,7 +1877,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02832866645626023</v>
+        <v>0.023715928198059</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1888,10 +1888,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.275643839004212</v>
+        <v>0.0313001878534773</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2821417935382731</v>
+        <v>-0.1696950316597603</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -1900,7 +1900,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.04800109513514826</v>
+        <v>-0.005450668878834683</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1911,10 +1911,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.1170850658977755</v>
+        <v>0.5863348353008644</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2265666336794663</v>
+        <v>-0.1987815793609455</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -1923,7 +1923,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.005476726563273731</v>
+        <v>-0.0274261755147202</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1934,10 +1934,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.04888649121119149</v>
+        <v>-0.1031458927670876</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1826423827925339</v>
+        <v>-0.08480442345533784</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -1946,7 +1946,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.02498523117371815</v>
+        <v>0.05271648489297288</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1957,10 +1957,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.3026791914468163</v>
+        <v>0.1739854367901433</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2751054013492541</v>
+        <v>-0.1998332051417274</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -1969,7 +1969,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.1099190710844898</v>
+        <v>-0.06318345672455021</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1980,10 +1980,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.4596335052679002</v>
+        <v>0.303444556729001</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2039207645700701</v>
+        <v>-0.18848092465251</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -1992,7 +1992,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1795152577121505</v>
+        <v>-0.1185138315162773</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2003,10 +2003,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.2247387417121972</v>
+        <v>0.1055130062997235</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2571012312756135</v>
+        <v>-0.1831385330212765</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -2015,7 +2015,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.04440476298820165</v>
+        <v>-0.02084767406463398</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2026,10 +2026,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>0.3969757372821889</v>
+        <v>-0.3715020022992265</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.21116075863633</v>
+        <v>-0.1605397382312352</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -2038,7 +2038,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.05472882701495811</v>
+        <v>0.05121690549337551</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2049,10 +2049,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.6198347782306324</v>
+        <v>-0.2163401877345135</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.165347102988661</v>
+        <v>-0.1428384230674198</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -2061,7 +2061,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.07492694774393065</v>
+        <v>0.02615166252459718</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2072,10 +2072,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.1505781398349743</v>
+        <v>0.07463340211187715</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.2154793756273529</v>
+        <v>-0.1679600262993367</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -2084,7 +2084,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.066607119590244</v>
+        <v>-0.03301353002063016</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2095,10 +2095,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.2197818676365239</v>
+        <v>-0.006475234313489731</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.2228693134168425</v>
+        <v>-0.1629094603275673</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -2107,7 +2107,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.06398833841007888</v>
+        <v>0.001885230519659484</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2118,10 +2118,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.4319238535168871</v>
+        <v>-0.1578514773059693</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1456552409428003</v>
+        <v>-0.1319740608075544</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -2130,7 +2130,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.09641798679800981</v>
+        <v>0.03523704822275632</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2141,10 +2141,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.08874722344583547</v>
+        <v>0.02023976996666546</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.2573270289115597</v>
+        <v>-0.1710721500362877</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -2153,7 +2153,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.01836439114524677</v>
+        <v>-0.004188199223883488</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2164,10 +2164,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.1764350905606276</v>
+        <v>0.07166295027181624</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.2109912845414142</v>
+        <v>-0.1712051672385636</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -2176,7 +2176,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.02916025734584294</v>
+        <v>-0.01184407288509555</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2187,10 +2187,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.14110719406724</v>
+        <v>0.1184201241472566</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.256562675052351</v>
+        <v>-0.2011101593714204</v>
       </c>
       <c r="E24" t="n">
         <v>-0.3653683669055505</v>
@@ -2199,7 +2199,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.04252023753344628</v>
+        <v>-0.03568387735838728</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2210,10 +2210,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.14110719406724</v>
+        <v>0.1184201241472566</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.256562675052351</v>
+        <v>-0.2011101593714204</v>
       </c>
       <c r="E25" t="n">
         <v>-0.3653683669055505</v>
@@ -2222,7 +2222,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.04252023753344628</v>
+        <v>-0.03568387735838728</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2233,10 +2233,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.2123998069100925</v>
+        <v>0.01721826669075449</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.2724885158736967</v>
+        <v>-0.1681236116415269</v>
       </c>
       <c r="E26" t="n">
         <v>-0.4784023549028504</v>
@@ -2245,7 +2245,7 @@
         <v>-0.006981433652357011</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1001297126469827</v>
+        <v>-0.008117051145692167</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2256,10 +2256,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.2782168476897708</v>
+        <v>-0.02567454402653629</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.2151362559873949</v>
+        <v>-0.1630494854406569</v>
       </c>
       <c r="E27" t="n">
         <v>-0.3003788543237512</v>
@@ -2268,7 +2268,7 @@
         <v>-0.01238582173880454</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.08012451368240131</v>
+        <v>0.007394089794437914</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2279,10 +2279,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.2310091576017336</v>
+        <v>0.08127993282953327</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2573986149060036</v>
+        <v>-0.1840164613003856</v>
       </c>
       <c r="E28" t="n">
         <v>-0.5425791265252571</v>
@@ -2291,7 +2291,7 @@
         <v>0.004156822137837838</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.1263010109312462</v>
+        <v>-0.04443866118282751</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2302,10 +2302,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3280107486740124</v>
+        <v>0.2387382083607538</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2301854229583644</v>
+        <v>-0.1992941407699661</v>
       </c>
       <c r="E29" t="n">
         <v>-0.4717263683946465</v>
@@ -2314,7 +2314,7 @@
         <v>-0.1380324601916616</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1094551886576182</v>
+        <v>-0.07966548578527843</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2325,10 +2325,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3534869473891949</v>
+        <v>0.1227022397260364</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.2008646426504286</v>
+        <v>-0.171702294436675</v>
       </c>
       <c r="E30" t="n">
         <v>-0.6541617442573467</v>
@@ -2337,7 +2337,7 @@
         <v>-0.1489079646190707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.1786006162211872</v>
+        <v>-0.0619957703916617</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2348,10 +2348,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.2478195544894188</v>
+        <v>-0.03592422131485978</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.262745474603424</v>
+        <v>-0.1560460984787445</v>
       </c>
       <c r="E31" t="n">
         <v>-0.3655074649719977</v>
@@ -2360,7 +2360,7 @@
         <v>-0.111125920574245</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.06304072100298137</v>
+        <v>0.009138458899360697</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2371,10 +2371,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.08224591750661292</v>
+        <v>0.06478320320817887</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2227141349192973</v>
+        <v>-0.1669031523496904</v>
       </c>
       <c r="E32" t="n">
         <v>-0.3468909966907724</v>
@@ -2383,7 +2383,7 @@
         <v>-0.07270953440589001</v>
       </c>
       <c r="G32" t="n">
-        <v>0.02255030592892494</v>
+        <v>-0.01776235338711717</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2394,10 +2394,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.06192541032212044</v>
+        <v>0.0169226984692738</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2240179668880241</v>
+        <v>-0.1664011467960527</v>
       </c>
       <c r="E33" t="n">
         <v>-0.6006553252866136</v>
@@ -2406,7 +2406,7 @@
         <v>-0.07310996669426154</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.03266846279436157</v>
+        <v>-0.008927491032323294</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2417,10 +2417,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>2.305770705221685</v>
+        <v>-0.2744042074907718</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.2815866432438271</v>
+        <v>-0.1565870423918417</v>
       </c>
       <c r="E34" t="n">
         <v>-0.03058677999651533</v>
@@ -2429,7 +2429,7 @@
         <v>-0.00483623182778953</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.05937485961084785</v>
+        <v>0.007066058762692146</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2440,10 +2440,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.0018402511965665</v>
+        <v>-0.2002958012863793</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2202765075334738</v>
+        <v>-0.1158317206331583</v>
       </c>
       <c r="E35" t="n">
         <v>-0.3825321355944528</v>
@@ -2452,7 +2452,7 @@
         <v>-0.04051352308810744</v>
       </c>
       <c r="G35" t="n">
-        <v>0.0006294001609128162</v>
+        <v>0.06850489204681411</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2463,10 +2463,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1659133252077882</v>
+        <v>0.03213600066634631</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.3243062498173652</v>
+        <v>-0.1815338690937627</v>
       </c>
       <c r="E36" t="n">
         <v>-0.4071455430831104</v>
@@ -2475,7 +2475,7 @@
         <v>-0.121832531883168</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.04733723041322936</v>
+        <v>-0.00916881911803862</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2486,10 +2486,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1794481808452521</v>
+        <v>-0.120681874072585</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2424602627812859</v>
+        <v>-0.1493594579974419</v>
       </c>
       <c r="E37" t="n">
         <v>-0.2783813086559444</v>
@@ -2498,7 +2498,7 @@
         <v>-0.02087290632430706</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0462094143507796</v>
+        <v>0.03107659658281921</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2509,10 +2509,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.03307770079207228</v>
+        <v>0.03771582296305193</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2089437455771173</v>
+        <v>-0.1823902019946616</v>
       </c>
       <c r="E38" t="n">
         <v>-0.5522783488794601</v>
@@ -2521,7 +2521,7 @@
         <v>-0.02185937552636825</v>
       </c>
       <c r="G38" t="n">
-        <v>0.01754504009501173</v>
+        <v>-0.02000518809522897</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2532,10 +2532,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.1348073198536914</v>
+        <v>-0.3855183985497668</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.2370649107010774</v>
+        <v>-0.1167976091065462</v>
       </c>
       <c r="E39" t="n">
         <v>-0.2627194170384837</v>
@@ -2544,7 +2544,7 @@
         <v>-0.05773882133641615</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.02763288472860882</v>
+        <v>0.07902379098883827</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2555,10 +2555,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.400429987775663</v>
+        <v>0.1327759649714759</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1499532790994916</v>
+        <v>-0.1480712854318375</v>
       </c>
       <c r="E40" t="n">
         <v>-0.2190050510614926</v>
@@ -2567,7 +2567,7 @@
         <v>-0.05233169225487078</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.06674101102946427</v>
+        <v>-0.02213021605058626</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2578,10 +2578,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.6827538899739699</v>
+        <v>0.2342423580025962</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2163620090524164</v>
+        <v>-0.1690229530810884</v>
       </c>
       <c r="E41" t="n">
         <v>-0.1406543160420174</v>
@@ -2590,7 +2590,7 @@
         <v>-0.03363115345720309</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.07307048057209861</v>
+        <v>-0.02506935796476214</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2601,10 +2601,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.3600367164483639</v>
+        <v>0.2358970308987796</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.310829685717125</v>
+        <v>-0.2307091682528392</v>
       </c>
       <c r="E42" t="n">
         <v>-0.3057316541649393</v>
@@ -2613,7 +2613,7 @@
         <v>0.0008156890556644013</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.1103682988891158</v>
+        <v>-0.07231360809564955</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2624,10 +2624,10 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.02286716007915101</v>
+        <v>0.07739365423357078</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.220904569198395</v>
+        <v>-0.1773531005113587</v>
       </c>
       <c r="E43" t="n">
         <v>-0.5129936739927624</v>
@@ -2636,7 +2636,7 @@
         <v>0.09022139165383412</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.01379381546829631</v>
+        <v>-0.04668501821913339</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2647,10 +2647,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.2314928957508005</v>
+        <v>-0.0890399569144037</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.2144227233820333</v>
+        <v>-0.1528537736773185</v>
       </c>
       <c r="E44" t="n">
         <v>-0.4366784538562998</v>
@@ -2659,7 +2659,7 @@
         <v>-0.1047855354221245</v>
       </c>
       <c r="G44" t="n">
-        <v>0.07683085276751148</v>
+        <v>0.02955173115757467</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2670,10 +2670,10 @@
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1366606126410329</v>
+        <v>0.04856564341279579</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2284412521947272</v>
+        <v>-0.1723884342608514</v>
       </c>
       <c r="E45" t="n">
         <v>-0.552255249424409</v>
@@ -2682,7 +2682,7 @@
         <v>-0.06911952341634622</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.06602562430503209</v>
+        <v>-0.02346379738928979</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2693,10 +2693,10 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06255253507499448</v>
+        <v>-0.1174568403404984</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.2374001321099717</v>
+        <v>-0.1372186423864782</v>
       </c>
       <c r="E46" t="n">
         <v>-0.2115796612337968</v>
@@ -2705,7 +2705,7 @@
         <v>-0.03693361474460386</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.01092455294872436</v>
+        <v>0.0205133727985804</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2716,10 +2716,10 @@
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>0.4758672035055433</v>
+        <v>0.2065736547742122</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2328819255865534</v>
+        <v>-0.1788373102765828</v>
       </c>
       <c r="E47" t="n">
         <v>-0.3141388711706843</v>
@@ -2728,7 +2728,7 @@
         <v>-0.0821521830214704</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.110394856540079</v>
+        <v>-0.04792233802994855</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2739,10 +2739,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>0.5101422009592449</v>
+        <v>-0.06075359638209199</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1558140724161262</v>
+        <v>-0.1654729962132952</v>
       </c>
       <c r="E48" t="n">
         <v>-0.3712572385230804</v>
@@ -2751,7 +2751,7 @@
         <v>-0.1456427669620106</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.1150954630904211</v>
+        <v>0.01370689054318021</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
   <si>
     <t>Ticker</t>
   </si>
@@ -125,12 +125,21 @@
     <t>HB:CY</t>
   </si>
   <si>
+    <t>INGA:NA</t>
+  </si>
+  <si>
     <t>ISP:IM</t>
   </si>
   <si>
     <t>KBC:BB</t>
   </si>
   <si>
+    <t>KN:FP</t>
+  </si>
+  <si>
+    <t>MB:IM</t>
+  </si>
+  <si>
     <t>OBS:AV</t>
   </si>
   <si>
@@ -171,6 +180,9 @@
   </si>
   <si>
     <t>UBI:IM</t>
+  </si>
+  <si>
+    <t>UBSG:VX</t>
   </si>
   <si>
     <t>UCG:IM</t>
@@ -525,7 +537,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -561,10 +573,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.4919503144781035</v>
+        <v>0.4828287666957655</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.3181762328711768</v>
+        <v>-0.304494431563861</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -573,7 +585,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.2027341340400822</v>
+        <v>-0.198975118065635</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -584,10 +596,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>1.618870941697533</v>
+        <v>1.482456518162525</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.7309364310290544</v>
+        <v>-0.6800682026342063</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -596,7 +608,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.5934867642556004</v>
+        <v>-0.5434765054163807</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -607,10 +619,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>0.05532850058171799</v>
+        <v>0.04846890280051181</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.3280330824680923</v>
+        <v>-0.3092707908499721</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -619,7 +631,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.04701916006316918</v>
+        <v>-0.04118974985590853</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -630,10 +642,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>0.2539350217533258</v>
+        <v>0.2530510744210913</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.299607334773569</v>
+        <v>-0.2865412931263913</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -642,7 +654,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>-0.09896084213373588</v>
+        <v>-0.09861635962873991</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -653,10 +665,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>0.3841369227902027</v>
+        <v>0.3719077309606444</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.3029847380301454</v>
+        <v>-0.2893000735396972</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -665,7 +677,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>-0.1477292969906201</v>
+        <v>-0.1430262606393586</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -676,10 +688,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.8658049857592223</v>
+        <v>0.7872962290339873</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.4638374782993261</v>
+        <v>-0.434307763697283</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -688,7 +700,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.3828654929042545</v>
+        <v>-0.3481483287214343</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -699,10 +711,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.8658049857592223</v>
+        <v>0.7872962290339873</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.4638374782993261</v>
+        <v>-0.434307763697283</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -711,7 +723,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.3828654929042545</v>
+        <v>-0.3481483287214343</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -722,10 +734,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.4002852867330932</v>
+        <v>0.3086281925444854</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.27513346076482</v>
+        <v>-0.2636067398724008</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -734,7 +746,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.1041637110307157</v>
+        <v>-0.08031236453008021</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -745,10 +757,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>0.05532850058171799</v>
+        <v>0.04846890280051181</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.3280330824680923</v>
+        <v>-0.3092707908499721</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -757,7 +769,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.04701916006316918</v>
+        <v>-0.04118974985590853</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -768,10 +780,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4776602017268358</v>
+        <v>0.4076698893527211</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.2763511754357041</v>
+        <v>-0.2641143264174163</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -780,7 +792,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.08318057413579122</v>
+        <v>-0.0709923400183681</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -791,10 +803,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>2.201772405643438</v>
+        <v>2.016239692049123</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.3370383859735022</v>
+        <v>-0.3193620401560032</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -803,7 +815,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.102989269620419</v>
+        <v>-0.09431086189090211</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -814,10 +826,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>0.1807330409664084</v>
+        <v>0.1393488376797373</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.3700536001451304</v>
+        <v>-0.3367920761165593</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -826,7 +838,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>-0.09237023761363806</v>
+        <v>-0.07121932535874273</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -837,10 +849,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.8349958170513641</v>
+        <v>0.8183666676017644</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.4671256531762393</v>
+        <v>-0.4735309922469182</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -849,7 +861,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.3032318281643338</v>
+        <v>-0.2971928908601606</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -860,10 +872,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.5808388298720129</v>
+        <v>0.5628116817262515</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.2800305633629256</v>
+        <v>-0.2670753790898789</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -872,7 +884,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.2268534191669171</v>
+        <v>-0.2198127049715599</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -883,10 +895,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.7795649832119786</v>
+        <v>0.6010603864382255</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.4193648354247306</v>
+        <v>-0.3748120340367571</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -895,7 +907,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.1540295102201802</v>
+        <v>-0.1187598711198878</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -906,10 +918,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>1.060065568841863</v>
+        <v>1.041981529321331</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.2788918466495985</v>
+        <v>-0.2659344423029517</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -918,7 +930,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.1461453174414509</v>
+        <v>-0.1436521719474043</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -929,10 +941,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.7746920915194613</v>
+        <v>-0.5973049146198841</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.08047963868806579</v>
+        <v>-0.1135244727410345</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -941,7 +953,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.09364642949627637</v>
+        <v>0.0722034898601068</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -952,10 +964,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.4715859888365319</v>
+        <v>0.437605375536656</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.3574466581039505</v>
+        <v>-0.3389768525431271</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -964,7 +976,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.2086025527340365</v>
+        <v>-0.1935714813162651</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -975,10 +987,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.6467767431508794</v>
+        <v>0.6376325689018001</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.3960381567267396</v>
+        <v>-0.3814166708776829</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -987,7 +999,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.1883056576120818</v>
+        <v>-0.1856433792238642</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -998,10 +1010,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.9431207866570032</v>
+        <v>-0.8049277271366015</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.0133548417922898</v>
+        <v>-0.03965416626091231</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -1010,7 +1022,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2105320343306029</v>
+        <v>0.1796833176414846</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -1021,10 +1033,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.5438871790618903</v>
+        <v>0.4641927260558114</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.3818657696532745</v>
+        <v>-0.3541681211471679</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -1033,7 +1045,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.1125461339224143</v>
+        <v>-0.09605502523997357</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -1044,10 +1056,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>-0.2370140108524066</v>
+        <v>-0.1827426654715039</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.15955058195092</v>
+        <v>-0.174489965907473</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -1056,7 +1068,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>0.03917242045822884</v>
+        <v>0.03020273992141729</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -1067,10 +1079,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.4400423443171934</v>
+        <v>0.3872669642411233</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2778525853089872</v>
+        <v>-0.2652965670578313</v>
       </c>
       <c r="E24" t="n">
         <v>-0.3653683669055505</v>
@@ -1079,7 +1091,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.132599228046627</v>
+        <v>-0.1166962706418962</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -1090,10 +1102,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.4400423443171934</v>
+        <v>0.3872669642411233</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2778525853089872</v>
+        <v>-0.2652965670578313</v>
       </c>
       <c r="E25" t="n">
         <v>-0.3653683669055505</v>
@@ -1102,7 +1114,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.132599228046627</v>
+        <v>-0.1166962706418962</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -1113,10 +1125,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.328885410882344</v>
+        <v>0.253577421292161</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.3329420744601969</v>
+        <v>-0.3081783712404099</v>
       </c>
       <c r="E26" t="n">
         <v>-0.4784023549028504</v>
@@ -1125,7 +1137,7 @@
         <v>-0.006981433652357011</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.1550434633840016</v>
+        <v>-0.119541701553875</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -1136,10 +1148,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>0.991316525915685</v>
+        <v>0.9715742293269074</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.376383645060642</v>
+        <v>-0.384596137886906</v>
       </c>
       <c r="E27" t="n">
         <v>-0.3003788543237512</v>
@@ -1148,7 +1160,7 @@
         <v>-0.01238582173880454</v>
       </c>
       <c r="G27" t="n">
-        <v>-0.285492252550032</v>
+        <v>-0.2798066086852384</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -1159,10 +1171,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.40494108762416</v>
+        <v>0.3920495876802008</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2739516598974769</v>
+        <v>-0.2611912790065181</v>
       </c>
       <c r="E28" t="n">
         <v>-0.5425791265252571</v>
@@ -1171,7 +1183,7 @@
         <v>0.004156822137837838</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.2213958496948606</v>
+        <v>-0.2143476032433098</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -1182,10 +1194,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4563087219929589</v>
+        <v>0.4149319350386662</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2766560596994966</v>
+        <v>-0.2640994295008419</v>
       </c>
       <c r="E29" t="n">
         <v>-0.4717263683946465</v>
@@ -1194,7 +1206,7 @@
         <v>-0.1380324601916616</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.1522674407889398</v>
+        <v>-0.1384602590412795</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -1205,10 +1217,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.4323332546576208</v>
+        <v>0.4308283037107169</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.341307419432309</v>
+        <v>-0.3280962200043755</v>
       </c>
       <c r="E30" t="n">
         <v>-0.6541617442573467</v>
@@ -1217,7 +1229,7 @@
         <v>-0.1489079646190707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.2184380109790802</v>
+        <v>-0.2176776288249868</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -1228,10 +1240,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>0.576421290917265</v>
+        <v>0.4919597885971803</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.2736949005130463</v>
+        <v>-0.261847272359937</v>
       </c>
       <c r="E31" t="n">
         <v>-0.3655074649719977</v>
@@ -1240,7 +1252,7 @@
         <v>-0.111125920574245</v>
       </c>
       <c r="G31" t="n">
-        <v>-0.1466309382072802</v>
+        <v>-0.1251454908049426</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -1251,19 +1263,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.8585436168137276</v>
+        <v>0.3659466597202247</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.2995240282402075</v>
+        <v>-0.2677614136019222</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.5200060067354982</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.02920010213168072</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.2353967442933396</v>
+        <v>-0.1796087813607302</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -1274,19 +1286,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2935950129123967</v>
+        <v>0.7788306235070719</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.2720553035864422</v>
+        <v>-0.2848549274484883</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.1548846863677966</v>
+        <v>-0.2135409192254157</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -1297,19 +1309,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>-4.58758035405836</v>
+        <v>0.2895643696002004</v>
       </c>
       <c r="D34" t="n">
-        <v>0.001677579824282932</v>
+        <v>-0.2593935152155616</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G34" t="n">
-        <v>0.1181327088850799</v>
+        <v>-0.1527583391963061</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1320,19 +1332,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.4552203323865905</v>
+        <v>0.1698382953613213</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.317731360275529</v>
+        <v>-0.2692830610818977</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.5121124845037205</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.04051352308810744</v>
+        <v>0.0002271183029031897</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.155693826467539</v>
+        <v>-0.08701488478677341</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1343,19 +1355,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.1173271841153897</v>
+        <v>1.105707209307202</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.2950328603341076</v>
+        <v>-0.3562649068014289</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.2347583634331879</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.0516398288214764</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.03347497219557189</v>
+        <v>-0.2024754838779398</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -1366,19 +1378,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.31366851150386</v>
+        <v>-4.466063583922051</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.2854778711748115</v>
+        <v>0.005643988043634529</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.0807722772591018</v>
+        <v>0.1150035854423769</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -1389,19 +1401,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.2481833658525524</v>
+        <v>0.3987824824473977</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.2752146160487612</v>
+        <v>-0.3002462866539918</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.1316411661188256</v>
+        <v>-0.136391031338495</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -1412,19 +1424,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9945843028619589</v>
+        <v>0.09046163976960173</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.4158317805578412</v>
+        <v>-0.2789495668608898</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.2038704828765698</v>
+        <v>-0.02580988284074953</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -1435,19 +1447,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.9465011234234821</v>
+        <v>0.241844853532934</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.3641213934304151</v>
+        <v>-0.2715824888056451</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.1577565213552327</v>
+        <v>-0.06227708184539467</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -1458,19 +1470,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>1.248630298627083</v>
+        <v>0.2256787935834537</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2745102670004252</v>
+        <v>-0.2627886904815661</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1406543160420174</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.03363115345720309</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.1336323634582916</v>
+        <v>-0.1197043140000998</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -1481,19 +1493,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8468282834711084</v>
+        <v>0.9911221563961701</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.4282181713881259</v>
+        <v>-0.4023611617297372</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.3057316541649393</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0008156890556644013</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.2595929604621326</v>
+        <v>-0.2031608100316047</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -1504,19 +1516,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.2078488827175524</v>
+        <v>0.8969684496334833</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.2790001006137264</v>
+        <v>-0.3467986077785584</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5129936739927624</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09022139165383412</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.1253775774330401</v>
+        <v>-0.1495007442439809</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -1527,19 +1539,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.275058450669911</v>
+        <v>1.227329467472321</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1745362029891824</v>
+        <v>-0.2616276098548738</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.1406543160420174</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.03363115345720309</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0912899519328194</v>
+        <v>-0.1313526811424237</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -1550,19 +1562,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>0.4011116570567202</v>
+        <v>0.8344017246922248</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2926079743802018</v>
+        <v>-0.4367460717824885</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.3057316541649393</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.06911952341634622</v>
+        <v>0.0008156890556644013</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.1937913716423956</v>
+        <v>-0.2557836318830912</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -1573,19 +1585,19 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>0.3944147456146429</v>
+        <v>0.1903344644874216</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.3180570814628554</v>
+        <v>-0.2662143620861135</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.5129936739927624</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.03693361474460386</v>
+        <v>0.09022139165383412</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.06888297599863814</v>
+        <v>-0.1148126164905898</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -1596,19 +1608,19 @@
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>0.9005629904418844</v>
+        <v>-0.2120756297149473</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.2752515862981738</v>
+        <v>-0.1860442021675798</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.2089186256223649</v>
+        <v>0.07038639967485938</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -1619,19 +1631,111 @@
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>0.6617375243559738</v>
+        <v>0.3997153884150847</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.3104440946321725</v>
+        <v>-0.2795662975967771</v>
       </c>
       <c r="E48" t="n">
+        <v>-0.552255249424409</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.06911952341634622</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.1931167843785168</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.3041017902828013</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.2967017127254564</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.2115796612337968</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.03693361474460386</v>
+      </c>
+      <c r="G49" t="n">
+        <v>-0.05311017540317692</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.8718931206930218</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.2624498214207657</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.2022675974896569</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.4262253825147015</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.3434844916694982</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.3070563276436176</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.04688077666599154</v>
+      </c>
+      <c r="G51" t="n">
+        <v>-0.1108934237364119</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.659434017827063</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.2973403303809942</v>
+      </c>
+      <c r="E52" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F52" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G48" t="n">
-        <v>-0.1492975618697036</v>
+      <c r="G52" t="n">
+        <v>-0.1487778574614459</v>
       </c>
     </row>
   </sheetData>
@@ -1645,7 +1749,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G48"/>
+  <dimension ref="A1:G52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1670,7 +1774,7 @@
         <v>4</v>
       </c>
       <c r="G1" s="1" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
     </row>
     <row r="2" spans="1:7">
@@ -1681,10 +1785,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.01397795325880796</v>
+        <v>0.03095103186489659</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1654349089157814</v>
+        <v>-0.1821227847252671</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1693,7 +1797,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.005760354584961463</v>
+        <v>-0.01275500890660797</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1704,10 +1808,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2054989378050588</v>
+        <v>0.1626266828558745</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1866935634168373</v>
+        <v>-0.1961675144142654</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1716,7 +1820,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.0753370120585401</v>
+        <v>-0.05961981360203307</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1727,10 +1831,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.0279070648080362</v>
+        <v>-0.02602492369441752</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.1330439991591754</v>
+        <v>-0.149413306394188</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -1739,7 +1843,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.023715928198059</v>
+        <v>0.02211645065299157</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1750,10 +1854,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.196922508562876</v>
+        <v>-0.2153188762211397</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1716582506364633</v>
+        <v>-0.1867385466752497</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -1762,7 +1866,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0767425349521124</v>
+        <v>0.08391177070027188</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1773,10 +1877,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.02808074819956824</v>
+        <v>-0.03325115917737856</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1617212459987773</v>
+        <v>-0.1757135232127625</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -1785,7 +1889,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01079914203602466</v>
+        <v>0.01278755068301553</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1796,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.007112137584146971</v>
+        <v>0.0489634754480206</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1643533782749233</v>
+        <v>-0.1837976367190652</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -1808,7 +1912,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.003145040865489495</v>
+        <v>-0.02165201802952552</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1819,10 +1923,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.007112137584146971</v>
+        <v>0.0489634754480206</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1643533782749233</v>
+        <v>-0.1837976367190652</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -1831,7 +1935,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.003145040865489495</v>
+        <v>-0.02165201802952552</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1842,10 +1946,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.01323992585585287</v>
+        <v>0.1120654780066477</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.1672547450889184</v>
+        <v>-0.2097319781070453</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -1854,7 +1958,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.003445342251204814</v>
+        <v>-0.02916209127463392</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1865,10 +1969,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.0279070648080362</v>
+        <v>-0.02602492369441752</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.1330439991591754</v>
+        <v>-0.149413306394188</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -1877,7 +1981,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.023715928198059</v>
+        <v>0.02211645065299157</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1888,10 +1992,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.0313001878534773</v>
+        <v>0.002121088319944411</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1696950316597603</v>
+        <v>-0.1782194799535289</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -1900,7 +2004,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.005450668878834683</v>
+        <v>-0.000369369990649955</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -1911,10 +2015,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5863348353008644</v>
+        <v>0.5004691735336841</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.1987815793609455</v>
+        <v>-0.2079286106380784</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -1923,7 +2027,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.0274261755147202</v>
+        <v>-0.02340975593919577</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -1934,10 +2038,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.1031458927670876</v>
+        <v>-0.0817388192819946</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.08480442345533784</v>
+        <v>-0.1154497689578741</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -1946,7 +2050,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.05271648489297288</v>
+        <v>0.04177561622912864</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -1957,10 +2061,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1739854367901433</v>
+        <v>0.1269978847792272</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.1998332051417274</v>
+        <v>-0.2043324464733242</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -1969,7 +2073,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.06318345672455021</v>
+        <v>-0.04611975292355217</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -1980,10 +2084,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.303444556729001</v>
+        <v>0.260850329143869</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.18848092465251</v>
+        <v>-0.1992883187907018</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -1992,7 +2096,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1185138315162773</v>
+        <v>-0.1018781562350807</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2003,10 +2107,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1055130062997235</v>
+        <v>0.1420631792588277</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.1831385330212765</v>
+        <v>-0.2042641264365827</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -2015,7 +2119,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02084767406463398</v>
+        <v>-0.02806940074629901</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2026,10 +2130,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.3715020022992265</v>
+        <v>-0.2783654352936772</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.1605397382312352</v>
+        <v>-0.175593837950815</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -2038,7 +2142,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>0.05121690549337551</v>
+        <v>0.0383766873497906</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2049,10 +2153,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.2163401877345135</v>
+        <v>-0.1841718075712836</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1428384230674198</v>
+        <v>-0.1602244583113679</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -2061,7 +2165,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02615166252459718</v>
+        <v>0.02226308023759233</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2072,10 +2176,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.07463340211187715</v>
+        <v>0.06865908079151564</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1679600262993367</v>
+        <v>-0.1819180366488277</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -2084,7 +2188,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.03301353002063016</v>
+        <v>-0.03037083344400903</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2095,10 +2199,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>-0.006475234313489731</v>
+        <v>0.02679851743474232</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1629094603275673</v>
+        <v>-0.1801678533039983</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -2107,7 +2211,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>0.001885230519659484</v>
+        <v>-0.00780224784211326</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2118,10 +2222,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1578514773059693</v>
+        <v>-0.1053974279550364</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1319740608075544</v>
+        <v>-0.1567606140730647</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -2130,7 +2234,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.03523704822275632</v>
+        <v>0.02352777632994416</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2141,10 +2245,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02023976996666546</v>
+        <v>0.02210075550825315</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.1710721500362877</v>
+        <v>-0.186086517530686</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -2153,7 +2257,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004188199223883488</v>
+        <v>-0.004573291456343285</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2164,10 +2268,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.07166295027181624</v>
+        <v>0.05761675954931225</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1712051672385636</v>
+        <v>-0.1840078674282154</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -2176,7 +2280,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.01184407288509555</v>
+        <v>-0.009522592872839925</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2187,10 +2291,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.1184201241472566</v>
+        <v>0.09108708283709613</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2011101593714204</v>
+        <v>-0.2067415146370113</v>
       </c>
       <c r="E24" t="n">
         <v>-0.3653683669055505</v>
@@ -2199,7 +2303,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.03568387735838728</v>
+        <v>-0.02744753323219263</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2210,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.1184201241472566</v>
+        <v>0.09108708283709613</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2011101593714204</v>
+        <v>-0.2067415146370113</v>
       </c>
       <c r="E25" t="n">
         <v>-0.3653683669055505</v>
@@ -2222,7 +2326,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.03568387735838728</v>
+        <v>-0.02744753323219263</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2233,10 +2337,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01721826669075449</v>
+        <v>-0.006658004025811126</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1681236116415269</v>
+        <v>-0.1760036046176182</v>
       </c>
       <c r="E26" t="n">
         <v>-0.4784023549028504</v>
@@ -2245,7 +2349,7 @@
         <v>-0.006981433652357011</v>
       </c>
       <c r="G26" t="n">
-        <v>-0.008117051145692167</v>
+        <v>0.003138722391537375</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2256,10 +2360,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.02567454402653629</v>
+        <v>-0.02480557000002176</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1630494854406569</v>
+        <v>-0.1773805969066039</v>
       </c>
       <c r="E27" t="n">
         <v>-0.3003788543237512</v>
@@ -2268,7 +2372,7 @@
         <v>-0.01238582173880454</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007394089794437914</v>
+        <v>0.007143831329304441</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2279,10 +2383,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.08127993282953327</v>
+        <v>0.09994640536469662</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.1840164613003856</v>
+        <v>-0.2030488157635853</v>
       </c>
       <c r="E28" t="n">
         <v>-0.5425791265252571</v>
@@ -2291,7 +2395,7 @@
         <v>0.004156822137837838</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.04443866118282751</v>
+        <v>-0.05464429275253365</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2302,10 +2406,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.2387382083607538</v>
+        <v>0.1833486654429739</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.1992941407699661</v>
+        <v>-0.2053018494865112</v>
       </c>
       <c r="E29" t="n">
         <v>-0.4717263683946465</v>
@@ -2314,7 +2418,7 @@
         <v>-0.1380324601916616</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.07966548578527843</v>
+        <v>-0.06118233273546752</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2325,10 +2429,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1227022397260364</v>
+        <v>0.1345286834854252</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.171702294436675</v>
+        <v>-0.1868110696517291</v>
       </c>
       <c r="E30" t="n">
         <v>-0.6541617442573467</v>
@@ -2337,7 +2441,7 @@
         <v>-0.1489079646190707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.0619957703916617</v>
+        <v>-0.06797112580077243</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2348,10 +2452,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.03592422131485978</v>
+        <v>-0.01820070859420347</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1560460984787445</v>
+        <v>-0.1740311221081552</v>
       </c>
       <c r="E31" t="n">
         <v>-0.3655074649719977</v>
@@ -2360,7 +2464,7 @@
         <v>-0.111125920574245</v>
       </c>
       <c r="G31" t="n">
-        <v>0.009138458899360697</v>
+        <v>0.00462992436132693</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2371,19 +2475,19 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>0.06478320320817887</v>
+        <v>-0.005374170466641848</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1669031523496904</v>
+        <v>-0.1775002524695218</v>
       </c>
       <c r="E32" t="n">
-        <v>-0.3468909966907724</v>
+        <v>-0.5200060067354982</v>
       </c>
       <c r="F32" t="n">
-        <v>-0.07270953440589001</v>
+        <v>-0.02920010213168072</v>
       </c>
       <c r="G32" t="n">
-        <v>-0.01776235338711717</v>
+        <v>0.002637674597375272</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2394,19 +2498,19 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0169226984692738</v>
+        <v>0.0905407595704163</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1664011467960527</v>
+        <v>-0.1825798742672935</v>
       </c>
       <c r="E33" t="n">
-        <v>-0.6006553252866136</v>
+        <v>-0.3468909966907724</v>
       </c>
       <c r="F33" t="n">
-        <v>-0.07310996669426154</v>
+        <v>-0.07270953440589001</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.008927491032323294</v>
+        <v>-0.0248245978554007</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2417,19 +2521,19 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>-0.2744042074907718</v>
+        <v>0.0341603606226196</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1565870423918417</v>
+        <v>-0.1836911264533029</v>
       </c>
       <c r="E34" t="n">
-        <v>-0.03058677999651533</v>
+        <v>-0.6006553252866136</v>
       </c>
       <c r="F34" t="n">
-        <v>-0.00483623182778953</v>
+        <v>-0.07310996669426154</v>
       </c>
       <c r="G34" t="n">
-        <v>0.007066058762692146</v>
+        <v>-0.01802113969430392</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2440,19 +2544,19 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>-0.2002958012863793</v>
+        <v>0.06316068680449062</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.1158317206331583</v>
+        <v>-0.2124816695794207</v>
       </c>
       <c r="E35" t="n">
-        <v>-0.3825321355944528</v>
+        <v>-0.5121124845037205</v>
       </c>
       <c r="F35" t="n">
-        <v>-0.04051352308810744</v>
+        <v>0.0002271183029031897</v>
       </c>
       <c r="G35" t="n">
-        <v>0.06850489204681411</v>
+        <v>-0.03235972119040628</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2463,19 +2567,19 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.03213600066634631</v>
+        <v>0.06293924893942837</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1815338690937627</v>
+        <v>-0.1819818257648306</v>
       </c>
       <c r="E36" t="n">
-        <v>-0.4071455430831104</v>
+        <v>-0.2347583634331879</v>
       </c>
       <c r="F36" t="n">
-        <v>-0.121832531883168</v>
+        <v>-0.0516398288214764</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.00916881911803862</v>
+        <v>-0.01152534303534984</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2486,19 +2590,19 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>-0.120681874072585</v>
+        <v>0.1585781034244528</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1493594579974419</v>
+        <v>-0.1817830235147908</v>
       </c>
       <c r="E37" t="n">
-        <v>-0.2783813086559444</v>
+        <v>-0.03058677999651533</v>
       </c>
       <c r="F37" t="n">
-        <v>-0.02087290632430706</v>
+        <v>-0.00483623182778953</v>
       </c>
       <c r="G37" t="n">
-        <v>0.03107659658281921</v>
+        <v>-0.004083473090736553</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2509,19 +2613,19 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03771582296305193</v>
+        <v>-0.1900168035861367</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1823902019946616</v>
+        <v>-0.1325935616800544</v>
       </c>
       <c r="E38" t="n">
-        <v>-0.5522783488794601</v>
+        <v>-0.3825321355944528</v>
       </c>
       <c r="F38" t="n">
-        <v>-0.02185937552636825</v>
+        <v>-0.04051352308810744</v>
       </c>
       <c r="G38" t="n">
-        <v>-0.02000518809522897</v>
+        <v>0.06498928351542123</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2532,19 +2636,19 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>-0.3855183985497668</v>
+        <v>0.03357794320781228</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1167976091065462</v>
+        <v>-0.1966603314470507</v>
       </c>
       <c r="E39" t="n">
-        <v>-0.2627194170384837</v>
+        <v>-0.4071455430831104</v>
       </c>
       <c r="F39" t="n">
-        <v>-0.05773882133641615</v>
+        <v>-0.121832531883168</v>
       </c>
       <c r="G39" t="n">
-        <v>0.07902379098883827</v>
+        <v>-0.009580224086521575</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2555,19 +2659,19 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1327759649714759</v>
+        <v>-0.08968062363924489</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1480712854318375</v>
+        <v>-0.1673037804842296</v>
       </c>
       <c r="E40" t="n">
-        <v>-0.2190050510614926</v>
+        <v>-0.2783813086559444</v>
       </c>
       <c r="F40" t="n">
-        <v>-0.05233169225487078</v>
+        <v>-0.02087290632430706</v>
       </c>
       <c r="G40" t="n">
-        <v>-0.02213021605058626</v>
+        <v>0.02309351411344682</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2578,19 +2682,19 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.2342423580025962</v>
+        <v>0.04473861488267197</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.1690229530810884</v>
+        <v>-0.2002274410009253</v>
       </c>
       <c r="E41" t="n">
-        <v>-0.1406543160420174</v>
+        <v>-0.5522783488794601</v>
       </c>
       <c r="F41" t="n">
-        <v>-0.03363115345720309</v>
+        <v>-0.02185937552636825</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02506935796476214</v>
+        <v>-0.02373021017530622</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2601,19 +2705,19 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>0.2358970308987796</v>
+        <v>-0.3448808533222099</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.2307091682528392</v>
+        <v>-0.1360350876046038</v>
       </c>
       <c r="E42" t="n">
-        <v>-0.3057316541649393</v>
+        <v>-0.2627194170384837</v>
       </c>
       <c r="F42" t="n">
-        <v>0.0008156890556644013</v>
+        <v>-0.05773882133641615</v>
       </c>
       <c r="G42" t="n">
-        <v>-0.07231360809564955</v>
+        <v>0.07069388276022395</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2624,19 +2728,19 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.07739365423357078</v>
+        <v>0.09928866777542111</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1773531005113587</v>
+        <v>-0.1662744734021106</v>
       </c>
       <c r="E43" t="n">
-        <v>-0.5129936739927624</v>
+        <v>-0.2190050510614926</v>
       </c>
       <c r="F43" t="n">
-        <v>0.09022139165383412</v>
+        <v>-0.05233169225487078</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.04668501821913339</v>
+        <v>-0.01654877574956423</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2647,19 +2751,19 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>-0.0890399569144037</v>
+        <v>0.2941296661304203</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1528537736773185</v>
+        <v>-0.1847560553425975</v>
       </c>
       <c r="E44" t="n">
-        <v>-0.4366784538562998</v>
+        <v>-0.1406543160420174</v>
       </c>
       <c r="F44" t="n">
-        <v>-0.1047855354221245</v>
+        <v>-0.03363115345720309</v>
       </c>
       <c r="G44" t="n">
-        <v>0.02955173115757467</v>
+        <v>-0.03147868707929313</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2670,19 +2774,19 @@
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>0.04856564341279579</v>
+        <v>0.1735016486616089</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.1723884342608514</v>
+        <v>-0.2272438725244541</v>
       </c>
       <c r="E45" t="n">
-        <v>-0.552255249424409</v>
+        <v>-0.3057316541649393</v>
       </c>
       <c r="F45" t="n">
-        <v>-0.06911952341634622</v>
+        <v>0.0008156890556644013</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.02346379738928979</v>
+        <v>-0.05318646944161084</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2693,19 +2797,19 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>-0.1174568403404984</v>
+        <v>0.06900173015870252</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1372186423864782</v>
+        <v>-0.1901655043709271</v>
       </c>
       <c r="E46" t="n">
-        <v>-0.2115796612337968</v>
+        <v>-0.5129936739927624</v>
       </c>
       <c r="F46" t="n">
-        <v>-0.03693361474460386</v>
+        <v>0.09022139165383412</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0205133727985804</v>
+        <v>-0.04162288318741048</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2716,19 +2820,19 @@
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>0.2065736547742122</v>
+        <v>-0.0425566845158728</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1788373102765828</v>
+        <v>-0.1727186939046678</v>
       </c>
       <c r="E47" t="n">
-        <v>-0.3141388711706843</v>
+        <v>-0.4366784538562998</v>
       </c>
       <c r="F47" t="n">
-        <v>-0.0821521830214704</v>
+        <v>-0.1047855354221245</v>
       </c>
       <c r="G47" t="n">
-        <v>-0.04792233802994855</v>
+        <v>0.0141242622228555</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2739,19 +2843,111 @@
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>-0.06075359638209199</v>
+        <v>0.07704139079403682</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1654729962132952</v>
+        <v>-0.1919270803286772</v>
       </c>
       <c r="E48" t="n">
+        <v>-0.552255249424409</v>
+      </c>
+      <c r="F48" t="n">
+        <v>-0.06911952341634622</v>
+      </c>
+      <c r="G48" t="n">
+        <v>-0.03722144827394786</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>53</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-0.1325630064876842</v>
+      </c>
+      <c r="D49" t="n">
+        <v>-0.1481573798019965</v>
+      </c>
+      <c r="E49" t="n">
+        <v>-0.2115796612337968</v>
+      </c>
+      <c r="F49" t="n">
+        <v>-0.03693361474460386</v>
+      </c>
+      <c r="G49" t="n">
+        <v>0.02315160499379528</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>54</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.2787382161045863</v>
+      </c>
+      <c r="D50" t="n">
+        <v>-0.1985180266972094</v>
+      </c>
+      <c r="E50" t="n">
+        <v>-0.3141388711706843</v>
+      </c>
+      <c r="F50" t="n">
+        <v>-0.0821521830214704</v>
+      </c>
+      <c r="G50" t="n">
+        <v>-0.06466355561472284</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>55</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-0.01356611142704922</v>
+      </c>
+      <c r="D51" t="n">
+        <v>-0.1721715242209332</v>
+      </c>
+      <c r="E51" t="n">
+        <v>-0.3070563276436176</v>
+      </c>
+      <c r="F51" t="n">
+        <v>-0.04688077666599154</v>
+      </c>
+      <c r="G51" t="n">
+        <v>0.003529570515156399</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>56</v>
+      </c>
+      <c r="C52" t="n">
+        <v>0.02057920492538257</v>
+      </c>
+      <c r="D52" t="n">
+        <v>-0.1771240216711916</v>
+      </c>
+      <c r="E52" t="n">
         <v>-0.3712572385230804</v>
       </c>
-      <c r="F48" t="n">
+      <c r="F52" t="n">
         <v>-0.1456427669620106</v>
       </c>
-      <c r="G48" t="n">
-        <v>0.01370689054318021</v>
+      <c r="G52" t="n">
+        <v>-0.004642966444387153</v>
       </c>
     </row>
   </sheetData>

--- a/Output/covar.xlsx
+++ b/Output/covar.xlsx
@@ -1309,7 +1309,7 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.2895643696002004</v>
+        <v>0.2895643696002003</v>
       </c>
       <c r="D34" t="n">
         <v>-0.2593935152155616</v>
@@ -1321,7 +1321,7 @@
         <v>-0.07310996669426154</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.1527583391963061</v>
+        <v>-0.152758339196306</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -1335,7 +1335,7 @@
         <v>0.1698382953613213</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2692830610818977</v>
+        <v>-0.2692830610818978</v>
       </c>
       <c r="E35" t="n">
         <v>-0.5121124845037205</v>
@@ -1344,7 +1344,7 @@
         <v>0.0002271183029031897</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.08701488478677341</v>
+        <v>-0.08701488478677338</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -1700,19 +1700,19 @@
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>0.4262253825147015</v>
+        <v>1.621938185613885</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.3434844916694982</v>
+        <v>-0.6361521799497748</v>
       </c>
       <c r="E51" t="n">
         <v>-0.3070563276436176</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.04688077666599154</v>
+        <v>-0.09704241925862264</v>
       </c>
       <c r="G51" t="n">
-        <v>-0.1108934237364119</v>
+        <v>-0.3406295775196392</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -1785,10 +1785,10 @@
         <v>6</v>
       </c>
       <c r="C2" t="n">
-        <v>0.03095103186489659</v>
+        <v>0.02200737791306143</v>
       </c>
       <c r="D2" t="n">
-        <v>-0.1821227847252671</v>
+        <v>-0.1770058286717753</v>
       </c>
       <c r="E2" t="n">
         <v>-0.4576570057588757</v>
@@ -1797,7 +1797,7 @@
         <v>-0.04555414074666971</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.01275500890660797</v>
+        <v>-0.009069303489378958</v>
       </c>
     </row>
     <row r="3" spans="1:7">
@@ -1808,10 +1808,10 @@
         <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>0.1626266828558745</v>
+        <v>0.1123539545647927</v>
       </c>
       <c r="D3" t="n">
-        <v>-0.1961675144142654</v>
+        <v>-0.1868602282138387</v>
       </c>
       <c r="E3" t="n">
         <v>-0.3620777838639835</v>
@@ -1820,7 +1820,7 @@
         <v>0.004527576062531471</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.05961981360203307</v>
+        <v>-0.04118956195239315</v>
       </c>
     </row>
     <row r="4" spans="1:7">
@@ -1831,10 +1831,10 @@
         <v>8</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.02602492369441752</v>
+        <v>-0.01997474085573748</v>
       </c>
       <c r="D4" t="n">
-        <v>-0.149413306394188</v>
+        <v>-0.1538686001833149</v>
       </c>
       <c r="E4" t="n">
         <v>-0.8539629754327032</v>
@@ -1843,7 +1843,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G4" t="n">
-        <v>0.02211645065299157</v>
+        <v>0.01697489589708094</v>
       </c>
     </row>
     <row r="5" spans="1:7">
@@ -1854,10 +1854,10 @@
         <v>9</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.2153188762211397</v>
+        <v>-0.2420904526199969</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.1867385466752497</v>
+        <v>-0.183574128654151</v>
       </c>
       <c r="E5" t="n">
         <v>-0.5861330664460952</v>
@@ -1866,7 +1866,7 @@
         <v>-0.1964237563617732</v>
       </c>
       <c r="G5" t="n">
-        <v>0.08391177070027188</v>
+        <v>0.09434490326854024</v>
       </c>
     </row>
     <row r="6" spans="1:7">
@@ -1877,10 +1877,10 @@
         <v>10</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.03325115917737856</v>
+        <v>-0.05031579141572087</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.1757135232127625</v>
+        <v>-0.1705590424843849</v>
       </c>
       <c r="E6" t="n">
         <v>-0.4367629114829378</v>
@@ -1889,7 +1889,7 @@
         <v>-0.05218832823908018</v>
       </c>
       <c r="G6" t="n">
-        <v>0.01278755068301553</v>
+        <v>0.01935017451428572</v>
       </c>
     </row>
     <row r="7" spans="1:7">
@@ -1900,10 +1900,10 @@
         <v>11</v>
       </c>
       <c r="C7" t="n">
-        <v>0.0489634754480206</v>
+        <v>0.08205302026915262</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.1837976367190652</v>
+        <v>-0.183741515721216</v>
       </c>
       <c r="E7" t="n">
         <v>-0.4953582044065317</v>
@@ -1912,7 +1912,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.02165201802952552</v>
+        <v>-0.03628446424581851</v>
       </c>
     </row>
     <row r="8" spans="1:7">
@@ -1923,10 +1923,10 @@
         <v>12</v>
       </c>
       <c r="C8" t="n">
-        <v>0.0489634754480206</v>
+        <v>0.08205302026915262</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.1837976367190652</v>
+        <v>-0.1837415157212159</v>
       </c>
       <c r="E8" t="n">
         <v>-0.4953582044065317</v>
@@ -1935,7 +1935,7 @@
         <v>-0.05315066436964837</v>
       </c>
       <c r="G8" t="n">
-        <v>-0.02165201802952552</v>
+        <v>-0.03628446424581851</v>
       </c>
     </row>
     <row r="9" spans="1:7">
@@ -1946,10 +1946,10 @@
         <v>13</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1120654780066477</v>
+        <v>0.1200867680292372</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.2097319781070453</v>
+        <v>-0.2080774747677486</v>
       </c>
       <c r="E9" t="n">
         <v>-0.262631449293981</v>
@@ -1958,7 +1958,7 @@
         <v>-0.002407767627232283</v>
       </c>
       <c r="G9" t="n">
-        <v>-0.02916209127463392</v>
+        <v>-0.03124942089602893</v>
       </c>
     </row>
     <row r="10" spans="1:7">
@@ -1969,10 +1969,10 @@
         <v>14</v>
       </c>
       <c r="C10" t="n">
-        <v>-0.02602492369441752</v>
+        <v>-0.01997474085573748</v>
       </c>
       <c r="D10" t="n">
-        <v>-0.149413306394188</v>
+        <v>-0.1538686001833149</v>
       </c>
       <c r="E10" t="n">
         <v>-0.8539629754327032</v>
@@ -1981,7 +1981,7 @@
         <v>-0.004144896706283483</v>
       </c>
       <c r="G10" t="n">
-        <v>0.02211645065299157</v>
+        <v>0.01697489589708094</v>
       </c>
     </row>
     <row r="11" spans="1:7">
@@ -1992,10 +1992,10 @@
         <v>15</v>
       </c>
       <c r="C11" t="n">
-        <v>0.002121088319944411</v>
+        <v>-0.1201844459886656</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.1782194799535289</v>
+        <v>-0.148501931066102</v>
       </c>
       <c r="E11" t="n">
         <v>-0.2789982479436891</v>
@@ -2004,7 +2004,7 @@
         <v>-0.1048565174099811</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.000369369990649955</v>
+        <v>0.02092912740770118</v>
       </c>
     </row>
     <row r="12" spans="1:7">
@@ -2015,10 +2015,10 @@
         <v>16</v>
       </c>
       <c r="C12" t="n">
-        <v>0.5004691735336841</v>
+        <v>0.4072097071993893</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.2079286106380784</v>
+        <v>-0.1991536676088465</v>
       </c>
       <c r="E12" t="n">
         <v>-0.07643545344396332</v>
@@ -2027,7 +2027,7 @@
         <v>-0.02965983333152862</v>
       </c>
       <c r="G12" t="n">
-        <v>-0.02340975593919577</v>
+        <v>-0.0190474865700544</v>
       </c>
     </row>
     <row r="13" spans="1:7">
@@ -2038,10 +2038,10 @@
         <v>17</v>
       </c>
       <c r="C13" t="n">
-        <v>-0.0817388192819946</v>
+        <v>-0.04766430790173862</v>
       </c>
       <c r="D13" t="n">
-        <v>-0.1154497689578741</v>
+        <v>-0.1386705798647215</v>
       </c>
       <c r="E13" t="n">
         <v>-0.6170223666373371</v>
@@ -2050,7 +2050,7 @@
         <v>-0.1059357544732321</v>
       </c>
       <c r="G13" t="n">
-        <v>0.04177561622912864</v>
+        <v>0.02436058964664637</v>
       </c>
     </row>
     <row r="14" spans="1:7">
@@ -2061,10 +2061,10 @@
         <v>18</v>
       </c>
       <c r="C14" t="n">
-        <v>0.1269978847792272</v>
+        <v>0.06241698155857062</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.2043324464733242</v>
+        <v>-0.1878171482018598</v>
       </c>
       <c r="E14" t="n">
         <v>-0.3615879556093179</v>
@@ -2073,7 +2073,7 @@
         <v>0.001565753633372538</v>
       </c>
       <c r="G14" t="n">
-        <v>-0.04611975292355217</v>
+        <v>-0.02266695837272752</v>
       </c>
     </row>
     <row r="15" spans="1:7">
@@ -2084,10 +2084,10 @@
         <v>19</v>
       </c>
       <c r="C15" t="n">
-        <v>0.260850329143869</v>
+        <v>0.2603103776560171</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.1992883187907018</v>
+        <v>-0.195316499242507</v>
       </c>
       <c r="E15" t="n">
         <v>-0.4665234793132788</v>
@@ -2096,7 +2096,7 @@
         <v>-0.07596174772776487</v>
       </c>
       <c r="G15" t="n">
-        <v>-0.1018781562350807</v>
+        <v>-0.1016672718470131</v>
       </c>
     </row>
     <row r="16" spans="1:7">
@@ -2107,10 +2107,10 @@
         <v>20</v>
       </c>
       <c r="C16" t="n">
-        <v>0.1420631792588277</v>
+        <v>0.1806765337805506</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.2042641264365827</v>
+        <v>-0.2071856521665351</v>
       </c>
       <c r="E16" t="n">
         <v>-0.2057813985096446</v>
@@ -2119,7 +2119,7 @@
         <v>-0.008197472169668612</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.02806940074629901</v>
+        <v>-0.03569877894185849</v>
       </c>
     </row>
     <row r="17" spans="1:7">
@@ -2130,10 +2130,10 @@
         <v>21</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.2783654352936772</v>
+        <v>0.1469988246205762</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.175593837950815</v>
+        <v>-0.1743588898758653</v>
       </c>
       <c r="E17" t="n">
         <v>-0.1125772802437477</v>
@@ -2142,7 +2142,7 @@
         <v>0.02528713280488728</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0383766873497906</v>
+        <v>-0.02026590667515498</v>
       </c>
     </row>
     <row r="18" spans="1:7">
@@ -2153,10 +2153,10 @@
         <v>22</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.1841718075712836</v>
+        <v>0.1160622966826016</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.1602244583113679</v>
+        <v>-0.1843785638325003</v>
       </c>
       <c r="E18" t="n">
         <v>-0.1301797247799175</v>
@@ -2165,7 +2165,7 @@
         <v>-0.009297595581204967</v>
       </c>
       <c r="G18" t="n">
-        <v>0.02226308023759233</v>
+        <v>-0.01402985754268555</v>
       </c>
     </row>
     <row r="19" spans="1:7">
@@ -2176,10 +2176,10 @@
         <v>23</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06865908079151564</v>
+        <v>-0.002473917975589157</v>
       </c>
       <c r="D19" t="n">
-        <v>-0.1819180366488277</v>
+        <v>-0.1736619831692433</v>
       </c>
       <c r="E19" t="n">
         <v>-0.4546486151150617</v>
@@ -2188,7 +2188,7 @@
         <v>-0.01230605687093749</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.03037083344400903</v>
+        <v>0.001094319206208232</v>
       </c>
     </row>
     <row r="20" spans="1:7">
@@ -2199,10 +2199,10 @@
         <v>24</v>
       </c>
       <c r="C20" t="n">
-        <v>0.02679851743474232</v>
+        <v>0.06444210747384566</v>
       </c>
       <c r="D20" t="n">
-        <v>-0.1801678533039983</v>
+        <v>-0.179069742880763</v>
       </c>
       <c r="E20" t="n">
         <v>-0.3364825360131138</v>
@@ -2211,7 +2211,7 @@
         <v>-0.04533777917674435</v>
       </c>
       <c r="G20" t="n">
-        <v>-0.00780224784211326</v>
+        <v>-0.01876198171049598</v>
       </c>
     </row>
     <row r="21" spans="1:7">
@@ -2222,10 +2222,10 @@
         <v>25</v>
       </c>
       <c r="C21" t="n">
-        <v>-0.1053974279550364</v>
+        <v>-0.01944938655319561</v>
       </c>
       <c r="D21" t="n">
-        <v>-0.1567606140730647</v>
+        <v>-0.1701357389926229</v>
       </c>
       <c r="E21" t="n">
         <v>-0.1743198450688082</v>
@@ -2234,7 +2234,7 @@
         <v>0.04890928667035862</v>
       </c>
       <c r="G21" t="n">
-        <v>0.02352777632994416</v>
+        <v>0.004341669673129284</v>
       </c>
     </row>
     <row r="22" spans="1:7">
@@ -2245,10 +2245,10 @@
         <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>0.02210075550825315</v>
+        <v>-0.02061964248096165</v>
       </c>
       <c r="D22" t="n">
-        <v>-0.186086517530686</v>
+        <v>-0.1659792842766016</v>
       </c>
       <c r="E22" t="n">
         <v>-0.1878356237037364</v>
@@ -2257,7 +2257,7 @@
         <v>0.01909356722982552</v>
       </c>
       <c r="G22" t="n">
-        <v>-0.004573291456343285</v>
+        <v>0.004266805935924697</v>
       </c>
     </row>
     <row r="23" spans="1:7">
@@ -2268,10 +2268,10 @@
         <v>27</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05761675954931225</v>
+        <v>0.02639323361536033</v>
       </c>
       <c r="D23" t="n">
-        <v>-0.1840078674282154</v>
+        <v>-0.1767576812291418</v>
       </c>
       <c r="E23" t="n">
         <v>-0.2097093588016761</v>
@@ -2280,7 +2280,7 @@
         <v>-0.04443465492510944</v>
       </c>
       <c r="G23" t="n">
-        <v>-0.009522592872839925</v>
+        <v>-0.004362133870123723</v>
       </c>
     </row>
     <row r="24" spans="1:7">
@@ -2291,10 +2291,10 @@
         <v>28</v>
       </c>
       <c r="C24" t="n">
-        <v>0.09108708283709613</v>
+        <v>0.02273727405625978</v>
       </c>
       <c r="D24" t="n">
-        <v>-0.2067415146370113</v>
+        <v>-0.1813169408427489</v>
       </c>
       <c r="E24" t="n">
         <v>-0.3653683669055505</v>
@@ -2303,7 +2303,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G24" t="n">
-        <v>-0.02744753323219263</v>
+        <v>-0.00685148833215787</v>
       </c>
     </row>
     <row r="25" spans="1:7">
@@ -2314,10 +2314,10 @@
         <v>29</v>
       </c>
       <c r="C25" t="n">
-        <v>0.09108708283709613</v>
+        <v>0.02273727405625978</v>
       </c>
       <c r="D25" t="n">
-        <v>-0.2067415146370113</v>
+        <v>-0.1813169408427489</v>
       </c>
       <c r="E25" t="n">
         <v>-0.3653683669055505</v>
@@ -2326,7 +2326,7 @@
         <v>-0.06403548437948565</v>
       </c>
       <c r="G25" t="n">
-        <v>-0.02744753323219263</v>
+        <v>-0.00685148833215787</v>
       </c>
     </row>
     <row r="26" spans="1:7">
@@ -2337,10 +2337,10 @@
         <v>30</v>
       </c>
       <c r="C26" t="n">
-        <v>-0.006658004025811126</v>
+        <v>-0.06740256715233123</v>
       </c>
       <c r="D26" t="n">
-        <v>-0.1760036046176182</v>
+        <v>-0.1550520460571481</v>
       </c>
       <c r="E26" t="n">
         <v>-0.4784023549028504</v>
@@ -2349,7 +2349,7 @@
         <v>-0.006981433652357011</v>
       </c>
       <c r="G26" t="n">
-        <v>0.003138722391537375</v>
+        <v>0.03177498030160023</v>
       </c>
     </row>
     <row r="27" spans="1:7">
@@ -2360,10 +2360,10 @@
         <v>31</v>
       </c>
       <c r="C27" t="n">
-        <v>-0.02480557000002176</v>
+        <v>-0.04842301188265238</v>
       </c>
       <c r="D27" t="n">
-        <v>-0.1773805969066039</v>
+        <v>-0.1729773011926483</v>
       </c>
       <c r="E27" t="n">
         <v>-0.3003788543237512</v>
@@ -2372,7 +2372,7 @@
         <v>-0.01238582173880454</v>
       </c>
       <c r="G27" t="n">
-        <v>0.007143831329304441</v>
+        <v>0.01394549003898197</v>
       </c>
     </row>
     <row r="28" spans="1:7">
@@ -2383,10 +2383,10 @@
         <v>32</v>
       </c>
       <c r="C28" t="n">
-        <v>0.09994640536469662</v>
+        <v>0.05287583970818455</v>
       </c>
       <c r="D28" t="n">
-        <v>-0.2030488157635853</v>
+        <v>-0.187425234954356</v>
       </c>
       <c r="E28" t="n">
         <v>-0.5425791265252571</v>
@@ -2395,7 +2395,7 @@
         <v>0.004156822137837838</v>
       </c>
       <c r="G28" t="n">
-        <v>-0.05464429275253365</v>
+        <v>-0.02890912238421202</v>
       </c>
     </row>
     <row r="29" spans="1:7">
@@ -2406,10 +2406,10 @@
         <v>33</v>
       </c>
       <c r="C29" t="n">
-        <v>0.1833486654429739</v>
+        <v>0.1059222356190348</v>
       </c>
       <c r="D29" t="n">
-        <v>-0.2053018494865112</v>
+        <v>-0.1915921785511155</v>
       </c>
       <c r="E29" t="n">
         <v>-0.4717263683946465</v>
@@ -2418,7 +2418,7 @@
         <v>-0.1380324601916616</v>
       </c>
       <c r="G29" t="n">
-        <v>-0.06118233273546752</v>
+        <v>-0.03534560476931313</v>
       </c>
     </row>
     <row r="30" spans="1:7">
@@ -2429,10 +2429,10 @@
         <v>34</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1345286834854252</v>
+        <v>0.08206043898544335</v>
       </c>
       <c r="D30" t="n">
-        <v>-0.1868110696517291</v>
+        <v>-0.179505209325636</v>
       </c>
       <c r="E30" t="n">
         <v>-0.6541617442573467</v>
@@ -2441,7 +2441,7 @@
         <v>-0.1489079646190707</v>
       </c>
       <c r="G30" t="n">
-        <v>-0.06797112580077243</v>
+        <v>-0.04146134695617139</v>
       </c>
     </row>
     <row r="31" spans="1:7">
@@ -2452,10 +2452,10 @@
         <v>35</v>
       </c>
       <c r="C31" t="n">
-        <v>-0.01820070859420347</v>
+        <v>-0.08664195251842433</v>
       </c>
       <c r="D31" t="n">
-        <v>-0.1740311221081552</v>
+        <v>-0.1556341983555443</v>
       </c>
       <c r="E31" t="n">
         <v>-0.3655074649719977</v>
@@ -2464,7 +2464,7 @@
         <v>-0.111125920574245</v>
       </c>
       <c r="G31" t="n">
-        <v>0.00462992436132693</v>
+        <v>0.02204011369127354</v>
       </c>
     </row>
     <row r="32" spans="1:7">
@@ -2475,10 +2475,10 @@
         <v>36</v>
       </c>
       <c r="C32" t="n">
-        <v>-0.005374170466641848</v>
+        <v>0.1125315834462492</v>
       </c>
       <c r="D32" t="n">
-        <v>-0.1775002524695218</v>
+        <v>-0.1795574210736823</v>
       </c>
       <c r="E32" t="n">
         <v>-0.5200060067354982</v>
@@ -2487,7 +2487,7 @@
         <v>-0.02920010213168072</v>
       </c>
       <c r="G32" t="n">
-        <v>0.002637674597375272</v>
+        <v>-0.0552311656098363</v>
       </c>
     </row>
     <row r="33" spans="1:7">
@@ -2498,10 +2498,10 @@
         <v>37</v>
       </c>
       <c r="C33" t="n">
-        <v>0.0905407595704163</v>
+        <v>0.1007080389337746</v>
       </c>
       <c r="D33" t="n">
-        <v>-0.1825798742672935</v>
+        <v>-0.1791360847523622</v>
       </c>
       <c r="E33" t="n">
         <v>-0.3468909966907724</v>
@@ -2510,7 +2510,7 @@
         <v>-0.07270953440589001</v>
       </c>
       <c r="G33" t="n">
-        <v>-0.0248245978554007</v>
+        <v>-0.02761227737870518</v>
       </c>
     </row>
     <row r="34" spans="1:7">
@@ -2521,10 +2521,10 @@
         <v>38</v>
       </c>
       <c r="C34" t="n">
-        <v>0.0341603606226196</v>
+        <v>0.01167552204387778</v>
       </c>
       <c r="D34" t="n">
-        <v>-0.1836911264533029</v>
+        <v>-0.1759752413632129</v>
       </c>
       <c r="E34" t="n">
         <v>-0.6006553252866136</v>
@@ -2533,7 +2533,7 @@
         <v>-0.07310996669426154</v>
       </c>
       <c r="G34" t="n">
-        <v>-0.01802113969430392</v>
+        <v>-0.006159367463390417</v>
       </c>
     </row>
     <row r="35" spans="1:7">
@@ -2544,10 +2544,10 @@
         <v>39</v>
       </c>
       <c r="C35" t="n">
-        <v>0.06316068680449062</v>
+        <v>0.04935214558874275</v>
       </c>
       <c r="D35" t="n">
-        <v>-0.2124816695794207</v>
+        <v>-0.2017544130201697</v>
       </c>
       <c r="E35" t="n">
         <v>-0.5121124845037205</v>
@@ -2556,7 +2556,7 @@
         <v>0.0002271183029031897</v>
       </c>
       <c r="G35" t="n">
-        <v>-0.03235972119040628</v>
+        <v>-0.02528505866859113</v>
       </c>
     </row>
     <row r="36" spans="1:7">
@@ -2567,10 +2567,10 @@
         <v>40</v>
       </c>
       <c r="C36" t="n">
-        <v>0.06293924893942837</v>
+        <v>-0.1122027072320677</v>
       </c>
       <c r="D36" t="n">
-        <v>-0.1819818257648306</v>
+        <v>-0.1660316374637542</v>
       </c>
       <c r="E36" t="n">
         <v>-0.2347583634331879</v>
@@ -2579,7 +2579,7 @@
         <v>-0.0516398288214764</v>
       </c>
       <c r="G36" t="n">
-        <v>-0.01152534303534984</v>
+        <v>0.02054639532780312</v>
       </c>
     </row>
     <row r="37" spans="1:7">
@@ -2590,10 +2590,10 @@
         <v>41</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1585781034244528</v>
+        <v>0.4471471212771105</v>
       </c>
       <c r="D37" t="n">
-        <v>-0.1817830235147908</v>
+        <v>-0.185033516739273</v>
       </c>
       <c r="E37" t="n">
         <v>-0.03058677999651533</v>
@@ -2602,7 +2602,7 @@
         <v>-0.00483623182778953</v>
       </c>
       <c r="G37" t="n">
-        <v>-0.004083473090736553</v>
+        <v>-0.01151428348495331</v>
       </c>
     </row>
     <row r="38" spans="1:7">
@@ -2613,10 +2613,10 @@
         <v>42</v>
       </c>
       <c r="C38" t="n">
-        <v>-0.1900168035861367</v>
+        <v>-0.1455166323485028</v>
       </c>
       <c r="D38" t="n">
-        <v>-0.1325935616800544</v>
+        <v>-0.1408184917180388</v>
       </c>
       <c r="E38" t="n">
         <v>-0.3825321355944528</v>
@@ -2625,7 +2625,7 @@
         <v>-0.04051352308810744</v>
       </c>
       <c r="G38" t="n">
-        <v>0.06498928351542123</v>
+        <v>0.04976939669243091</v>
       </c>
     </row>
     <row r="39" spans="1:7">
@@ -2636,10 +2636,10 @@
         <v>43</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03357794320781228</v>
+        <v>0.004485784516359448</v>
       </c>
       <c r="D39" t="n">
-        <v>-0.1966603314470507</v>
+        <v>-0.1764327185526282</v>
       </c>
       <c r="E39" t="n">
         <v>-0.4071455430831104</v>
@@ -2648,7 +2648,7 @@
         <v>-0.121832531883168</v>
       </c>
       <c r="G39" t="n">
-        <v>-0.009580224086521575</v>
+        <v>-0.001279852687956591</v>
       </c>
     </row>
     <row r="40" spans="1:7">
@@ -2659,10 +2659,10 @@
         <v>44</v>
       </c>
       <c r="C40" t="n">
-        <v>-0.08968062363924489</v>
+        <v>-0.0520220271220265</v>
       </c>
       <c r="D40" t="n">
-        <v>-0.1673037804842296</v>
+        <v>-0.1680467112069137</v>
       </c>
       <c r="E40" t="n">
         <v>-0.2783813086559444</v>
@@ -2671,7 +2671,7 @@
         <v>-0.02087290632430706</v>
       </c>
       <c r="G40" t="n">
-        <v>0.02309351411344682</v>
+        <v>0.01339610909024615</v>
       </c>
     </row>
     <row r="41" spans="1:7">
@@ -2682,10 +2682,10 @@
         <v>45</v>
       </c>
       <c r="C41" t="n">
-        <v>0.04473861488267197</v>
+        <v>0.01988835282011192</v>
       </c>
       <c r="D41" t="n">
-        <v>-0.2002274410009253</v>
+        <v>-0.1840217277554083</v>
       </c>
       <c r="E41" t="n">
         <v>-0.5522783488794601</v>
@@ -2694,7 +2694,7 @@
         <v>-0.02185937552636825</v>
       </c>
       <c r="G41" t="n">
-        <v>-0.02373021017530622</v>
+        <v>-0.01054915968452783</v>
       </c>
     </row>
     <row r="42" spans="1:7">
@@ -2705,10 +2705,10 @@
         <v>46</v>
       </c>
       <c r="C42" t="n">
-        <v>-0.3448808533222099</v>
+        <v>-0.2721703892086785</v>
       </c>
       <c r="D42" t="n">
-        <v>-0.1360350876046038</v>
+        <v>-0.1421668554187702</v>
       </c>
       <c r="E42" t="n">
         <v>-0.2627194170384837</v>
@@ -2717,7 +2717,7 @@
         <v>-0.05773882133641615</v>
       </c>
       <c r="G42" t="n">
-        <v>0.07069388276022395</v>
+        <v>0.05578964851245849</v>
       </c>
     </row>
     <row r="43" spans="1:7">
@@ -2728,10 +2728,10 @@
         <v>47</v>
       </c>
       <c r="C43" t="n">
-        <v>0.09928866777542111</v>
+        <v>0.05866394357404947</v>
       </c>
       <c r="D43" t="n">
-        <v>-0.1662744734021106</v>
+        <v>-0.1671555341433754</v>
       </c>
       <c r="E43" t="n">
         <v>-0.2190050510614926</v>
@@ -2740,7 +2740,7 @@
         <v>-0.05233169225487078</v>
       </c>
       <c r="G43" t="n">
-        <v>-0.01654877574956423</v>
+        <v>-0.009777716516328964</v>
       </c>
     </row>
     <row r="44" spans="1:7">
@@ -2751,10 +2751,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2941296661304203</v>
+        <v>0.3542923818802666</v>
       </c>
       <c r="D44" t="n">
-        <v>-0.1847560553425975</v>
+        <v>-0.1819615945296167</v>
       </c>
       <c r="E44" t="n">
         <v>-0.1406543160420174</v>
@@ -2763,7 +2763,7 @@
         <v>-0.03363115345720309</v>
       </c>
       <c r="G44" t="n">
-        <v>-0.03147868707929313</v>
+        <v>-0.0379174911885329</v>
       </c>
     </row>
     <row r="45" spans="1:7">
@@ -2774,10 +2774,10 @@
         <v>49</v>
       </c>
       <c r="C45" t="n">
-        <v>0.1735016486616089</v>
+        <v>0.1153322102546582</v>
       </c>
       <c r="D45" t="n">
-        <v>-0.2272438725244541</v>
+        <v>-0.2074599782957645</v>
       </c>
       <c r="E45" t="n">
         <v>-0.3057316541649393</v>
@@ -2786,7 +2786,7 @@
         <v>0.0008156890556644013</v>
       </c>
       <c r="G45" t="n">
-        <v>-0.05318646944161084</v>
+        <v>-0.03535478264132555</v>
       </c>
     </row>
     <row r="46" spans="1:7">
@@ -2797,10 +2797,10 @@
         <v>50</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06900173015870252</v>
+        <v>0.05774570065738577</v>
       </c>
       <c r="D46" t="n">
-        <v>-0.1901655043709271</v>
+        <v>-0.1847783955973579</v>
       </c>
       <c r="E46" t="n">
         <v>-0.5129936739927624</v>
@@ -2809,7 +2809,7 @@
         <v>0.09022139165383412</v>
       </c>
       <c r="G46" t="n">
-        <v>-0.04162288318741048</v>
+        <v>-0.03483307661285367</v>
       </c>
     </row>
     <row r="47" spans="1:7">
@@ -2820,10 +2820,10 @@
         <v>51</v>
       </c>
       <c r="C47" t="n">
-        <v>-0.0425566845158728</v>
+        <v>0.004597692866518011</v>
       </c>
       <c r="D47" t="n">
-        <v>-0.1727186939046678</v>
+        <v>-0.17438741495672</v>
       </c>
       <c r="E47" t="n">
         <v>-0.4366784538562998</v>
@@ -2832,7 +2832,7 @@
         <v>-0.1047855354221245</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0141242622228555</v>
+        <v>-0.001525941703532652</v>
       </c>
     </row>
     <row r="48" spans="1:7">
@@ -2843,10 +2843,10 @@
         <v>52</v>
       </c>
       <c r="C48" t="n">
-        <v>0.07704139079403682</v>
+        <v>0.05658341945797696</v>
       </c>
       <c r="D48" t="n">
-        <v>-0.1919270803286772</v>
+        <v>-0.1844392425680394</v>
       </c>
       <c r="E48" t="n">
         <v>-0.552255249424409</v>
@@ -2855,7 +2855,7 @@
         <v>-0.06911952341634622</v>
       </c>
       <c r="G48" t="n">
-        <v>-0.03722144827394786</v>
+        <v>-0.02733747143984844</v>
       </c>
     </row>
     <row r="49" spans="1:7">
@@ -2866,10 +2866,10 @@
         <v>53</v>
       </c>
       <c r="C49" t="n">
-        <v>-0.1325630064876842</v>
+        <v>-0.1404406046713819</v>
       </c>
       <c r="D49" t="n">
-        <v>-0.1481573798019965</v>
+        <v>-0.1423656132235559</v>
       </c>
       <c r="E49" t="n">
         <v>-0.2115796612337968</v>
@@ -2878,7 +2878,7 @@
         <v>-0.03693361474460386</v>
       </c>
       <c r="G49" t="n">
-        <v>0.02315160499379528</v>
+        <v>0.02452739637240854</v>
       </c>
     </row>
     <row r="50" spans="1:7">
@@ -2889,10 +2889,10 @@
         <v>54</v>
       </c>
       <c r="C50" t="n">
-        <v>0.2787382161045863</v>
+        <v>0.3649716358861693</v>
       </c>
       <c r="D50" t="n">
-        <v>-0.1985180266972094</v>
+        <v>-0.2004034443265729</v>
       </c>
       <c r="E50" t="n">
         <v>-0.3141388711706843</v>
@@ -2901,7 +2901,7 @@
         <v>-0.0821521830214704</v>
       </c>
       <c r="G50" t="n">
-        <v>-0.06466355561472284</v>
+        <v>-0.08466856107763321</v>
       </c>
     </row>
     <row r="51" spans="1:7">
@@ -2912,19 +2912,19 @@
         <v>55</v>
       </c>
       <c r="C51" t="n">
-        <v>-0.01356611142704922</v>
+        <v>-0.04251807114841388</v>
       </c>
       <c r="D51" t="n">
-        <v>-0.1721715242209332</v>
+        <v>-0.1729635350203169</v>
       </c>
       <c r="E51" t="n">
         <v>-0.3070563276436176</v>
       </c>
       <c r="F51" t="n">
-        <v>-0.04688077666599154</v>
+        <v>-0.09704241925862264</v>
       </c>
       <c r="G51" t="n">
-        <v>0.003529570515156399</v>
+        <v>0.008929386298869689</v>
       </c>
     </row>
     <row r="52" spans="1:7">
@@ -2935,10 +2935,10 @@
         <v>56</v>
       </c>
       <c r="C52" t="n">
-        <v>0.02057920492538257</v>
+        <v>0.04059828248108233</v>
       </c>
       <c r="D52" t="n">
-        <v>-0.1771240216711916</v>
+        <v>-0.1725258893154521</v>
       </c>
       <c r="E52" t="n">
         <v>-0.3712572385230804</v>
@@ -2947,7 +2947,7 @@
         <v>-0.1456427669620106</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.004642966444387153</v>
+        <v>-0.009159560048256427</v>
       </c>
     </row>
   </sheetData>
